--- a/BackTest/2020-01-22 BackTest ETC.xlsx
+++ b/BackTest/2020-01-22 BackTest ETC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -1276,7 +1276,7 @@
         <v>-7116.260600412541</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>-6184.35790041254</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>-7150.85670041254</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>-7260.05670041254</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>-4691.138700412539</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>-4970.638600412539</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>-5272.638600412539</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>-6423.174200412539</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>-7410.11830041254</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>-5237.466600412539</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>-5353.569000412539</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>-5353.569000412539</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>-5886.573800412539</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>-5599.759100412539</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>-6180.060600412538</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>-6717.405100412539</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>-4223.253400412538</v>
       </c>
       <c r="H47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>-4758.121000412539</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>-4679.183900412539</v>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>-4867.329700412539</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>-5519.985100412538</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>-5992.947600412538</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>-6070.324400412538</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>-5351.698100412538</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>-4335.913400412538</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>-4335.913400412538</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>-4700.997600412538</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>-4420.811300412538</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>-4420.811300412538</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>-5308.519300412538</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2926,7 +2926,7 @@
         <v>-2909.656730198333</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -2959,7 +2959,7 @@
         <v>-3053.392530198333</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -5302,7 +5302,7 @@
         <v>-6627.134453938331</v>
       </c>
       <c r="H149" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5335,7 +5335,7 @@
         <v>-6635.017653938331</v>
       </c>
       <c r="H150" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -8602,7 +8602,7 @@
         <v>-1221.643776606653</v>
       </c>
       <c r="H249" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
@@ -8635,7 +8635,7 @@
         <v>-1244.446776606653</v>
       </c>
       <c r="H250" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
@@ -8668,7 +8668,7 @@
         <v>-1207.115476606653</v>
       </c>
       <c r="H251" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
@@ -8701,7 +8701,7 @@
         <v>-976.0041205755243</v>
       </c>
       <c r="H252" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
@@ -8734,7 +8734,7 @@
         <v>-976.0041205755243</v>
       </c>
       <c r="H253" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
@@ -8767,7 +8767,7 @@
         <v>-764.1610205755244</v>
       </c>
       <c r="H254" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
@@ -8800,7 +8800,7 @@
         <v>-882.6131564978544</v>
       </c>
       <c r="H255" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
@@ -8833,7 +8833,7 @@
         <v>-882.6131564978544</v>
       </c>
       <c r="H256" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
@@ -8866,7 +8866,7 @@
         <v>-882.6131564978544</v>
       </c>
       <c r="H257" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
@@ -8899,7 +8899,7 @@
         <v>-912.4854564978544</v>
       </c>
       <c r="H258" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
@@ -8932,7 +8932,7 @@
         <v>-912.4854564978544</v>
       </c>
       <c r="H259" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
@@ -8965,7 +8965,7 @@
         <v>-745.4728564978544</v>
       </c>
       <c r="H260" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
@@ -8998,7 +8998,7 @@
         <v>167.4722435021456</v>
       </c>
       <c r="H261" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
@@ -9031,7 +9031,7 @@
         <v>432.2963435021456</v>
       </c>
       <c r="H262" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
@@ -9064,7 +9064,7 @@
         <v>432.2963435021456</v>
       </c>
       <c r="H263" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
@@ -9097,7 +9097,7 @@
         <v>432.2963435021456</v>
       </c>
       <c r="H264" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
@@ -9130,7 +9130,7 @@
         <v>285.0693305050554</v>
       </c>
       <c r="H265" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
@@ -9163,7 +9163,7 @@
         <v>-920.1588694949446</v>
       </c>
       <c r="H266" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
@@ -9196,7 +9196,7 @@
         <v>-931.5735694949446</v>
       </c>
       <c r="H267" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
@@ -9229,7 +9229,7 @@
         <v>-880.1511824920349</v>
       </c>
       <c r="H268" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
@@ -9262,7 +9262,7 @@
         <v>-880.1511824920349</v>
       </c>
       <c r="H269" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
@@ -9295,7 +9295,7 @@
         <v>-959.1304954891251</v>
       </c>
       <c r="H270" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
@@ -9328,7 +9328,7 @@
         <v>-1254.040095489125</v>
       </c>
       <c r="H271" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
@@ -9361,7 +9361,7 @@
         <v>-1404.366095489125</v>
       </c>
       <c r="H272" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
@@ -9394,7 +9394,7 @@
         <v>-1639.953995489125</v>
       </c>
       <c r="H273" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
@@ -9427,7 +9427,7 @@
         <v>-1639.953995489125</v>
       </c>
       <c r="H274" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
@@ -9460,7 +9460,7 @@
         <v>-1639.953995489125</v>
       </c>
       <c r="H275" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
@@ -9493,7 +9493,7 @@
         <v>-1212.274495489125</v>
       </c>
       <c r="H276" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
@@ -9526,7 +9526,7 @@
         <v>-2083.831195489125</v>
       </c>
       <c r="H277" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
@@ -9559,7 +9559,7 @@
         <v>-2210.517695489125</v>
       </c>
       <c r="H278" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
@@ -9592,7 +9592,7 @@
         <v>-2807.244795489125</v>
       </c>
       <c r="H279" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
@@ -9625,7 +9625,7 @@
         <v>-2807.244795489125</v>
       </c>
       <c r="H280" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
@@ -9658,7 +9658,7 @@
         <v>-2807.244795489125</v>
       </c>
       <c r="H281" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
@@ -9691,7 +9691,7 @@
         <v>-2781.678295489125</v>
       </c>
       <c r="H282" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
@@ -9724,7 +9724,7 @@
         <v>-2626.492495489125</v>
       </c>
       <c r="H283" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
@@ -9757,7 +9757,7 @@
         <v>-2626.492495489125</v>
       </c>
       <c r="H284" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
@@ -9790,7 +9790,7 @@
         <v>-3008.822395489125</v>
       </c>
       <c r="H285" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
@@ -9823,7 +9823,7 @@
         <v>-7143.998495489124</v>
       </c>
       <c r="H286" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
@@ -9856,7 +9856,7 @@
         <v>-6293.191395489124</v>
       </c>
       <c r="H287" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
@@ -9889,7 +9889,7 @@
         <v>-6307.262695489124</v>
       </c>
       <c r="H288" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
@@ -9922,7 +9922,7 @@
         <v>-6416.889895489124</v>
       </c>
       <c r="H289" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
@@ -9955,7 +9955,7 @@
         <v>-6817.498895489124</v>
       </c>
       <c r="H290" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
@@ -9988,7 +9988,7 @@
         <v>-7939.646795489124</v>
       </c>
       <c r="H291" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
@@ -10021,7 +10021,7 @@
         <v>-7387.845095489124</v>
       </c>
       <c r="H292" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
@@ -10054,7 +10054,7 @@
         <v>-7054.799995489124</v>
       </c>
       <c r="H293" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
@@ -10087,7 +10087,7 @@
         <v>-7197.558195489124</v>
       </c>
       <c r="H294" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
@@ -10120,7 +10120,7 @@
         <v>-7197.558195489124</v>
       </c>
       <c r="H295" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
@@ -10153,7 +10153,7 @@
         <v>-7145.433295489124</v>
       </c>
       <c r="H296" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
@@ -10186,7 +10186,7 @@
         <v>-7897.303495489125</v>
       </c>
       <c r="H297" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
@@ -10219,7 +10219,7 @@
         <v>-7835.303495489125</v>
       </c>
       <c r="H298" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
@@ -10252,7 +10252,7 @@
         <v>-7766.654695489125</v>
       </c>
       <c r="H299" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
@@ -10285,7 +10285,7 @@
         <v>-7956.387595489125</v>
       </c>
       <c r="H300" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
@@ -11704,17 +11704,11 @@
         <v>-15097.96213899556</v>
       </c>
       <c r="H343" t="n">
-        <v>2</v>
-      </c>
-      <c r="I343" t="n">
-        <v>9775</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
-      <c r="K343" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K343" t="inlineStr"/>
       <c r="L343" t="n">
         <v>1</v>
       </c>
@@ -11743,17 +11737,11 @@
         <v>-15014.75263899556</v>
       </c>
       <c r="H344" t="n">
-        <v>2</v>
-      </c>
-      <c r="I344" t="n">
-        <v>9715</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
-      <c r="K344" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K344" t="inlineStr"/>
       <c r="L344" t="n">
         <v>1</v>
       </c>
@@ -11782,17 +11770,11 @@
         <v>-14993.75263899556</v>
       </c>
       <c r="H345" t="n">
-        <v>2</v>
-      </c>
-      <c r="I345" t="n">
-        <v>9810</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
-      <c r="K345" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K345" t="inlineStr"/>
       <c r="L345" t="n">
         <v>1</v>
       </c>
@@ -11821,17 +11803,11 @@
         <v>-14855.06543899556</v>
       </c>
       <c r="H346" t="n">
-        <v>2</v>
-      </c>
-      <c r="I346" t="n">
-        <v>9820</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
-      <c r="K346" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K346" t="inlineStr"/>
       <c r="L346" t="n">
         <v>1</v>
       </c>
@@ -11860,17 +11836,11 @@
         <v>-15389.56263899556</v>
       </c>
       <c r="H347" t="n">
-        <v>2</v>
-      </c>
-      <c r="I347" t="n">
-        <v>9825</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
-      <c r="K347" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K347" t="inlineStr"/>
       <c r="L347" t="n">
         <v>1</v>
       </c>
@@ -11899,17 +11869,11 @@
         <v>-15287.73108683271</v>
       </c>
       <c r="H348" t="n">
-        <v>2</v>
-      </c>
-      <c r="I348" t="n">
-        <v>9800</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
-      <c r="K348" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K348" t="inlineStr"/>
       <c r="L348" t="n">
         <v>1</v>
       </c>
@@ -11938,17 +11902,11 @@
         <v>-15385.70988560885</v>
       </c>
       <c r="H349" t="n">
-        <v>2</v>
-      </c>
-      <c r="I349" t="n">
-        <v>9825</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
-      <c r="K349" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K349" t="inlineStr"/>
       <c r="L349" t="n">
         <v>1</v>
       </c>
@@ -11977,17 +11935,11 @@
         <v>-15385.70988560885</v>
       </c>
       <c r="H350" t="n">
-        <v>2</v>
-      </c>
-      <c r="I350" t="n">
-        <v>9785</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
-      <c r="K350" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K350" t="inlineStr"/>
       <c r="L350" t="n">
         <v>1</v>
       </c>
@@ -12016,17 +11968,11 @@
         <v>-15211.06858560885</v>
       </c>
       <c r="H351" t="n">
-        <v>2</v>
-      </c>
-      <c r="I351" t="n">
-        <v>9785</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
-      <c r="K351" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K351" t="inlineStr"/>
       <c r="L351" t="n">
         <v>1</v>
       </c>
@@ -12055,17 +12001,11 @@
         <v>-15211.06858560885</v>
       </c>
       <c r="H352" t="n">
-        <v>2</v>
-      </c>
-      <c r="I352" t="n">
-        <v>9825</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
-      <c r="K352" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K352" t="inlineStr"/>
       <c r="L352" t="n">
         <v>1</v>
       </c>
@@ -12094,17 +12034,11 @@
         <v>-14869.25278560885</v>
       </c>
       <c r="H353" t="n">
-        <v>2</v>
-      </c>
-      <c r="I353" t="n">
-        <v>9825</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
-      <c r="K353" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K353" t="inlineStr"/>
       <c r="L353" t="n">
         <v>1</v>
       </c>
@@ -12133,17 +12067,11 @@
         <v>-13976.73768393287</v>
       </c>
       <c r="H354" t="n">
-        <v>2</v>
-      </c>
-      <c r="I354" t="n">
-        <v>9830</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
-      <c r="K354" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K354" t="inlineStr"/>
       <c r="L354" t="n">
         <v>1</v>
       </c>
@@ -12172,17 +12100,11 @@
         <v>-14003.26838393287</v>
       </c>
       <c r="H355" t="n">
-        <v>2</v>
-      </c>
-      <c r="I355" t="n">
-        <v>9880</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
-      <c r="K355" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K355" t="inlineStr"/>
       <c r="L355" t="n">
         <v>1</v>
       </c>
@@ -12211,17 +12133,11 @@
         <v>-14130.16498393287</v>
       </c>
       <c r="H356" t="n">
-        <v>2</v>
-      </c>
-      <c r="I356" t="n">
-        <v>9865</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
-      <c r="K356" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K356" t="inlineStr"/>
       <c r="L356" t="n">
         <v>1</v>
       </c>
@@ -12250,17 +12166,11 @@
         <v>-13997.15288393287</v>
       </c>
       <c r="H357" t="n">
-        <v>2</v>
-      </c>
-      <c r="I357" t="n">
-        <v>9835</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
-      <c r="K357" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K357" t="inlineStr"/>
       <c r="L357" t="n">
         <v>1</v>
       </c>
@@ -12289,17 +12199,11 @@
         <v>-13629.15288393287</v>
       </c>
       <c r="H358" t="n">
-        <v>2</v>
-      </c>
-      <c r="I358" t="n">
-        <v>9870</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
-      <c r="K358" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K358" t="inlineStr"/>
       <c r="L358" t="n">
         <v>1</v>
       </c>
@@ -12328,17 +12232,11 @@
         <v>-13558.94268393287</v>
       </c>
       <c r="H359" t="n">
-        <v>2</v>
-      </c>
-      <c r="I359" t="n">
-        <v>9880</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
-      <c r="K359" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K359" t="inlineStr"/>
       <c r="L359" t="n">
         <v>1</v>
       </c>
@@ -12367,17 +12265,11 @@
         <v>-13558.94268393287</v>
       </c>
       <c r="H360" t="n">
-        <v>2</v>
-      </c>
-      <c r="I360" t="n">
-        <v>9900</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
-      <c r="K360" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K360" t="inlineStr"/>
       <c r="L360" t="n">
         <v>1</v>
       </c>
@@ -12410,11 +12302,7 @@
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
-      <c r="K361" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K361" t="inlineStr"/>
       <c r="L361" t="n">
         <v>1</v>
       </c>
@@ -12447,11 +12335,7 @@
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
-      <c r="K362" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K362" t="inlineStr"/>
       <c r="L362" t="n">
         <v>1</v>
       </c>
@@ -12484,11 +12368,7 @@
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
-      <c r="K363" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K363" t="inlineStr"/>
       <c r="L363" t="n">
         <v>1</v>
       </c>
@@ -12521,11 +12401,7 @@
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
-      <c r="K364" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K364" t="inlineStr"/>
       <c r="L364" t="n">
         <v>1</v>
       </c>
@@ -12558,11 +12434,7 @@
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
-      <c r="K365" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K365" t="inlineStr"/>
       <c r="L365" t="n">
         <v>1</v>
       </c>
@@ -12595,11 +12467,7 @@
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
-      <c r="K366" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K366" t="inlineStr"/>
       <c r="L366" t="n">
         <v>1</v>
       </c>
@@ -12632,11 +12500,7 @@
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
-      <c r="K367" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K367" t="inlineStr"/>
       <c r="L367" t="n">
         <v>1</v>
       </c>
@@ -12669,11 +12533,7 @@
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
-      <c r="K368" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K368" t="inlineStr"/>
       <c r="L368" t="n">
         <v>1</v>
       </c>
@@ -12706,11 +12566,7 @@
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
-      <c r="K369" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K369" t="inlineStr"/>
       <c r="L369" t="n">
         <v>1</v>
       </c>
@@ -12743,11 +12599,7 @@
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
-      <c r="K370" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K370" t="inlineStr"/>
       <c r="L370" t="n">
         <v>1</v>
       </c>
@@ -12780,11 +12632,7 @@
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
-      <c r="K371" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K371" t="inlineStr"/>
       <c r="L371" t="n">
         <v>1</v>
       </c>
@@ -12817,11 +12665,7 @@
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
-      <c r="K372" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K372" t="inlineStr"/>
       <c r="L372" t="n">
         <v>1</v>
       </c>
@@ -12854,11 +12698,7 @@
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
-      <c r="K373" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K373" t="inlineStr"/>
       <c r="L373" t="n">
         <v>1</v>
       </c>
@@ -12891,11 +12731,7 @@
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
-      <c r="K374" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K374" t="inlineStr"/>
       <c r="L374" t="n">
         <v>1</v>
       </c>
@@ -12928,11 +12764,7 @@
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
-      <c r="K375" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K375" t="inlineStr"/>
       <c r="L375" t="n">
         <v>1</v>
       </c>
@@ -12965,11 +12797,7 @@
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
-      <c r="K376" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K376" t="inlineStr"/>
       <c r="L376" t="n">
         <v>1</v>
       </c>
@@ -13002,11 +12830,7 @@
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
-      <c r="K377" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K377" t="inlineStr"/>
       <c r="L377" t="n">
         <v>1</v>
       </c>
@@ -13039,11 +12863,7 @@
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
-      <c r="K378" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K378" t="inlineStr"/>
       <c r="L378" t="n">
         <v>1</v>
       </c>
@@ -13076,11 +12896,7 @@
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
-      <c r="K379" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K379" t="inlineStr"/>
       <c r="L379" t="n">
         <v>1</v>
       </c>
@@ -13113,11 +12929,7 @@
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
-      <c r="K380" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K380" t="inlineStr"/>
       <c r="L380" t="n">
         <v>1</v>
       </c>
@@ -13150,11 +12962,7 @@
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
-      <c r="K381" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K381" t="inlineStr"/>
       <c r="L381" t="n">
         <v>1</v>
       </c>
@@ -13187,11 +12995,7 @@
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
-      <c r="K382" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K382" t="inlineStr"/>
       <c r="L382" t="n">
         <v>1</v>
       </c>
@@ -13224,11 +13028,7 @@
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
-      <c r="K383" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K383" t="inlineStr"/>
       <c r="L383" t="n">
         <v>1</v>
       </c>
@@ -13261,11 +13061,7 @@
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
-      <c r="K384" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K384" t="inlineStr"/>
       <c r="L384" t="n">
         <v>1</v>
       </c>
@@ -13298,11 +13094,7 @@
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
-      <c r="K385" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K385" t="inlineStr"/>
       <c r="L385" t="n">
         <v>1</v>
       </c>
@@ -13335,11 +13127,7 @@
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
-      <c r="K386" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K386" t="inlineStr"/>
       <c r="L386" t="n">
         <v>1</v>
       </c>
@@ -13372,11 +13160,7 @@
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
-      <c r="K387" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K387" t="inlineStr"/>
       <c r="L387" t="n">
         <v>1</v>
       </c>
@@ -13409,11 +13193,7 @@
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
-      <c r="K388" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K388" t="inlineStr"/>
       <c r="L388" t="n">
         <v>1</v>
       </c>
@@ -13446,11 +13226,7 @@
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
-      <c r="K389" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K389" t="inlineStr"/>
       <c r="L389" t="n">
         <v>1</v>
       </c>
@@ -13483,11 +13259,7 @@
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
-      <c r="K390" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K390" t="inlineStr"/>
       <c r="L390" t="n">
         <v>1</v>
       </c>
@@ -13516,17 +13288,11 @@
         <v>-18761.0196684663</v>
       </c>
       <c r="H391" t="n">
-        <v>2</v>
-      </c>
-      <c r="I391" t="n">
-        <v>9950</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
-      <c r="K391" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K391" t="inlineStr"/>
       <c r="L391" t="n">
         <v>1</v>
       </c>
@@ -13555,17 +13321,11 @@
         <v>-18526.0189684663</v>
       </c>
       <c r="H392" t="n">
-        <v>2</v>
-      </c>
-      <c r="I392" t="n">
-        <v>9935</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
-      <c r="K392" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K392" t="inlineStr"/>
       <c r="L392" t="n">
         <v>1</v>
       </c>
@@ -13594,17 +13354,11 @@
         <v>-18952.2723684663</v>
       </c>
       <c r="H393" t="n">
-        <v>2</v>
-      </c>
-      <c r="I393" t="n">
-        <v>9955</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
-      <c r="K393" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K393" t="inlineStr"/>
       <c r="L393" t="n">
         <v>1</v>
       </c>
@@ -13633,17 +13387,11 @@
         <v>-18952.2723684663</v>
       </c>
       <c r="H394" t="n">
-        <v>2</v>
-      </c>
-      <c r="I394" t="n">
-        <v>9905</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
-      <c r="K394" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K394" t="inlineStr"/>
       <c r="L394" t="n">
         <v>1</v>
       </c>
@@ -13672,17 +13420,11 @@
         <v>-18947.95216846631</v>
       </c>
       <c r="H395" t="n">
-        <v>2</v>
-      </c>
-      <c r="I395" t="n">
-        <v>9905</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
-      <c r="K395" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K395" t="inlineStr"/>
       <c r="L395" t="n">
         <v>1</v>
       </c>
@@ -13711,17 +13453,11 @@
         <v>-19749.97386846631</v>
       </c>
       <c r="H396" t="n">
-        <v>2</v>
-      </c>
-      <c r="I396" t="n">
-        <v>9925</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
-      <c r="K396" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K396" t="inlineStr"/>
       <c r="L396" t="n">
         <v>1</v>
       </c>
@@ -13750,17 +13486,11 @@
         <v>-19447.90416846631</v>
       </c>
       <c r="H397" t="n">
-        <v>2</v>
-      </c>
-      <c r="I397" t="n">
-        <v>9895</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
-      <c r="K397" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K397" t="inlineStr"/>
       <c r="L397" t="n">
         <v>1</v>
       </c>
@@ -13789,17 +13519,11 @@
         <v>-19447.90416846631</v>
       </c>
       <c r="H398" t="n">
-        <v>2</v>
-      </c>
-      <c r="I398" t="n">
-        <v>9915</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
-      <c r="K398" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K398" t="inlineStr"/>
       <c r="L398" t="n">
         <v>1</v>
       </c>
@@ -13828,17 +13552,11 @@
         <v>-19124.15316846631</v>
       </c>
       <c r="H399" t="n">
-        <v>2</v>
-      </c>
-      <c r="I399" t="n">
-        <v>9915</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
-      <c r="K399" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K399" t="inlineStr"/>
       <c r="L399" t="n">
         <v>1</v>
       </c>
@@ -13867,17 +13585,11 @@
         <v>-19124.15316846631</v>
       </c>
       <c r="H400" t="n">
-        <v>2</v>
-      </c>
-      <c r="I400" t="n">
-        <v>9920</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
-      <c r="K400" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K400" t="inlineStr"/>
       <c r="L400" t="n">
         <v>1</v>
       </c>
@@ -13906,17 +13618,11 @@
         <v>-19420.57406846631</v>
       </c>
       <c r="H401" t="n">
-        <v>2</v>
-      </c>
-      <c r="I401" t="n">
-        <v>9920</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
-      <c r="K401" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K401" t="inlineStr"/>
       <c r="L401" t="n">
         <v>1</v>
       </c>
@@ -13949,11 +13655,7 @@
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
-      <c r="K402" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K402" t="inlineStr"/>
       <c r="L402" t="n">
         <v>1</v>
       </c>
@@ -13986,11 +13688,7 @@
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
-      <c r="K403" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K403" t="inlineStr"/>
       <c r="L403" t="n">
         <v>1</v>
       </c>
@@ -14023,11 +13721,7 @@
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
-      <c r="K404" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K404" t="inlineStr"/>
       <c r="L404" t="n">
         <v>1</v>
       </c>
@@ -14060,11 +13754,7 @@
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
-      <c r="K405" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K405" t="inlineStr"/>
       <c r="L405" t="n">
         <v>1</v>
       </c>
@@ -14097,11 +13787,7 @@
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
-      <c r="K406" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K406" t="inlineStr"/>
       <c r="L406" t="n">
         <v>1</v>
       </c>
@@ -14134,11 +13820,7 @@
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
-      <c r="K407" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K407" t="inlineStr"/>
       <c r="L407" t="n">
         <v>1</v>
       </c>
@@ -14171,11 +13853,7 @@
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
-      <c r="K408" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K408" t="inlineStr"/>
       <c r="L408" t="n">
         <v>1</v>
       </c>
@@ -14208,11 +13886,7 @@
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
-      <c r="K409" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K409" t="inlineStr"/>
       <c r="L409" t="n">
         <v>1</v>
       </c>
@@ -14245,11 +13919,7 @@
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
-      <c r="K410" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K410" t="inlineStr"/>
       <c r="L410" t="n">
         <v>1</v>
       </c>
@@ -14282,11 +13952,7 @@
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
-      <c r="K411" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K411" t="inlineStr"/>
       <c r="L411" t="n">
         <v>1</v>
       </c>
@@ -14319,11 +13985,7 @@
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
-      <c r="K412" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K412" t="inlineStr"/>
       <c r="L412" t="n">
         <v>1</v>
       </c>
@@ -14356,11 +14018,7 @@
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
-      <c r="K413" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K413" t="inlineStr"/>
       <c r="L413" t="n">
         <v>1</v>
       </c>
@@ -14393,11 +14051,7 @@
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
-      <c r="K414" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K414" t="inlineStr"/>
       <c r="L414" t="n">
         <v>1</v>
       </c>
@@ -14430,11 +14084,7 @@
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="inlineStr"/>
-      <c r="K415" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K415" t="inlineStr"/>
       <c r="L415" t="n">
         <v>1</v>
       </c>
@@ -14467,11 +14117,7 @@
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr"/>
-      <c r="K416" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K416" t="inlineStr"/>
       <c r="L416" t="n">
         <v>1</v>
       </c>
@@ -14504,11 +14150,7 @@
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr"/>
-      <c r="K417" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K417" t="inlineStr"/>
       <c r="L417" t="n">
         <v>1</v>
       </c>
@@ -14541,11 +14183,7 @@
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr"/>
-      <c r="K418" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K418" t="inlineStr"/>
       <c r="L418" t="n">
         <v>1</v>
       </c>
@@ -14578,11 +14216,7 @@
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr"/>
-      <c r="K419" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K419" t="inlineStr"/>
       <c r="L419" t="n">
         <v>1</v>
       </c>
@@ -14611,17 +14245,11 @@
         <v>-17195.84216846631</v>
       </c>
       <c r="H420" t="n">
-        <v>2</v>
-      </c>
-      <c r="I420" t="n">
-        <v>9985</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I420" t="inlineStr"/>
       <c r="J420" t="inlineStr"/>
-      <c r="K420" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K420" t="inlineStr"/>
       <c r="L420" t="n">
         <v>1</v>
       </c>
@@ -14650,17 +14278,11 @@
         <v>-17195.60910153325</v>
       </c>
       <c r="H421" t="n">
-        <v>2</v>
-      </c>
-      <c r="I421" t="n">
-        <v>9985</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr"/>
-      <c r="K421" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K421" t="inlineStr"/>
       <c r="L421" t="n">
         <v>1</v>
       </c>
@@ -14693,11 +14315,7 @@
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="inlineStr"/>
-      <c r="K422" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K422" t="inlineStr"/>
       <c r="L422" t="n">
         <v>1</v>
       </c>
@@ -14730,11 +14348,7 @@
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="inlineStr"/>
-      <c r="K423" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K423" t="inlineStr"/>
       <c r="L423" t="n">
         <v>1</v>
       </c>
@@ -14767,11 +14381,7 @@
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="inlineStr"/>
-      <c r="K424" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K424" t="inlineStr"/>
       <c r="L424" t="n">
         <v>1</v>
       </c>
@@ -14804,11 +14414,7 @@
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="inlineStr"/>
-      <c r="K425" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K425" t="inlineStr"/>
       <c r="L425" t="n">
         <v>1</v>
       </c>
@@ -14841,11 +14447,7 @@
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr"/>
-      <c r="K426" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K426" t="inlineStr"/>
       <c r="L426" t="n">
         <v>1</v>
       </c>
@@ -14878,11 +14480,7 @@
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr"/>
-      <c r="K427" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K427" t="inlineStr"/>
       <c r="L427" t="n">
         <v>1</v>
       </c>
@@ -14915,11 +14513,7 @@
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="inlineStr"/>
-      <c r="K428" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K428" t="inlineStr"/>
       <c r="L428" t="n">
         <v>1</v>
       </c>
@@ -14952,11 +14546,7 @@
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
-      <c r="K429" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K429" t="inlineStr"/>
       <c r="L429" t="n">
         <v>1</v>
       </c>
@@ -14989,11 +14579,7 @@
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr"/>
-      <c r="K430" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K430" t="inlineStr"/>
       <c r="L430" t="n">
         <v>1</v>
       </c>
@@ -15026,11 +14612,7 @@
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="inlineStr"/>
-      <c r="K431" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K431" t="inlineStr"/>
       <c r="L431" t="n">
         <v>1</v>
       </c>
@@ -15063,11 +14645,7 @@
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="inlineStr"/>
-      <c r="K432" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K432" t="inlineStr"/>
       <c r="L432" t="n">
         <v>1</v>
       </c>
@@ -15100,11 +14678,7 @@
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr"/>
-      <c r="K433" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K433" t="inlineStr"/>
       <c r="L433" t="n">
         <v>1</v>
       </c>
@@ -15137,11 +14711,7 @@
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr"/>
-      <c r="K434" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K434" t="inlineStr"/>
       <c r="L434" t="n">
         <v>1</v>
       </c>
@@ -15174,11 +14744,7 @@
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
-      <c r="K435" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K435" t="inlineStr"/>
       <c r="L435" t="n">
         <v>1</v>
       </c>
@@ -15211,11 +14777,7 @@
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="inlineStr"/>
-      <c r="K436" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K436" t="inlineStr"/>
       <c r="L436" t="n">
         <v>1</v>
       </c>
@@ -15248,11 +14810,7 @@
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="inlineStr"/>
-      <c r="K437" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K437" t="inlineStr"/>
       <c r="L437" t="n">
         <v>1</v>
       </c>
@@ -15285,11 +14843,7 @@
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr"/>
-      <c r="K438" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K438" t="inlineStr"/>
       <c r="L438" t="n">
         <v>1</v>
       </c>
@@ -15322,11 +14876,7 @@
       </c>
       <c r="I439" t="inlineStr"/>
       <c r="J439" t="inlineStr"/>
-      <c r="K439" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K439" t="inlineStr"/>
       <c r="L439" t="n">
         <v>1</v>
       </c>
@@ -15359,11 +14909,7 @@
       </c>
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="inlineStr"/>
-      <c r="K440" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K440" t="inlineStr"/>
       <c r="L440" t="n">
         <v>1</v>
       </c>
@@ -15396,11 +14942,7 @@
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="inlineStr"/>
-      <c r="K441" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K441" t="inlineStr"/>
       <c r="L441" t="n">
         <v>1</v>
       </c>
@@ -15433,11 +14975,7 @@
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="inlineStr"/>
-      <c r="K442" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K442" t="inlineStr"/>
       <c r="L442" t="n">
         <v>1</v>
       </c>
@@ -15470,11 +15008,7 @@
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr"/>
-      <c r="K443" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K443" t="inlineStr"/>
       <c r="L443" t="n">
         <v>1</v>
       </c>
@@ -15507,11 +15041,7 @@
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr"/>
-      <c r="K444" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K444" t="inlineStr"/>
       <c r="L444" t="n">
         <v>1</v>
       </c>
@@ -15544,11 +15074,7 @@
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr"/>
-      <c r="K445" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K445" t="inlineStr"/>
       <c r="L445" t="n">
         <v>1</v>
       </c>
@@ -15581,11 +15107,7 @@
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr"/>
-      <c r="K446" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K446" t="inlineStr"/>
       <c r="L446" t="n">
         <v>1</v>
       </c>
@@ -15618,11 +15140,7 @@
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="inlineStr"/>
-      <c r="K447" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K447" t="inlineStr"/>
       <c r="L447" t="n">
         <v>1</v>
       </c>
@@ -15655,11 +15173,7 @@
       </c>
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="inlineStr"/>
-      <c r="K448" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K448" t="inlineStr"/>
       <c r="L448" t="n">
         <v>1</v>
       </c>
@@ -15692,11 +15206,7 @@
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="inlineStr"/>
-      <c r="K449" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K449" t="inlineStr"/>
       <c r="L449" t="n">
         <v>1</v>
       </c>
@@ -15729,11 +15239,7 @@
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr"/>
-      <c r="K450" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K450" t="inlineStr"/>
       <c r="L450" t="n">
         <v>1</v>
       </c>
@@ -15766,11 +15272,7 @@
       </c>
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="inlineStr"/>
-      <c r="K451" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K451" t="inlineStr"/>
       <c r="L451" t="n">
         <v>1</v>
       </c>
@@ -15803,11 +15305,7 @@
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="inlineStr"/>
-      <c r="K452" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K452" t="inlineStr"/>
       <c r="L452" t="n">
         <v>1</v>
       </c>
@@ -15840,11 +15338,7 @@
       </c>
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="inlineStr"/>
-      <c r="K453" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K453" t="inlineStr"/>
       <c r="L453" t="n">
         <v>1</v>
       </c>
@@ -15877,11 +15371,7 @@
       </c>
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="inlineStr"/>
-      <c r="K454" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K454" t="inlineStr"/>
       <c r="L454" t="n">
         <v>1</v>
       </c>
@@ -15914,11 +15404,7 @@
       </c>
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="inlineStr"/>
-      <c r="K455" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K455" t="inlineStr"/>
       <c r="L455" t="n">
         <v>1</v>
       </c>
@@ -15951,11 +15437,7 @@
       </c>
       <c r="I456" t="inlineStr"/>
       <c r="J456" t="inlineStr"/>
-      <c r="K456" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K456" t="inlineStr"/>
       <c r="L456" t="n">
         <v>1</v>
       </c>
@@ -15988,11 +15470,7 @@
       </c>
       <c r="I457" t="inlineStr"/>
       <c r="J457" t="inlineStr"/>
-      <c r="K457" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K457" t="inlineStr"/>
       <c r="L457" t="n">
         <v>1</v>
       </c>
@@ -16025,11 +15503,7 @@
       </c>
       <c r="I458" t="inlineStr"/>
       <c r="J458" t="inlineStr"/>
-      <c r="K458" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K458" t="inlineStr"/>
       <c r="L458" t="n">
         <v>1</v>
       </c>
@@ -16062,11 +15536,7 @@
       </c>
       <c r="I459" t="inlineStr"/>
       <c r="J459" t="inlineStr"/>
-      <c r="K459" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K459" t="inlineStr"/>
       <c r="L459" t="n">
         <v>1</v>
       </c>
@@ -16099,11 +15569,7 @@
       </c>
       <c r="I460" t="inlineStr"/>
       <c r="J460" t="inlineStr"/>
-      <c r="K460" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K460" t="inlineStr"/>
       <c r="L460" t="n">
         <v>1</v>
       </c>
@@ -16136,11 +15602,7 @@
       </c>
       <c r="I461" t="inlineStr"/>
       <c r="J461" t="inlineStr"/>
-      <c r="K461" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K461" t="inlineStr"/>
       <c r="L461" t="n">
         <v>1</v>
       </c>
@@ -16173,11 +15635,7 @@
       </c>
       <c r="I462" t="inlineStr"/>
       <c r="J462" t="inlineStr"/>
-      <c r="K462" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K462" t="inlineStr"/>
       <c r="L462" t="n">
         <v>1</v>
       </c>
@@ -16210,11 +15668,7 @@
       </c>
       <c r="I463" t="inlineStr"/>
       <c r="J463" t="inlineStr"/>
-      <c r="K463" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K463" t="inlineStr"/>
       <c r="L463" t="n">
         <v>1</v>
       </c>
@@ -16247,11 +15701,7 @@
       </c>
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="inlineStr"/>
-      <c r="K464" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K464" t="inlineStr"/>
       <c r="L464" t="n">
         <v>1</v>
       </c>
@@ -16284,11 +15734,7 @@
       </c>
       <c r="I465" t="inlineStr"/>
       <c r="J465" t="inlineStr"/>
-      <c r="K465" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K465" t="inlineStr"/>
       <c r="L465" t="n">
         <v>1</v>
       </c>
@@ -16321,11 +15767,7 @@
       </c>
       <c r="I466" t="inlineStr"/>
       <c r="J466" t="inlineStr"/>
-      <c r="K466" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K466" t="inlineStr"/>
       <c r="L466" t="n">
         <v>1</v>
       </c>
@@ -16358,11 +15800,7 @@
       </c>
       <c r="I467" t="inlineStr"/>
       <c r="J467" t="inlineStr"/>
-      <c r="K467" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K467" t="inlineStr"/>
       <c r="L467" t="n">
         <v>1</v>
       </c>
@@ -16395,11 +15833,7 @@
       </c>
       <c r="I468" t="inlineStr"/>
       <c r="J468" t="inlineStr"/>
-      <c r="K468" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K468" t="inlineStr"/>
       <c r="L468" t="n">
         <v>1</v>
       </c>
@@ -16432,11 +15866,7 @@
       </c>
       <c r="I469" t="inlineStr"/>
       <c r="J469" t="inlineStr"/>
-      <c r="K469" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K469" t="inlineStr"/>
       <c r="L469" t="n">
         <v>1</v>
       </c>
@@ -16469,11 +15899,7 @@
       </c>
       <c r="I470" t="inlineStr"/>
       <c r="J470" t="inlineStr"/>
-      <c r="K470" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K470" t="inlineStr"/>
       <c r="L470" t="n">
         <v>1</v>
       </c>
@@ -16506,11 +15932,7 @@
       </c>
       <c r="I471" t="inlineStr"/>
       <c r="J471" t="inlineStr"/>
-      <c r="K471" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K471" t="inlineStr"/>
       <c r="L471" t="n">
         <v>1</v>
       </c>
@@ -16543,11 +15965,7 @@
       </c>
       <c r="I472" t="inlineStr"/>
       <c r="J472" t="inlineStr"/>
-      <c r="K472" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K472" t="inlineStr"/>
       <c r="L472" t="n">
         <v>1</v>
       </c>
@@ -16580,11 +15998,7 @@
       </c>
       <c r="I473" t="inlineStr"/>
       <c r="J473" t="inlineStr"/>
-      <c r="K473" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K473" t="inlineStr"/>
       <c r="L473" t="n">
         <v>1</v>
       </c>
@@ -16617,11 +16031,7 @@
       </c>
       <c r="I474" t="inlineStr"/>
       <c r="J474" t="inlineStr"/>
-      <c r="K474" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K474" t="inlineStr"/>
       <c r="L474" t="n">
         <v>1</v>
       </c>
@@ -16654,11 +16064,7 @@
       </c>
       <c r="I475" t="inlineStr"/>
       <c r="J475" t="inlineStr"/>
-      <c r="K475" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K475" t="inlineStr"/>
       <c r="L475" t="n">
         <v>1</v>
       </c>
@@ -16691,11 +16097,7 @@
       </c>
       <c r="I476" t="inlineStr"/>
       <c r="J476" t="inlineStr"/>
-      <c r="K476" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K476" t="inlineStr"/>
       <c r="L476" t="n">
         <v>1</v>
       </c>
@@ -16728,11 +16130,7 @@
       </c>
       <c r="I477" t="inlineStr"/>
       <c r="J477" t="inlineStr"/>
-      <c r="K477" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K477" t="inlineStr"/>
       <c r="L477" t="n">
         <v>1</v>
       </c>
@@ -16765,11 +16163,7 @@
       </c>
       <c r="I478" t="inlineStr"/>
       <c r="J478" t="inlineStr"/>
-      <c r="K478" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K478" t="inlineStr"/>
       <c r="L478" t="n">
         <v>1</v>
       </c>
@@ -16802,11 +16196,7 @@
       </c>
       <c r="I479" t="inlineStr"/>
       <c r="J479" t="inlineStr"/>
-      <c r="K479" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K479" t="inlineStr"/>
       <c r="L479" t="n">
         <v>1</v>
       </c>
@@ -16839,11 +16229,7 @@
       </c>
       <c r="I480" t="inlineStr"/>
       <c r="J480" t="inlineStr"/>
-      <c r="K480" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K480" t="inlineStr"/>
       <c r="L480" t="n">
         <v>1</v>
       </c>
@@ -16876,11 +16262,7 @@
       </c>
       <c r="I481" t="inlineStr"/>
       <c r="J481" t="inlineStr"/>
-      <c r="K481" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K481" t="inlineStr"/>
       <c r="L481" t="n">
         <v>1</v>
       </c>
@@ -16913,11 +16295,7 @@
       </c>
       <c r="I482" t="inlineStr"/>
       <c r="J482" t="inlineStr"/>
-      <c r="K482" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K482" t="inlineStr"/>
       <c r="L482" t="n">
         <v>1</v>
       </c>
@@ -16950,11 +16328,7 @@
       </c>
       <c r="I483" t="inlineStr"/>
       <c r="J483" t="inlineStr"/>
-      <c r="K483" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K483" t="inlineStr"/>
       <c r="L483" t="n">
         <v>1</v>
       </c>
@@ -16987,11 +16361,7 @@
       </c>
       <c r="I484" t="inlineStr"/>
       <c r="J484" t="inlineStr"/>
-      <c r="K484" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K484" t="inlineStr"/>
       <c r="L484" t="n">
         <v>1</v>
       </c>
@@ -17024,11 +16394,7 @@
       </c>
       <c r="I485" t="inlineStr"/>
       <c r="J485" t="inlineStr"/>
-      <c r="K485" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K485" t="inlineStr"/>
       <c r="L485" t="n">
         <v>1</v>
       </c>
@@ -17061,11 +16427,7 @@
       </c>
       <c r="I486" t="inlineStr"/>
       <c r="J486" t="inlineStr"/>
-      <c r="K486" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K486" t="inlineStr"/>
       <c r="L486" t="n">
         <v>1</v>
       </c>
@@ -17098,11 +16460,7 @@
       </c>
       <c r="I487" t="inlineStr"/>
       <c r="J487" t="inlineStr"/>
-      <c r="K487" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K487" t="inlineStr"/>
       <c r="L487" t="n">
         <v>1</v>
       </c>
@@ -17135,11 +16493,7 @@
       </c>
       <c r="I488" t="inlineStr"/>
       <c r="J488" t="inlineStr"/>
-      <c r="K488" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K488" t="inlineStr"/>
       <c r="L488" t="n">
         <v>1</v>
       </c>
@@ -17172,11 +16526,7 @@
       </c>
       <c r="I489" t="inlineStr"/>
       <c r="J489" t="inlineStr"/>
-      <c r="K489" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K489" t="inlineStr"/>
       <c r="L489" t="n">
         <v>1</v>
       </c>
@@ -17209,11 +16559,7 @@
       </c>
       <c r="I490" t="inlineStr"/>
       <c r="J490" t="inlineStr"/>
-      <c r="K490" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K490" t="inlineStr"/>
       <c r="L490" t="n">
         <v>1</v>
       </c>
@@ -17246,11 +16592,7 @@
       </c>
       <c r="I491" t="inlineStr"/>
       <c r="J491" t="inlineStr"/>
-      <c r="K491" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K491" t="inlineStr"/>
       <c r="L491" t="n">
         <v>1</v>
       </c>
@@ -17283,11 +16625,7 @@
       </c>
       <c r="I492" t="inlineStr"/>
       <c r="J492" t="inlineStr"/>
-      <c r="K492" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K492" t="inlineStr"/>
       <c r="L492" t="n">
         <v>1</v>
       </c>
@@ -17320,11 +16658,7 @@
       </c>
       <c r="I493" t="inlineStr"/>
       <c r="J493" t="inlineStr"/>
-      <c r="K493" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K493" t="inlineStr"/>
       <c r="L493" t="n">
         <v>1</v>
       </c>
@@ -17357,11 +16691,7 @@
       </c>
       <c r="I494" t="inlineStr"/>
       <c r="J494" t="inlineStr"/>
-      <c r="K494" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K494" t="inlineStr"/>
       <c r="L494" t="n">
         <v>1</v>
       </c>
@@ -17394,11 +16724,7 @@
       </c>
       <c r="I495" t="inlineStr"/>
       <c r="J495" t="inlineStr"/>
-      <c r="K495" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K495" t="inlineStr"/>
       <c r="L495" t="n">
         <v>1</v>
       </c>
@@ -17431,11 +16757,7 @@
       </c>
       <c r="I496" t="inlineStr"/>
       <c r="J496" t="inlineStr"/>
-      <c r="K496" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K496" t="inlineStr"/>
       <c r="L496" t="n">
         <v>1</v>
       </c>
@@ -17468,11 +16790,7 @@
       </c>
       <c r="I497" t="inlineStr"/>
       <c r="J497" t="inlineStr"/>
-      <c r="K497" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K497" t="inlineStr"/>
       <c r="L497" t="n">
         <v>1</v>
       </c>
@@ -17505,11 +16823,7 @@
       </c>
       <c r="I498" t="inlineStr"/>
       <c r="J498" t="inlineStr"/>
-      <c r="K498" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K498" t="inlineStr"/>
       <c r="L498" t="n">
         <v>1</v>
       </c>
@@ -17542,11 +16856,7 @@
       </c>
       <c r="I499" t="inlineStr"/>
       <c r="J499" t="inlineStr"/>
-      <c r="K499" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K499" t="inlineStr"/>
       <c r="L499" t="n">
         <v>1</v>
       </c>
@@ -17579,11 +16889,7 @@
       </c>
       <c r="I500" t="inlineStr"/>
       <c r="J500" t="inlineStr"/>
-      <c r="K500" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K500" t="inlineStr"/>
       <c r="L500" t="n">
         <v>1</v>
       </c>
@@ -17616,11 +16922,7 @@
       </c>
       <c r="I501" t="inlineStr"/>
       <c r="J501" t="inlineStr"/>
-      <c r="K501" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K501" t="inlineStr"/>
       <c r="L501" t="n">
         <v>1</v>
       </c>
@@ -17653,11 +16955,7 @@
       </c>
       <c r="I502" t="inlineStr"/>
       <c r="J502" t="inlineStr"/>
-      <c r="K502" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K502" t="inlineStr"/>
       <c r="L502" t="n">
         <v>1</v>
       </c>
@@ -17690,11 +16988,7 @@
       </c>
       <c r="I503" t="inlineStr"/>
       <c r="J503" t="inlineStr"/>
-      <c r="K503" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K503" t="inlineStr"/>
       <c r="L503" t="n">
         <v>1</v>
       </c>
@@ -17727,11 +17021,7 @@
       </c>
       <c r="I504" t="inlineStr"/>
       <c r="J504" t="inlineStr"/>
-      <c r="K504" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K504" t="inlineStr"/>
       <c r="L504" t="n">
         <v>1</v>
       </c>
@@ -17764,11 +17054,7 @@
       </c>
       <c r="I505" t="inlineStr"/>
       <c r="J505" t="inlineStr"/>
-      <c r="K505" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K505" t="inlineStr"/>
       <c r="L505" t="n">
         <v>1</v>
       </c>
@@ -17801,11 +17087,7 @@
       </c>
       <c r="I506" t="inlineStr"/>
       <c r="J506" t="inlineStr"/>
-      <c r="K506" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K506" t="inlineStr"/>
       <c r="L506" t="n">
         <v>1</v>
       </c>
@@ -17838,11 +17120,7 @@
       </c>
       <c r="I507" t="inlineStr"/>
       <c r="J507" t="inlineStr"/>
-      <c r="K507" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K507" t="inlineStr"/>
       <c r="L507" t="n">
         <v>1</v>
       </c>
@@ -17875,11 +17153,7 @@
       </c>
       <c r="I508" t="inlineStr"/>
       <c r="J508" t="inlineStr"/>
-      <c r="K508" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K508" t="inlineStr"/>
       <c r="L508" t="n">
         <v>1</v>
       </c>
@@ -17912,11 +17186,7 @@
       </c>
       <c r="I509" t="inlineStr"/>
       <c r="J509" t="inlineStr"/>
-      <c r="K509" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K509" t="inlineStr"/>
       <c r="L509" t="n">
         <v>1</v>
       </c>
@@ -17949,11 +17219,7 @@
       </c>
       <c r="I510" t="inlineStr"/>
       <c r="J510" t="inlineStr"/>
-      <c r="K510" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K510" t="inlineStr"/>
       <c r="L510" t="n">
         <v>1</v>
       </c>
@@ -17986,11 +17252,7 @@
       </c>
       <c r="I511" t="inlineStr"/>
       <c r="J511" t="inlineStr"/>
-      <c r="K511" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K511" t="inlineStr"/>
       <c r="L511" t="n">
         <v>1</v>
       </c>
@@ -18023,11 +17285,7 @@
       </c>
       <c r="I512" t="inlineStr"/>
       <c r="J512" t="inlineStr"/>
-      <c r="K512" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K512" t="inlineStr"/>
       <c r="L512" t="n">
         <v>1</v>
       </c>
@@ -18060,11 +17318,7 @@
       </c>
       <c r="I513" t="inlineStr"/>
       <c r="J513" t="inlineStr"/>
-      <c r="K513" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K513" t="inlineStr"/>
       <c r="L513" t="n">
         <v>1</v>
       </c>
@@ -18097,11 +17351,7 @@
       </c>
       <c r="I514" t="inlineStr"/>
       <c r="J514" t="inlineStr"/>
-      <c r="K514" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K514" t="inlineStr"/>
       <c r="L514" t="n">
         <v>1</v>
       </c>
@@ -18134,11 +17384,7 @@
       </c>
       <c r="I515" t="inlineStr"/>
       <c r="J515" t="inlineStr"/>
-      <c r="K515" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K515" t="inlineStr"/>
       <c r="L515" t="n">
         <v>1</v>
       </c>
@@ -18171,11 +17417,7 @@
       </c>
       <c r="I516" t="inlineStr"/>
       <c r="J516" t="inlineStr"/>
-      <c r="K516" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K516" t="inlineStr"/>
       <c r="L516" t="n">
         <v>1</v>
       </c>
@@ -18208,11 +17450,7 @@
       </c>
       <c r="I517" t="inlineStr"/>
       <c r="J517" t="inlineStr"/>
-      <c r="K517" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K517" t="inlineStr"/>
       <c r="L517" t="n">
         <v>1</v>
       </c>
@@ -18245,11 +17483,7 @@
       </c>
       <c r="I518" t="inlineStr"/>
       <c r="J518" t="inlineStr"/>
-      <c r="K518" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K518" t="inlineStr"/>
       <c r="L518" t="n">
         <v>1</v>
       </c>
@@ -18282,11 +17516,7 @@
       </c>
       <c r="I519" t="inlineStr"/>
       <c r="J519" t="inlineStr"/>
-      <c r="K519" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K519" t="inlineStr"/>
       <c r="L519" t="n">
         <v>1</v>
       </c>
@@ -18319,11 +17549,7 @@
       </c>
       <c r="I520" t="inlineStr"/>
       <c r="J520" t="inlineStr"/>
-      <c r="K520" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K520" t="inlineStr"/>
       <c r="L520" t="n">
         <v>1</v>
       </c>
@@ -18356,11 +17582,7 @@
       </c>
       <c r="I521" t="inlineStr"/>
       <c r="J521" t="inlineStr"/>
-      <c r="K521" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K521" t="inlineStr"/>
       <c r="L521" t="n">
         <v>1</v>
       </c>
@@ -18393,11 +17615,7 @@
       </c>
       <c r="I522" t="inlineStr"/>
       <c r="J522" t="inlineStr"/>
-      <c r="K522" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K522" t="inlineStr"/>
       <c r="L522" t="n">
         <v>1</v>
       </c>
@@ -18430,11 +17648,7 @@
       </c>
       <c r="I523" t="inlineStr"/>
       <c r="J523" t="inlineStr"/>
-      <c r="K523" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K523" t="inlineStr"/>
       <c r="L523" t="n">
         <v>1</v>
       </c>
@@ -18467,11 +17681,7 @@
       </c>
       <c r="I524" t="inlineStr"/>
       <c r="J524" t="inlineStr"/>
-      <c r="K524" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K524" t="inlineStr"/>
       <c r="L524" t="n">
         <v>1</v>
       </c>
@@ -18504,11 +17714,7 @@
       </c>
       <c r="I525" t="inlineStr"/>
       <c r="J525" t="inlineStr"/>
-      <c r="K525" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K525" t="inlineStr"/>
       <c r="L525" t="n">
         <v>1</v>
       </c>
@@ -18541,11 +17747,7 @@
       </c>
       <c r="I526" t="inlineStr"/>
       <c r="J526" t="inlineStr"/>
-      <c r="K526" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K526" t="inlineStr"/>
       <c r="L526" t="n">
         <v>1</v>
       </c>
@@ -18578,11 +17780,7 @@
       </c>
       <c r="I527" t="inlineStr"/>
       <c r="J527" t="inlineStr"/>
-      <c r="K527" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K527" t="inlineStr"/>
       <c r="L527" t="n">
         <v>1</v>
       </c>
@@ -18615,11 +17813,7 @@
       </c>
       <c r="I528" t="inlineStr"/>
       <c r="J528" t="inlineStr"/>
-      <c r="K528" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K528" t="inlineStr"/>
       <c r="L528" t="n">
         <v>1</v>
       </c>
@@ -18652,11 +17846,7 @@
       </c>
       <c r="I529" t="inlineStr"/>
       <c r="J529" t="inlineStr"/>
-      <c r="K529" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K529" t="inlineStr"/>
       <c r="L529" t="n">
         <v>1</v>
       </c>
@@ -18689,11 +17879,7 @@
       </c>
       <c r="I530" t="inlineStr"/>
       <c r="J530" t="inlineStr"/>
-      <c r="K530" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K530" t="inlineStr"/>
       <c r="L530" t="n">
         <v>1</v>
       </c>
@@ -18726,11 +17912,7 @@
       </c>
       <c r="I531" t="inlineStr"/>
       <c r="J531" t="inlineStr"/>
-      <c r="K531" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K531" t="inlineStr"/>
       <c r="L531" t="n">
         <v>1</v>
       </c>
@@ -18763,11 +17945,7 @@
       </c>
       <c r="I532" t="inlineStr"/>
       <c r="J532" t="inlineStr"/>
-      <c r="K532" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K532" t="inlineStr"/>
       <c r="L532" t="n">
         <v>1</v>
       </c>
@@ -18800,11 +17978,7 @@
       </c>
       <c r="I533" t="inlineStr"/>
       <c r="J533" t="inlineStr"/>
-      <c r="K533" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K533" t="inlineStr"/>
       <c r="L533" t="n">
         <v>1</v>
       </c>
@@ -18837,11 +18011,7 @@
       </c>
       <c r="I534" t="inlineStr"/>
       <c r="J534" t="inlineStr"/>
-      <c r="K534" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K534" t="inlineStr"/>
       <c r="L534" t="n">
         <v>1</v>
       </c>
@@ -18874,11 +18044,7 @@
       </c>
       <c r="I535" t="inlineStr"/>
       <c r="J535" t="inlineStr"/>
-      <c r="K535" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K535" t="inlineStr"/>
       <c r="L535" t="n">
         <v>1</v>
       </c>
@@ -18911,11 +18077,7 @@
       </c>
       <c r="I536" t="inlineStr"/>
       <c r="J536" t="inlineStr"/>
-      <c r="K536" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K536" t="inlineStr"/>
       <c r="L536" t="n">
         <v>1</v>
       </c>
@@ -18948,11 +18110,7 @@
       </c>
       <c r="I537" t="inlineStr"/>
       <c r="J537" t="inlineStr"/>
-      <c r="K537" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K537" t="inlineStr"/>
       <c r="L537" t="n">
         <v>1</v>
       </c>
@@ -18985,11 +18143,7 @@
       </c>
       <c r="I538" t="inlineStr"/>
       <c r="J538" t="inlineStr"/>
-      <c r="K538" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K538" t="inlineStr"/>
       <c r="L538" t="n">
         <v>1</v>
       </c>
@@ -19022,11 +18176,7 @@
       </c>
       <c r="I539" t="inlineStr"/>
       <c r="J539" t="inlineStr"/>
-      <c r="K539" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K539" t="inlineStr"/>
       <c r="L539" t="n">
         <v>1</v>
       </c>
@@ -19059,11 +18209,7 @@
       </c>
       <c r="I540" t="inlineStr"/>
       <c r="J540" t="inlineStr"/>
-      <c r="K540" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K540" t="inlineStr"/>
       <c r="L540" t="n">
         <v>1</v>
       </c>
@@ -19096,11 +18242,7 @@
       </c>
       <c r="I541" t="inlineStr"/>
       <c r="J541" t="inlineStr"/>
-      <c r="K541" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K541" t="inlineStr"/>
       <c r="L541" t="n">
         <v>1</v>
       </c>
@@ -19133,11 +18275,7 @@
       </c>
       <c r="I542" t="inlineStr"/>
       <c r="J542" t="inlineStr"/>
-      <c r="K542" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K542" t="inlineStr"/>
       <c r="L542" t="n">
         <v>1</v>
       </c>
@@ -19170,11 +18308,7 @@
       </c>
       <c r="I543" t="inlineStr"/>
       <c r="J543" t="inlineStr"/>
-      <c r="K543" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K543" t="inlineStr"/>
       <c r="L543" t="n">
         <v>1</v>
       </c>
@@ -19207,11 +18341,7 @@
       </c>
       <c r="I544" t="inlineStr"/>
       <c r="J544" t="inlineStr"/>
-      <c r="K544" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K544" t="inlineStr"/>
       <c r="L544" t="n">
         <v>1</v>
       </c>
@@ -19244,11 +18374,7 @@
       </c>
       <c r="I545" t="inlineStr"/>
       <c r="J545" t="inlineStr"/>
-      <c r="K545" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K545" t="inlineStr"/>
       <c r="L545" t="n">
         <v>1</v>
       </c>
@@ -19277,13 +18403,15 @@
         <v>-36814.46221779973</v>
       </c>
       <c r="H546" t="n">
-        <v>0</v>
-      </c>
-      <c r="I546" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I546" t="n">
+        <v>10050</v>
+      </c>
       <c r="J546" t="inlineStr"/>
       <c r="K546" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L546" t="n">
@@ -19462,9 +18590,11 @@
         <v>-36764.55001779973</v>
       </c>
       <c r="H551" t="n">
-        <v>0</v>
-      </c>
-      <c r="I551" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I551" t="n">
+        <v>10070</v>
+      </c>
       <c r="J551" t="inlineStr"/>
       <c r="K551" t="inlineStr">
         <is>
@@ -19573,9 +18703,11 @@
         <v>-36764.79001779973</v>
       </c>
       <c r="H554" t="n">
-        <v>0</v>
-      </c>
-      <c r="I554" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I554" t="n">
+        <v>10070</v>
+      </c>
       <c r="J554" t="inlineStr"/>
       <c r="K554" t="inlineStr">
         <is>
@@ -19610,9 +18742,11 @@
         <v>-36795.64501779973</v>
       </c>
       <c r="H555" t="n">
-        <v>0</v>
-      </c>
-      <c r="I555" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I555" t="n">
+        <v>10070</v>
+      </c>
       <c r="J555" t="inlineStr"/>
       <c r="K555" t="inlineStr">
         <is>
@@ -19647,9 +18781,11 @@
         <v>-36794.34471779973</v>
       </c>
       <c r="H556" t="n">
-        <v>0</v>
-      </c>
-      <c r="I556" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I556" t="n">
+        <v>10050</v>
+      </c>
       <c r="J556" t="inlineStr"/>
       <c r="K556" t="inlineStr">
         <is>
@@ -19684,9 +18820,11 @@
         <v>-36696.50241779973</v>
       </c>
       <c r="H557" t="n">
-        <v>0</v>
-      </c>
-      <c r="I557" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I557" t="n">
+        <v>10070</v>
+      </c>
       <c r="J557" t="inlineStr"/>
       <c r="K557" t="inlineStr">
         <is>
@@ -19906,9 +19044,11 @@
         <v>-37455.84891779973</v>
       </c>
       <c r="H563" t="n">
-        <v>0</v>
-      </c>
-      <c r="I563" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I563" t="n">
+        <v>10060</v>
+      </c>
       <c r="J563" t="inlineStr"/>
       <c r="K563" t="inlineStr">
         <is>
@@ -19943,9 +19083,11 @@
         <v>-37455.84891779973</v>
       </c>
       <c r="H564" t="n">
-        <v>0</v>
-      </c>
-      <c r="I564" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I564" t="n">
+        <v>10050</v>
+      </c>
       <c r="J564" t="inlineStr"/>
       <c r="K564" t="inlineStr">
         <is>
@@ -19980,9 +19122,11 @@
         <v>-37455.84891779973</v>
       </c>
       <c r="H565" t="n">
-        <v>0</v>
-      </c>
-      <c r="I565" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I565" t="n">
+        <v>10050</v>
+      </c>
       <c r="J565" t="inlineStr"/>
       <c r="K565" t="inlineStr">
         <is>
@@ -20017,9 +19161,11 @@
         <v>-37455.84891779973</v>
       </c>
       <c r="H566" t="n">
-        <v>0</v>
-      </c>
-      <c r="I566" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I566" t="n">
+        <v>10050</v>
+      </c>
       <c r="J566" t="inlineStr"/>
       <c r="K566" t="inlineStr">
         <is>
@@ -20054,9 +19200,11 @@
         <v>-37455.84891779973</v>
       </c>
       <c r="H567" t="n">
-        <v>0</v>
-      </c>
-      <c r="I567" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I567" t="n">
+        <v>10050</v>
+      </c>
       <c r="J567" t="inlineStr"/>
       <c r="K567" t="inlineStr">
         <is>
@@ -20091,9 +19239,11 @@
         <v>-37455.84891779973</v>
       </c>
       <c r="H568" t="n">
-        <v>0</v>
-      </c>
-      <c r="I568" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I568" t="n">
+        <v>10050</v>
+      </c>
       <c r="J568" t="inlineStr"/>
       <c r="K568" t="inlineStr">
         <is>
@@ -20239,9 +19389,11 @@
         <v>-38301.19311779973</v>
       </c>
       <c r="H572" t="n">
-        <v>0</v>
-      </c>
-      <c r="I572" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I572" t="n">
+        <v>10010</v>
+      </c>
       <c r="J572" t="inlineStr"/>
       <c r="K572" t="inlineStr">
         <is>
@@ -20276,9 +19428,11 @@
         <v>-38818.61031779974</v>
       </c>
       <c r="H573" t="n">
-        <v>0</v>
-      </c>
-      <c r="I573" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I573" t="n">
+        <v>10000</v>
+      </c>
       <c r="J573" t="inlineStr"/>
       <c r="K573" t="inlineStr">
         <is>
@@ -20313,9 +19467,11 @@
         <v>-39041.74561779974</v>
       </c>
       <c r="H574" t="n">
-        <v>0</v>
-      </c>
-      <c r="I574" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I574" t="n">
+        <v>9975</v>
+      </c>
       <c r="J574" t="inlineStr"/>
       <c r="K574" t="inlineStr">
         <is>
@@ -20350,9 +19506,11 @@
         <v>-38982.1474528595</v>
       </c>
       <c r="H575" t="n">
-        <v>0</v>
-      </c>
-      <c r="I575" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I575" t="n">
+        <v>9970</v>
+      </c>
       <c r="J575" t="inlineStr"/>
       <c r="K575" t="inlineStr">
         <is>
@@ -20387,9 +19545,11 @@
         <v>-39260.5156528595</v>
       </c>
       <c r="H576" t="n">
-        <v>0</v>
-      </c>
-      <c r="I576" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I576" t="n">
+        <v>10040</v>
+      </c>
       <c r="J576" t="inlineStr"/>
       <c r="K576" t="inlineStr">
         <is>
@@ -20424,9 +19584,11 @@
         <v>-39288.0135528595</v>
       </c>
       <c r="H577" t="n">
-        <v>0</v>
-      </c>
-      <c r="I577" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I577" t="n">
+        <v>9970</v>
+      </c>
       <c r="J577" t="inlineStr"/>
       <c r="K577" t="inlineStr">
         <is>
@@ -20461,9 +19623,11 @@
         <v>-39569.2342528595</v>
       </c>
       <c r="H578" t="n">
-        <v>0</v>
-      </c>
-      <c r="I578" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I578" t="n">
+        <v>9955</v>
+      </c>
       <c r="J578" t="inlineStr"/>
       <c r="K578" t="inlineStr">
         <is>
@@ -20498,9 +19662,11 @@
         <v>-39341.5421528595</v>
       </c>
       <c r="H579" t="n">
-        <v>0</v>
-      </c>
-      <c r="I579" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I579" t="n">
+        <v>9950</v>
+      </c>
       <c r="J579" t="inlineStr"/>
       <c r="K579" t="inlineStr">
         <is>
@@ -20535,9 +19701,11 @@
         <v>-39341.5421528595</v>
       </c>
       <c r="H580" t="n">
-        <v>0</v>
-      </c>
-      <c r="I580" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I580" t="n">
+        <v>9985</v>
+      </c>
       <c r="J580" t="inlineStr"/>
       <c r="K580" t="inlineStr">
         <is>
@@ -20572,9 +19740,11 @@
         <v>-39336.7004528595</v>
       </c>
       <c r="H581" t="n">
-        <v>0</v>
-      </c>
-      <c r="I581" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I581" t="n">
+        <v>9985</v>
+      </c>
       <c r="J581" t="inlineStr"/>
       <c r="K581" t="inlineStr">
         <is>
@@ -20609,9 +19779,11 @@
         <v>-39368.8479528595</v>
       </c>
       <c r="H582" t="n">
-        <v>0</v>
-      </c>
-      <c r="I582" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I582" t="n">
+        <v>9995</v>
+      </c>
       <c r="J582" t="inlineStr"/>
       <c r="K582" t="inlineStr">
         <is>
@@ -20646,9 +19818,11 @@
         <v>-39950.0972528595</v>
       </c>
       <c r="H583" t="n">
-        <v>0</v>
-      </c>
-      <c r="I583" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I583" t="n">
+        <v>9985</v>
+      </c>
       <c r="J583" t="inlineStr"/>
       <c r="K583" t="inlineStr">
         <is>
@@ -20683,9 +19857,11 @@
         <v>-39950.0972528595</v>
       </c>
       <c r="H584" t="n">
-        <v>0</v>
-      </c>
-      <c r="I584" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I584" t="n">
+        <v>9960</v>
+      </c>
       <c r="J584" t="inlineStr"/>
       <c r="K584" t="inlineStr">
         <is>
@@ -20720,9 +19896,11 @@
         <v>-39950.0972528595</v>
       </c>
       <c r="H585" t="n">
-        <v>0</v>
-      </c>
-      <c r="I585" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I585" t="n">
+        <v>9960</v>
+      </c>
       <c r="J585" t="inlineStr"/>
       <c r="K585" t="inlineStr">
         <is>
@@ -20757,9 +19935,11 @@
         <v>-39905.1432528595</v>
       </c>
       <c r="H586" t="n">
-        <v>0</v>
-      </c>
-      <c r="I586" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I586" t="n">
+        <v>9960</v>
+      </c>
       <c r="J586" t="inlineStr"/>
       <c r="K586" t="inlineStr">
         <is>
@@ -20794,9 +19974,11 @@
         <v>-40208.7237528595</v>
       </c>
       <c r="H587" t="n">
-        <v>0</v>
-      </c>
-      <c r="I587" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I587" t="n">
+        <v>9995</v>
+      </c>
       <c r="J587" t="inlineStr"/>
       <c r="K587" t="inlineStr">
         <is>
@@ -20831,9 +20013,11 @@
         <v>-40208.6737528595</v>
       </c>
       <c r="H588" t="n">
-        <v>0</v>
-      </c>
-      <c r="I588" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I588" t="n">
+        <v>9985</v>
+      </c>
       <c r="J588" t="inlineStr"/>
       <c r="K588" t="inlineStr">
         <is>
@@ -20868,9 +20052,11 @@
         <v>-40225.02755285949</v>
       </c>
       <c r="H589" t="n">
-        <v>0</v>
-      </c>
-      <c r="I589" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I589" t="n">
+        <v>10020</v>
+      </c>
       <c r="J589" t="inlineStr"/>
       <c r="K589" t="inlineStr">
         <is>
@@ -20905,9 +20091,11 @@
         <v>-40224.02755285949</v>
       </c>
       <c r="H590" t="n">
-        <v>0</v>
-      </c>
-      <c r="I590" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I590" t="n">
+        <v>9990</v>
+      </c>
       <c r="J590" t="inlineStr"/>
       <c r="K590" t="inlineStr">
         <is>
@@ -20942,9 +20130,11 @@
         <v>-41775.39945285949</v>
       </c>
       <c r="H591" t="n">
-        <v>0</v>
-      </c>
-      <c r="I591" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I591" t="n">
+        <v>10010</v>
+      </c>
       <c r="J591" t="inlineStr"/>
       <c r="K591" t="inlineStr">
         <is>
@@ -20979,9 +20169,11 @@
         <v>-42410.27385285949</v>
       </c>
       <c r="H592" t="n">
-        <v>0</v>
-      </c>
-      <c r="I592" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I592" t="n">
+        <v>9985</v>
+      </c>
       <c r="J592" t="inlineStr"/>
       <c r="K592" t="inlineStr">
         <is>
@@ -21016,9 +20208,11 @@
         <v>-42355.31015285949</v>
       </c>
       <c r="H593" t="n">
-        <v>0</v>
-      </c>
-      <c r="I593" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I593" t="n">
+        <v>9945</v>
+      </c>
       <c r="J593" t="inlineStr"/>
       <c r="K593" t="inlineStr">
         <is>
@@ -21053,9 +20247,11 @@
         <v>-42876.24305285949</v>
       </c>
       <c r="H594" t="n">
-        <v>0</v>
-      </c>
-      <c r="I594" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I594" t="n">
+        <v>9955</v>
+      </c>
       <c r="J594" t="inlineStr"/>
       <c r="K594" t="inlineStr">
         <is>
@@ -21090,9 +20286,11 @@
         <v>-42876.24305285949</v>
       </c>
       <c r="H595" t="n">
-        <v>0</v>
-      </c>
-      <c r="I595" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I595" t="n">
+        <v>9940</v>
+      </c>
       <c r="J595" t="inlineStr"/>
       <c r="K595" t="inlineStr">
         <is>
@@ -21127,9 +20325,11 @@
         <v>-44460.63765285949</v>
       </c>
       <c r="H596" t="n">
-        <v>0</v>
-      </c>
-      <c r="I596" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I596" t="n">
+        <v>9940</v>
+      </c>
       <c r="J596" t="inlineStr"/>
       <c r="K596" t="inlineStr">
         <is>
@@ -21164,9 +20364,11 @@
         <v>-44385.73535285949</v>
       </c>
       <c r="H597" t="n">
-        <v>0</v>
-      </c>
-      <c r="I597" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I597" t="n">
+        <v>9895</v>
+      </c>
       <c r="J597" t="inlineStr"/>
       <c r="K597" t="inlineStr">
         <is>
@@ -21201,9 +20403,11 @@
         <v>-44276.55555285949</v>
       </c>
       <c r="H598" t="n">
-        <v>0</v>
-      </c>
-      <c r="I598" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I598" t="n">
+        <v>9920</v>
+      </c>
       <c r="J598" t="inlineStr"/>
       <c r="K598" t="inlineStr">
         <is>
@@ -21238,9 +20442,11 @@
         <v>-44276.55555285949</v>
       </c>
       <c r="H599" t="n">
-        <v>0</v>
-      </c>
-      <c r="I599" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I599" t="n">
+        <v>9945</v>
+      </c>
       <c r="J599" t="inlineStr"/>
       <c r="K599" t="inlineStr">
         <is>
@@ -21275,9 +20481,11 @@
         <v>-44292.39025285949</v>
       </c>
       <c r="H600" t="n">
-        <v>0</v>
-      </c>
-      <c r="I600" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I600" t="n">
+        <v>9945</v>
+      </c>
       <c r="J600" t="inlineStr"/>
       <c r="K600" t="inlineStr">
         <is>
@@ -21312,9 +20520,11 @@
         <v>-45222.71715285949</v>
       </c>
       <c r="H601" t="n">
-        <v>0</v>
-      </c>
-      <c r="I601" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I601" t="n">
+        <v>9915</v>
+      </c>
       <c r="J601" t="inlineStr"/>
       <c r="K601" t="inlineStr">
         <is>
@@ -21349,9 +20559,11 @@
         <v>-45209.71575285949</v>
       </c>
       <c r="H602" t="n">
-        <v>0</v>
-      </c>
-      <c r="I602" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I602" t="n">
+        <v>9895</v>
+      </c>
       <c r="J602" t="inlineStr"/>
       <c r="K602" t="inlineStr">
         <is>
@@ -21386,9 +20598,11 @@
         <v>-45309.71575285949</v>
       </c>
       <c r="H603" t="n">
-        <v>0</v>
-      </c>
-      <c r="I603" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I603" t="n">
+        <v>9930</v>
+      </c>
       <c r="J603" t="inlineStr"/>
       <c r="K603" t="inlineStr">
         <is>
@@ -21423,9 +20637,11 @@
         <v>-45367.11575285949</v>
       </c>
       <c r="H604" t="n">
-        <v>0</v>
-      </c>
-      <c r="I604" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I604" t="n">
+        <v>9920</v>
+      </c>
       <c r="J604" t="inlineStr"/>
       <c r="K604" t="inlineStr">
         <is>
@@ -21460,9 +20676,11 @@
         <v>-45044.98264888765</v>
       </c>
       <c r="H605" t="n">
-        <v>0</v>
-      </c>
-      <c r="I605" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I605" t="n">
+        <v>9905</v>
+      </c>
       <c r="J605" t="inlineStr"/>
       <c r="K605" t="inlineStr">
         <is>
@@ -21497,9 +20715,11 @@
         <v>-45044.98264888765</v>
       </c>
       <c r="H606" t="n">
-        <v>0</v>
-      </c>
-      <c r="I606" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I606" t="n">
+        <v>9945</v>
+      </c>
       <c r="J606" t="inlineStr"/>
       <c r="K606" t="inlineStr">
         <is>
@@ -21534,9 +20754,11 @@
         <v>-45044.98264888765</v>
       </c>
       <c r="H607" t="n">
-        <v>0</v>
-      </c>
-      <c r="I607" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I607" t="n">
+        <v>9945</v>
+      </c>
       <c r="J607" t="inlineStr"/>
       <c r="K607" t="inlineStr">
         <is>
@@ -21571,9 +20793,11 @@
         <v>-44934.15654888765</v>
       </c>
       <c r="H608" t="n">
-        <v>0</v>
-      </c>
-      <c r="I608" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I608" t="n">
+        <v>9945</v>
+      </c>
       <c r="J608" t="inlineStr"/>
       <c r="K608" t="inlineStr">
         <is>
@@ -21608,9 +20832,11 @@
         <v>-44934.15654888765</v>
       </c>
       <c r="H609" t="n">
-        <v>0</v>
-      </c>
-      <c r="I609" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I609" t="n">
+        <v>9975</v>
+      </c>
       <c r="J609" t="inlineStr"/>
       <c r="K609" t="inlineStr">
         <is>
@@ -21645,9 +20871,11 @@
         <v>-44934.15654888765</v>
       </c>
       <c r="H610" t="n">
-        <v>0</v>
-      </c>
-      <c r="I610" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I610" t="n">
+        <v>9975</v>
+      </c>
       <c r="J610" t="inlineStr"/>
       <c r="K610" t="inlineStr">
         <is>
@@ -21830,9 +21058,11 @@
         <v>-47931.55844888765</v>
       </c>
       <c r="H615" t="n">
-        <v>0</v>
-      </c>
-      <c r="I615" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I615" t="n">
+        <v>9965</v>
+      </c>
       <c r="J615" t="inlineStr"/>
       <c r="K615" t="inlineStr">
         <is>
@@ -21867,9 +21097,11 @@
         <v>-47906.55014888765</v>
       </c>
       <c r="H616" t="n">
-        <v>0</v>
-      </c>
-      <c r="I616" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I616" t="n">
+        <v>9960</v>
+      </c>
       <c r="J616" t="inlineStr"/>
       <c r="K616" t="inlineStr">
         <is>
@@ -21904,9 +21136,11 @@
         <v>-47683.06914888765</v>
       </c>
       <c r="H617" t="n">
-        <v>0</v>
-      </c>
-      <c r="I617" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I617" t="n">
+        <v>9965</v>
+      </c>
       <c r="J617" t="inlineStr"/>
       <c r="K617" t="inlineStr">
         <is>
@@ -21941,9 +21175,11 @@
         <v>-47896.03184888764</v>
       </c>
       <c r="H618" t="n">
-        <v>0</v>
-      </c>
-      <c r="I618" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I618" t="n">
+        <v>10000</v>
+      </c>
       <c r="J618" t="inlineStr"/>
       <c r="K618" t="inlineStr">
         <is>
@@ -21978,9 +21214,11 @@
         <v>-47867.52154888764</v>
       </c>
       <c r="H619" t="n">
-        <v>0</v>
-      </c>
-      <c r="I619" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I619" t="n">
+        <v>9975</v>
+      </c>
       <c r="J619" t="inlineStr"/>
       <c r="K619" t="inlineStr">
         <is>
@@ -22015,9 +21253,11 @@
         <v>-47864.62154888764</v>
       </c>
       <c r="H620" t="n">
-        <v>0</v>
-      </c>
-      <c r="I620" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I620" t="n">
+        <v>9985</v>
+      </c>
       <c r="J620" t="inlineStr"/>
       <c r="K620" t="inlineStr">
         <is>
@@ -22052,9 +21292,11 @@
         <v>-47987.45794888764</v>
       </c>
       <c r="H621" t="n">
-        <v>0</v>
-      </c>
-      <c r="I621" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I621" t="n">
+        <v>9995</v>
+      </c>
       <c r="J621" t="inlineStr"/>
       <c r="K621" t="inlineStr">
         <is>
@@ -22089,9 +21331,11 @@
         <v>-47030.25964888764</v>
       </c>
       <c r="H622" t="n">
-        <v>0</v>
-      </c>
-      <c r="I622" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I622" t="n">
+        <v>9985</v>
+      </c>
       <c r="J622" t="inlineStr"/>
       <c r="K622" t="inlineStr">
         <is>
@@ -22126,9 +21370,11 @@
         <v>-46938.81974888765</v>
       </c>
       <c r="H623" t="n">
-        <v>0</v>
-      </c>
-      <c r="I623" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I623" t="n">
+        <v>9995</v>
+      </c>
       <c r="J623" t="inlineStr"/>
       <c r="K623" t="inlineStr">
         <is>
@@ -22163,9 +21409,11 @@
         <v>-46942.22144888765</v>
       </c>
       <c r="H624" t="n">
-        <v>0</v>
-      </c>
-      <c r="I624" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I624" t="n">
+        <v>10030</v>
+      </c>
       <c r="J624" t="inlineStr"/>
       <c r="K624" t="inlineStr">
         <is>
@@ -22200,9 +21448,11 @@
         <v>-46942.22144888765</v>
       </c>
       <c r="H625" t="n">
-        <v>0</v>
-      </c>
-      <c r="I625" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I625" t="n">
+        <v>10000</v>
+      </c>
       <c r="J625" t="inlineStr"/>
       <c r="K625" t="inlineStr">
         <is>
@@ -22237,7 +21487,7 @@
         <v>-46823.24994888765</v>
       </c>
       <c r="H626" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I626" t="n">
         <v>10000</v>
@@ -22276,7 +21526,7 @@
         <v>-46843.06634888765</v>
       </c>
       <c r="H627" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I627" t="n">
         <v>10020</v>
@@ -22315,9 +21565,11 @@
         <v>-46862.76634888765</v>
       </c>
       <c r="H628" t="n">
-        <v>0</v>
-      </c>
-      <c r="I628" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I628" t="n">
+        <v>10010</v>
+      </c>
       <c r="J628" t="inlineStr"/>
       <c r="K628" t="inlineStr">
         <is>
@@ -22352,9 +21604,11 @@
         <v>-46962.76634888765</v>
       </c>
       <c r="H629" t="n">
-        <v>0</v>
-      </c>
-      <c r="I629" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I629" t="n">
+        <v>10000</v>
+      </c>
       <c r="J629" t="inlineStr"/>
       <c r="K629" t="inlineStr">
         <is>
@@ -22389,7 +21643,7 @@
         <v>-47061.63554888765</v>
       </c>
       <c r="H630" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I630" t="n">
         <v>9990</v>
@@ -22428,7 +21682,7 @@
         <v>-47161.63554888765</v>
       </c>
       <c r="H631" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I631" t="n">
         <v>9965</v>
@@ -22467,7 +21721,7 @@
         <v>-47131.25304888765</v>
       </c>
       <c r="H632" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I632" t="n">
         <v>9955</v>
@@ -22506,7 +21760,7 @@
         <v>-47158.94614888765</v>
       </c>
       <c r="H633" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I633" t="n">
         <v>9975</v>
@@ -22545,9 +21799,11 @@
         <v>-47661.06224888765</v>
       </c>
       <c r="H634" t="n">
-        <v>0</v>
-      </c>
-      <c r="I634" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I634" t="n">
+        <v>9945</v>
+      </c>
       <c r="J634" t="inlineStr"/>
       <c r="K634" t="inlineStr">
         <is>
@@ -22582,7 +21838,7 @@
         <v>-47541.06224888765</v>
       </c>
       <c r="H635" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I635" t="n">
         <v>9940</v>
@@ -22621,9 +21877,11 @@
         <v>-47490.76934888765</v>
       </c>
       <c r="H636" t="n">
-        <v>0</v>
-      </c>
-      <c r="I636" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I636" t="n">
+        <v>9970</v>
+      </c>
       <c r="J636" t="inlineStr"/>
       <c r="K636" t="inlineStr">
         <is>
@@ -22658,9 +21916,11 @@
         <v>-47389.20944888765</v>
       </c>
       <c r="H637" t="n">
-        <v>0</v>
-      </c>
-      <c r="I637" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I637" t="n">
+        <v>9985</v>
+      </c>
       <c r="J637" t="inlineStr"/>
       <c r="K637" t="inlineStr">
         <is>
@@ -22695,9 +21955,11 @@
         <v>-47520.80944888764</v>
       </c>
       <c r="H638" t="n">
-        <v>0</v>
-      </c>
-      <c r="I638" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I638" t="n">
+        <v>9995</v>
+      </c>
       <c r="J638" t="inlineStr"/>
       <c r="K638" t="inlineStr">
         <is>
@@ -22732,9 +21994,11 @@
         <v>-47520.80944888764</v>
       </c>
       <c r="H639" t="n">
-        <v>0</v>
-      </c>
-      <c r="I639" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I639" t="n">
+        <v>9970</v>
+      </c>
       <c r="J639" t="inlineStr"/>
       <c r="K639" t="inlineStr">
         <is>
@@ -22769,9 +22033,11 @@
         <v>-47520.80944888764</v>
       </c>
       <c r="H640" t="n">
-        <v>0</v>
-      </c>
-      <c r="I640" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I640" t="n">
+        <v>9970</v>
+      </c>
       <c r="J640" t="inlineStr"/>
       <c r="K640" t="inlineStr">
         <is>
@@ -22806,9 +22072,11 @@
         <v>-47520.80944888764</v>
       </c>
       <c r="H641" t="n">
-        <v>0</v>
-      </c>
-      <c r="I641" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I641" t="n">
+        <v>9970</v>
+      </c>
       <c r="J641" t="inlineStr"/>
       <c r="K641" t="inlineStr">
         <is>
@@ -22843,9 +22111,11 @@
         <v>-47520.80944888764</v>
       </c>
       <c r="H642" t="n">
-        <v>0</v>
-      </c>
-      <c r="I642" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I642" t="n">
+        <v>9970</v>
+      </c>
       <c r="J642" t="inlineStr"/>
       <c r="K642" t="inlineStr">
         <is>
@@ -22880,9 +22150,11 @@
         <v>-47716.52734888765</v>
       </c>
       <c r="H643" t="n">
-        <v>0</v>
-      </c>
-      <c r="I643" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I643" t="n">
+        <v>9970</v>
+      </c>
       <c r="J643" t="inlineStr"/>
       <c r="K643" t="inlineStr">
         <is>
@@ -22917,9 +22189,11 @@
         <v>-47704.73384888765</v>
       </c>
       <c r="H644" t="n">
-        <v>0</v>
-      </c>
-      <c r="I644" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I644" t="n">
+        <v>9955</v>
+      </c>
       <c r="J644" t="inlineStr"/>
       <c r="K644" t="inlineStr">
         <is>
@@ -22954,7 +22228,7 @@
         <v>-47704.73384888765</v>
       </c>
       <c r="H645" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I645" t="n">
         <v>9970</v>
@@ -22993,7 +22267,7 @@
         <v>-47730.29404888765</v>
       </c>
       <c r="H646" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I646" t="n">
         <v>9970</v>
@@ -23032,7 +22306,7 @@
         <v>-47627.66884888765</v>
       </c>
       <c r="H647" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I647" t="n">
         <v>9950</v>
@@ -23071,7 +22345,7 @@
         <v>-47910.40314888764</v>
       </c>
       <c r="H648" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I648" t="n">
         <v>9960</v>
@@ -23110,7 +22384,7 @@
         <v>-47387.04524888764</v>
       </c>
       <c r="H649" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I649" t="n">
         <v>9935</v>
@@ -23149,7 +22423,7 @@
         <v>-47387.04524888764</v>
       </c>
       <c r="H650" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I650" t="n">
         <v>9960</v>
@@ -23188,7 +22462,7 @@
         <v>-47345.71294888764</v>
       </c>
       <c r="H651" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I651" t="n">
         <v>9960</v>
@@ -23227,7 +22501,7 @@
         <v>-47281.61584888764</v>
       </c>
       <c r="H652" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I652" t="n">
         <v>9965</v>
@@ -23266,7 +22540,7 @@
         <v>-47351.33674888764</v>
       </c>
       <c r="H653" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I653" t="n">
         <v>9970</v>
@@ -23305,7 +22579,7 @@
         <v>-47351.33674888764</v>
       </c>
       <c r="H654" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I654" t="n">
         <v>9965</v>
@@ -23344,7 +22618,7 @@
         <v>-47224.11424888764</v>
       </c>
       <c r="H655" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I655" t="n">
         <v>9965</v>
@@ -23383,7 +22657,7 @@
         <v>-47235.91424888764</v>
       </c>
       <c r="H656" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I656" t="n">
         <v>9975</v>
@@ -23422,7 +22696,7 @@
         <v>-47235.91424888764</v>
       </c>
       <c r="H657" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I657" t="n">
         <v>9965</v>
@@ -23461,7 +22735,7 @@
         <v>-47241.81424888764</v>
       </c>
       <c r="H658" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I658" t="n">
         <v>9965</v>
@@ -23500,7 +22774,7 @@
         <v>-47695.40914888764</v>
       </c>
       <c r="H659" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I659" t="n">
         <v>9955</v>
@@ -23539,7 +22813,7 @@
         <v>-47691.62374888764</v>
       </c>
       <c r="H660" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I660" t="n">
         <v>9925</v>
@@ -23578,7 +22852,7 @@
         <v>-47691.62374888764</v>
       </c>
       <c r="H661" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I661" t="n">
         <v>9960</v>
@@ -23617,7 +22891,7 @@
         <v>-47805.57404888763</v>
       </c>
       <c r="H662" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I662" t="n">
         <v>9960</v>
@@ -23656,7 +22930,7 @@
         <v>-47460.16074888763</v>
       </c>
       <c r="H663" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I663" t="n">
         <v>9920</v>
@@ -23695,7 +22969,7 @@
         <v>-47399.66344888763</v>
       </c>
       <c r="H664" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I664" t="n">
         <v>9940</v>
@@ -23734,7 +23008,7 @@
         <v>-47336.63814888763</v>
       </c>
       <c r="H665" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I665" t="n">
         <v>9945</v>
@@ -23773,7 +23047,7 @@
         <v>-47336.63814888763</v>
       </c>
       <c r="H666" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I666" t="n">
         <v>9955</v>
@@ -23812,7 +23086,7 @@
         <v>-47486.63814888763</v>
       </c>
       <c r="H667" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I667" t="n">
         <v>9955</v>
@@ -23851,7 +23125,7 @@
         <v>-47486.63814888763</v>
       </c>
       <c r="H668" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I668" t="n">
         <v>9930</v>
@@ -23890,7 +23164,7 @@
         <v>-47486.63814888763</v>
       </c>
       <c r="H669" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I669" t="n">
         <v>9930</v>
@@ -23929,7 +23203,7 @@
         <v>-47486.63814888763</v>
       </c>
       <c r="H670" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I670" t="n">
         <v>9930</v>
@@ -23968,7 +23242,7 @@
         <v>-47563.57724888763</v>
       </c>
       <c r="H671" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I671" t="n">
         <v>9930</v>
@@ -24007,7 +23281,7 @@
         <v>-47558.88814888763</v>
       </c>
       <c r="H672" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I672" t="n">
         <v>9920</v>
@@ -24046,7 +23320,7 @@
         <v>-47558.77814888763</v>
       </c>
       <c r="H673" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I673" t="n">
         <v>9930</v>
@@ -24085,9 +23359,11 @@
         <v>-47558.89774888763</v>
       </c>
       <c r="H674" t="n">
-        <v>0</v>
-      </c>
-      <c r="I674" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I674" t="n">
+        <v>9960</v>
+      </c>
       <c r="J674" t="inlineStr"/>
       <c r="K674" t="inlineStr">
         <is>
@@ -24122,9 +23398,11 @@
         <v>-47558.89774888763</v>
       </c>
       <c r="H675" t="n">
-        <v>0</v>
-      </c>
-      <c r="I675" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I675" t="n">
+        <v>9955</v>
+      </c>
       <c r="J675" t="inlineStr"/>
       <c r="K675" t="inlineStr">
         <is>
@@ -24159,9 +23437,11 @@
         <v>-47222.82924888762</v>
       </c>
       <c r="H676" t="n">
-        <v>0</v>
-      </c>
-      <c r="I676" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I676" t="n">
+        <v>9955</v>
+      </c>
       <c r="J676" t="inlineStr"/>
       <c r="K676" t="inlineStr">
         <is>
@@ -24196,9 +23476,11 @@
         <v>-47060.70404888762</v>
       </c>
       <c r="H677" t="n">
-        <v>0</v>
-      </c>
-      <c r="I677" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I677" t="n">
+        <v>9970</v>
+      </c>
       <c r="J677" t="inlineStr"/>
       <c r="K677" t="inlineStr">
         <is>
@@ -24233,9 +23515,11 @@
         <v>-46951.00204888763</v>
       </c>
       <c r="H678" t="n">
-        <v>0</v>
-      </c>
-      <c r="I678" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I678" t="n">
+        <v>9975</v>
+      </c>
       <c r="J678" t="inlineStr"/>
       <c r="K678" t="inlineStr">
         <is>
@@ -24270,7 +23554,7 @@
         <v>-46629.54674888762</v>
       </c>
       <c r="H679" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I679" t="n">
         <v>9980</v>
@@ -24309,7 +23593,7 @@
         <v>-46455.52014888763</v>
       </c>
       <c r="H680" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I680" t="n">
         <v>9985</v>
@@ -24348,7 +23632,7 @@
         <v>-46251.28724888762</v>
       </c>
       <c r="H681" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I681" t="n">
         <v>9990</v>
@@ -24387,7 +23671,7 @@
         <v>-46253.18724888763</v>
       </c>
       <c r="H682" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I682" t="n">
         <v>10010</v>
@@ -24426,7 +23710,7 @@
         <v>-45966.86834888763</v>
       </c>
       <c r="H683" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I683" t="n">
         <v>9985</v>
@@ -24465,7 +23749,7 @@
         <v>-46431.46724888762</v>
       </c>
       <c r="H684" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I684" t="n">
         <v>10020</v>
@@ -24504,7 +23788,7 @@
         <v>-46451.16724888762</v>
       </c>
       <c r="H685" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I685" t="n">
         <v>10000</v>
@@ -24543,7 +23827,7 @@
         <v>-46615.67894888762</v>
       </c>
       <c r="H686" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I686" t="n">
         <v>9995</v>
@@ -24582,7 +23866,7 @@
         <v>-46615.67894888762</v>
       </c>
       <c r="H687" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I687" t="n">
         <v>9985</v>
@@ -24621,7 +23905,7 @@
         <v>-46564.42224888763</v>
       </c>
       <c r="H688" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I688" t="n">
         <v>9985</v>
@@ -24660,7 +23944,7 @@
         <v>-46403.17214888763</v>
       </c>
       <c r="H689" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I689" t="n">
         <v>9995</v>
@@ -24699,7 +23983,7 @@
         <v>-45649.94654888763</v>
       </c>
       <c r="H690" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I690" t="n">
         <v>10010</v>
@@ -24738,7 +24022,7 @@
         <v>-45649.94654888763</v>
       </c>
       <c r="H691" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I691" t="n">
         <v>10020</v>
@@ -24777,7 +24061,7 @@
         <v>-45710.04654888763</v>
       </c>
       <c r="H692" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I692" t="n">
         <v>10020</v>
@@ -24816,7 +24100,7 @@
         <v>-44211.26821382787</v>
       </c>
       <c r="H693" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I693" t="n">
         <v>10010</v>
@@ -24855,7 +24139,7 @@
         <v>-42126.93981382787</v>
       </c>
       <c r="H694" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I694" t="n">
         <v>10070</v>
@@ -24894,7 +24178,7 @@
         <v>-42625.92574699668</v>
       </c>
       <c r="H695" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I695" t="n">
         <v>10140</v>
@@ -25118,7 +24402,7 @@
         <v>-45049.59054699667</v>
       </c>
       <c r="H701" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I701" t="n">
         <v>10090</v>
@@ -25157,7 +24441,7 @@
         <v>-44746.33414699668</v>
       </c>
       <c r="H702" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I702" t="n">
         <v>10060</v>
@@ -25196,7 +24480,7 @@
         <v>-44388.68704699667</v>
       </c>
       <c r="H703" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I703" t="n">
         <v>10090</v>
@@ -25235,7 +24519,7 @@
         <v>-43250.43124699668</v>
       </c>
       <c r="H704" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I704" t="n">
         <v>10120</v>
@@ -25348,9 +24632,11 @@
         <v>-42182.06094699667</v>
       </c>
       <c r="H707" t="n">
-        <v>0</v>
-      </c>
-      <c r="I707" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I707" t="n">
+        <v>10160</v>
+      </c>
       <c r="J707" t="inlineStr"/>
       <c r="K707" t="inlineStr">
         <is>
@@ -25385,9 +24671,11 @@
         <v>-42182.06094699667</v>
       </c>
       <c r="H708" t="n">
-        <v>0</v>
-      </c>
-      <c r="I708" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I708" t="n">
+        <v>10230</v>
+      </c>
       <c r="J708" t="inlineStr"/>
       <c r="K708" t="inlineStr">
         <is>
@@ -25422,9 +24710,11 @@
         <v>-42182.06094699667</v>
       </c>
       <c r="H709" t="n">
-        <v>0</v>
-      </c>
-      <c r="I709" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I709" t="n">
+        <v>10230</v>
+      </c>
       <c r="J709" t="inlineStr"/>
       <c r="K709" t="inlineStr">
         <is>
@@ -25496,9 +24786,11 @@
         <v>-42560.81604699668</v>
       </c>
       <c r="H711" t="n">
-        <v>0</v>
-      </c>
-      <c r="I711" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I711" t="n">
+        <v>10230</v>
+      </c>
       <c r="J711" t="inlineStr"/>
       <c r="K711" t="inlineStr">
         <is>
@@ -25533,9 +24825,11 @@
         <v>-42563.63674699667</v>
       </c>
       <c r="H712" t="n">
-        <v>0</v>
-      </c>
-      <c r="I712" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I712" t="n">
+        <v>10220</v>
+      </c>
       <c r="J712" t="inlineStr"/>
       <c r="K712" t="inlineStr">
         <is>
@@ -25570,9 +24864,11 @@
         <v>-42563.63674699667</v>
       </c>
       <c r="H713" t="n">
-        <v>0</v>
-      </c>
-      <c r="I713" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I713" t="n">
+        <v>10200</v>
+      </c>
       <c r="J713" t="inlineStr"/>
       <c r="K713" t="inlineStr">
         <is>
@@ -25607,9 +24903,11 @@
         <v>-42566.73674699667</v>
       </c>
       <c r="H714" t="n">
-        <v>0</v>
-      </c>
-      <c r="I714" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I714" t="n">
+        <v>10200</v>
+      </c>
       <c r="J714" t="inlineStr"/>
       <c r="K714" t="inlineStr">
         <is>
@@ -25644,9 +24942,11 @@
         <v>-42529.77574699667</v>
       </c>
       <c r="H715" t="n">
-        <v>0</v>
-      </c>
-      <c r="I715" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I715" t="n">
+        <v>10190</v>
+      </c>
       <c r="J715" t="inlineStr"/>
       <c r="K715" t="inlineStr">
         <is>
@@ -25681,9 +24981,11 @@
         <v>-42718.73054699667</v>
       </c>
       <c r="H716" t="n">
-        <v>0</v>
-      </c>
-      <c r="I716" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I716" t="n">
+        <v>10200</v>
+      </c>
       <c r="J716" t="inlineStr"/>
       <c r="K716" t="inlineStr">
         <is>
@@ -25718,9 +25020,11 @@
         <v>-42718.73054699667</v>
       </c>
       <c r="H717" t="n">
-        <v>0</v>
-      </c>
-      <c r="I717" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I717" t="n">
+        <v>10180</v>
+      </c>
       <c r="J717" t="inlineStr"/>
       <c r="K717" t="inlineStr">
         <is>
@@ -25755,9 +25059,11 @@
         <v>-42718.73054699667</v>
       </c>
       <c r="H718" t="n">
-        <v>0</v>
-      </c>
-      <c r="I718" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I718" t="n">
+        <v>10180</v>
+      </c>
       <c r="J718" t="inlineStr"/>
       <c r="K718" t="inlineStr">
         <is>
@@ -25792,9 +25098,11 @@
         <v>-42718.73054699667</v>
       </c>
       <c r="H719" t="n">
-        <v>0</v>
-      </c>
-      <c r="I719" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I719" t="n">
+        <v>10180</v>
+      </c>
       <c r="J719" t="inlineStr"/>
       <c r="K719" t="inlineStr">
         <is>
@@ -25829,9 +25137,11 @@
         <v>-42718.73054699667</v>
       </c>
       <c r="H720" t="n">
-        <v>0</v>
-      </c>
-      <c r="I720" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I720" t="n">
+        <v>10180</v>
+      </c>
       <c r="J720" t="inlineStr"/>
       <c r="K720" t="inlineStr">
         <is>
@@ -25866,9 +25176,11 @@
         <v>-42718.73054699667</v>
       </c>
       <c r="H721" t="n">
-        <v>0</v>
-      </c>
-      <c r="I721" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I721" t="n">
+        <v>10180</v>
+      </c>
       <c r="J721" t="inlineStr"/>
       <c r="K721" t="inlineStr">
         <is>
@@ -25903,9 +25215,11 @@
         <v>-42718.73054699667</v>
       </c>
       <c r="H722" t="n">
-        <v>0</v>
-      </c>
-      <c r="I722" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I722" t="n">
+        <v>10180</v>
+      </c>
       <c r="J722" t="inlineStr"/>
       <c r="K722" t="inlineStr">
         <is>
@@ -25940,9 +25254,11 @@
         <v>-41950.21724699667</v>
       </c>
       <c r="H723" t="n">
-        <v>0</v>
-      </c>
-      <c r="I723" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I723" t="n">
+        <v>10180</v>
+      </c>
       <c r="J723" t="inlineStr"/>
       <c r="K723" t="inlineStr">
         <is>
@@ -25977,9 +25293,11 @@
         <v>-41430.62764699667</v>
       </c>
       <c r="H724" t="n">
-        <v>0</v>
-      </c>
-      <c r="I724" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I724" t="n">
+        <v>10220</v>
+      </c>
       <c r="J724" t="inlineStr"/>
       <c r="K724" t="inlineStr">
         <is>
@@ -26014,9 +25332,11 @@
         <v>-41430.62764699667</v>
       </c>
       <c r="H725" t="n">
-        <v>0</v>
-      </c>
-      <c r="I725" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I725" t="n">
+        <v>10230</v>
+      </c>
       <c r="J725" t="inlineStr"/>
       <c r="K725" t="inlineStr">
         <is>
@@ -26051,9 +25371,11 @@
         <v>-41430.62764699667</v>
       </c>
       <c r="H726" t="n">
-        <v>0</v>
-      </c>
-      <c r="I726" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I726" t="n">
+        <v>10230</v>
+      </c>
       <c r="J726" t="inlineStr"/>
       <c r="K726" t="inlineStr">
         <is>
@@ -26088,9 +25410,11 @@
         <v>-41716.99214699667</v>
       </c>
       <c r="H727" t="n">
-        <v>0</v>
-      </c>
-      <c r="I727" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I727" t="n">
+        <v>10230</v>
+      </c>
       <c r="J727" t="inlineStr"/>
       <c r="K727" t="inlineStr">
         <is>
@@ -26125,9 +25449,11 @@
         <v>-41778.01184699667</v>
       </c>
       <c r="H728" t="n">
-        <v>0</v>
-      </c>
-      <c r="I728" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I728" t="n">
+        <v>10200</v>
+      </c>
       <c r="J728" t="inlineStr"/>
       <c r="K728" t="inlineStr">
         <is>
@@ -26162,9 +25488,11 @@
         <v>-41778.01184699667</v>
       </c>
       <c r="H729" t="n">
-        <v>0</v>
-      </c>
-      <c r="I729" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I729" t="n">
+        <v>10190</v>
+      </c>
       <c r="J729" t="inlineStr"/>
       <c r="K729" t="inlineStr">
         <is>
@@ -26199,9 +25527,11 @@
         <v>-42485.59724699667</v>
       </c>
       <c r="H730" t="n">
-        <v>0</v>
-      </c>
-      <c r="I730" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I730" t="n">
+        <v>10190</v>
+      </c>
       <c r="J730" t="inlineStr"/>
       <c r="K730" t="inlineStr">
         <is>
@@ -26236,9 +25566,11 @@
         <v>-41768.63074503589</v>
       </c>
       <c r="H731" t="n">
-        <v>0</v>
-      </c>
-      <c r="I731" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I731" t="n">
+        <v>10180</v>
+      </c>
       <c r="J731" t="inlineStr"/>
       <c r="K731" t="inlineStr">
         <is>
@@ -26273,9 +25605,11 @@
         <v>-42560.40184503589</v>
       </c>
       <c r="H732" t="n">
-        <v>0</v>
-      </c>
-      <c r="I732" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I732" t="n">
+        <v>10190</v>
+      </c>
       <c r="J732" t="inlineStr"/>
       <c r="K732" t="inlineStr">
         <is>
@@ -26310,9 +25644,11 @@
         <v>-42432.29534503588</v>
       </c>
       <c r="H733" t="n">
-        <v>0</v>
-      </c>
-      <c r="I733" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I733" t="n">
+        <v>10080</v>
+      </c>
       <c r="J733" t="inlineStr"/>
       <c r="K733" t="inlineStr">
         <is>
@@ -26347,9 +25683,11 @@
         <v>-42431.74444503588</v>
       </c>
       <c r="H734" t="n">
-        <v>0</v>
-      </c>
-      <c r="I734" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I734" t="n">
+        <v>10140</v>
+      </c>
       <c r="J734" t="inlineStr"/>
       <c r="K734" t="inlineStr">
         <is>
@@ -26384,9 +25722,11 @@
         <v>-42547.65904503588</v>
       </c>
       <c r="H735" t="n">
-        <v>0</v>
-      </c>
-      <c r="I735" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I735" t="n">
+        <v>10150</v>
+      </c>
       <c r="J735" t="inlineStr"/>
       <c r="K735" t="inlineStr">
         <is>
@@ -26421,9 +25761,11 @@
         <v>-42547.65904503588</v>
       </c>
       <c r="H736" t="n">
-        <v>0</v>
-      </c>
-      <c r="I736" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I736" t="n">
+        <v>10120</v>
+      </c>
       <c r="J736" t="inlineStr"/>
       <c r="K736" t="inlineStr">
         <is>
@@ -26458,9 +25800,11 @@
         <v>-42447.61914503587</v>
       </c>
       <c r="H737" t="n">
-        <v>0</v>
-      </c>
-      <c r="I737" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I737" t="n">
+        <v>10120</v>
+      </c>
       <c r="J737" t="inlineStr"/>
       <c r="K737" t="inlineStr">
         <is>
@@ -26495,9 +25839,11 @@
         <v>-42405.36954503587</v>
       </c>
       <c r="H738" t="n">
-        <v>0</v>
-      </c>
-      <c r="I738" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I738" t="n">
+        <v>10160</v>
+      </c>
       <c r="J738" t="inlineStr"/>
       <c r="K738" t="inlineStr">
         <is>
@@ -26532,9 +25878,11 @@
         <v>-42267.84564503587</v>
       </c>
       <c r="H739" t="n">
-        <v>0</v>
-      </c>
-      <c r="I739" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I739" t="n">
+        <v>10190</v>
+      </c>
       <c r="J739" t="inlineStr"/>
       <c r="K739" t="inlineStr">
         <is>
@@ -26569,9 +25917,11 @@
         <v>-42280.84564503587</v>
       </c>
       <c r="H740" t="n">
-        <v>0</v>
-      </c>
-      <c r="I740" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I740" t="n">
+        <v>10200</v>
+      </c>
       <c r="J740" t="inlineStr"/>
       <c r="K740" t="inlineStr">
         <is>
@@ -26606,9 +25956,11 @@
         <v>-41728.64644503587</v>
       </c>
       <c r="H741" t="n">
-        <v>0</v>
-      </c>
-      <c r="I741" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I741" t="n">
+        <v>10170</v>
+      </c>
       <c r="J741" t="inlineStr"/>
       <c r="K741" t="inlineStr">
         <is>
@@ -26643,9 +25995,11 @@
         <v>-42193.99404503587</v>
       </c>
       <c r="H742" t="n">
-        <v>0</v>
-      </c>
-      <c r="I742" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I742" t="n">
+        <v>10220</v>
+      </c>
       <c r="J742" t="inlineStr"/>
       <c r="K742" t="inlineStr">
         <is>
@@ -26680,9 +26034,11 @@
         <v>-42193.99404503587</v>
       </c>
       <c r="H743" t="n">
-        <v>0</v>
-      </c>
-      <c r="I743" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I743" t="n">
+        <v>10200</v>
+      </c>
       <c r="J743" t="inlineStr"/>
       <c r="K743" t="inlineStr">
         <is>
@@ -26717,9 +26073,11 @@
         <v>-42194.41524503587</v>
       </c>
       <c r="H744" t="n">
-        <v>0</v>
-      </c>
-      <c r="I744" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I744" t="n">
+        <v>10200</v>
+      </c>
       <c r="J744" t="inlineStr"/>
       <c r="K744" t="inlineStr">
         <is>
@@ -26754,9 +26112,11 @@
         <v>-42403.32674503587</v>
       </c>
       <c r="H745" t="n">
-        <v>0</v>
-      </c>
-      <c r="I745" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I745" t="n">
+        <v>10180</v>
+      </c>
       <c r="J745" t="inlineStr"/>
       <c r="K745" t="inlineStr">
         <is>
@@ -26791,9 +26151,11 @@
         <v>-42403.27674503587</v>
       </c>
       <c r="H746" t="n">
-        <v>0</v>
-      </c>
-      <c r="I746" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I746" t="n">
+        <v>10100</v>
+      </c>
       <c r="J746" t="inlineStr"/>
       <c r="K746" t="inlineStr">
         <is>
@@ -26828,9 +26190,11 @@
         <v>-42403.22674503586</v>
       </c>
       <c r="H747" t="n">
-        <v>0</v>
-      </c>
-      <c r="I747" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I747" t="n">
+        <v>10130</v>
+      </c>
       <c r="J747" t="inlineStr"/>
       <c r="K747" t="inlineStr">
         <is>
@@ -26865,9 +26229,11 @@
         <v>-42503.32084503587</v>
       </c>
       <c r="H748" t="n">
-        <v>0</v>
-      </c>
-      <c r="I748" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I748" t="n">
+        <v>10140</v>
+      </c>
       <c r="J748" t="inlineStr"/>
       <c r="K748" t="inlineStr">
         <is>
@@ -26902,9 +26268,11 @@
         <v>-42947.31264503587</v>
       </c>
       <c r="H749" t="n">
-        <v>0</v>
-      </c>
-      <c r="I749" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I749" t="n">
+        <v>10120</v>
+      </c>
       <c r="J749" t="inlineStr"/>
       <c r="K749" t="inlineStr">
         <is>
@@ -26939,9 +26307,11 @@
         <v>-42947.31264503587</v>
       </c>
       <c r="H750" t="n">
-        <v>0</v>
-      </c>
-      <c r="I750" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I750" t="n">
+        <v>10100</v>
+      </c>
       <c r="J750" t="inlineStr"/>
       <c r="K750" t="inlineStr">
         <is>
@@ -26976,9 +26346,11 @@
         <v>-42947.31264503587</v>
       </c>
       <c r="H751" t="n">
-        <v>0</v>
-      </c>
-      <c r="I751" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I751" t="n">
+        <v>10100</v>
+      </c>
       <c r="J751" t="inlineStr"/>
       <c r="K751" t="inlineStr">
         <is>
@@ -27013,9 +26385,11 @@
         <v>-43348.23074503587</v>
       </c>
       <c r="H752" t="n">
-        <v>0</v>
-      </c>
-      <c r="I752" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I752" t="n">
+        <v>10100</v>
+      </c>
       <c r="J752" t="inlineStr"/>
       <c r="K752" t="inlineStr">
         <is>
@@ -27050,9 +26424,11 @@
         <v>-43246.41204503587</v>
       </c>
       <c r="H753" t="n">
-        <v>0</v>
-      </c>
-      <c r="I753" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I753" t="n">
+        <v>10060</v>
+      </c>
       <c r="J753" t="inlineStr"/>
       <c r="K753" t="inlineStr">
         <is>
@@ -27087,9 +26463,11 @@
         <v>-42998.06624503586</v>
       </c>
       <c r="H754" t="n">
-        <v>0</v>
-      </c>
-      <c r="I754" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I754" t="n">
+        <v>10150</v>
+      </c>
       <c r="J754" t="inlineStr"/>
       <c r="K754" t="inlineStr">
         <is>
@@ -27124,9 +26502,11 @@
         <v>-43007.16104503586</v>
       </c>
       <c r="H755" t="n">
-        <v>0</v>
-      </c>
-      <c r="I755" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I755" t="n">
+        <v>10160</v>
+      </c>
       <c r="J755" t="inlineStr"/>
       <c r="K755" t="inlineStr">
         <is>
@@ -27161,9 +26541,11 @@
         <v>-41980.24014503587</v>
       </c>
       <c r="H756" t="n">
-        <v>0</v>
-      </c>
-      <c r="I756" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I756" t="n">
+        <v>10130</v>
+      </c>
       <c r="J756" t="inlineStr"/>
       <c r="K756" t="inlineStr">
         <is>
@@ -27198,9 +26580,11 @@
         <v>-41710.50934503587</v>
       </c>
       <c r="H757" t="n">
-        <v>0</v>
-      </c>
-      <c r="I757" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I757" t="n">
+        <v>10150</v>
+      </c>
       <c r="J757" t="inlineStr"/>
       <c r="K757" t="inlineStr">
         <is>
@@ -27309,9 +26693,11 @@
         <v>-42367.55744503587</v>
       </c>
       <c r="H760" t="n">
-        <v>0</v>
-      </c>
-      <c r="I760" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I760" t="n">
+        <v>10120</v>
+      </c>
       <c r="J760" t="inlineStr"/>
       <c r="K760" t="inlineStr">
         <is>
@@ -27346,9 +26732,11 @@
         <v>-42414.48294503587</v>
       </c>
       <c r="H761" t="n">
-        <v>0</v>
-      </c>
-      <c r="I761" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I761" t="n">
+        <v>10110</v>
+      </c>
       <c r="J761" t="inlineStr"/>
       <c r="K761" t="inlineStr">
         <is>
@@ -27383,9 +26771,11 @@
         <v>-42414.48294503587</v>
       </c>
       <c r="H762" t="n">
-        <v>0</v>
-      </c>
-      <c r="I762" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I762" t="n">
+        <v>10100</v>
+      </c>
       <c r="J762" t="inlineStr"/>
       <c r="K762" t="inlineStr">
         <is>
@@ -27420,9 +26810,11 @@
         <v>-42386.91794503586</v>
       </c>
       <c r="H763" t="n">
-        <v>0</v>
-      </c>
-      <c r="I763" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I763" t="n">
+        <v>10100</v>
+      </c>
       <c r="J763" t="inlineStr"/>
       <c r="K763" t="inlineStr">
         <is>
@@ -27457,9 +26849,11 @@
         <v>-42343.11434503586</v>
       </c>
       <c r="H764" t="n">
-        <v>0</v>
-      </c>
-      <c r="I764" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I764" t="n">
+        <v>10130</v>
+      </c>
       <c r="J764" t="inlineStr"/>
       <c r="K764" t="inlineStr">
         <is>
@@ -27494,9 +26888,11 @@
         <v>-42145.30184503586</v>
       </c>
       <c r="H765" t="n">
-        <v>0</v>
-      </c>
-      <c r="I765" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I765" t="n">
+        <v>10140</v>
+      </c>
       <c r="J765" t="inlineStr"/>
       <c r="K765" t="inlineStr">
         <is>
@@ -27568,9 +26964,11 @@
         <v>-42145.30184503586</v>
       </c>
       <c r="H767" t="n">
-        <v>0</v>
-      </c>
-      <c r="I767" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I767" t="n">
+        <v>10150</v>
+      </c>
       <c r="J767" t="inlineStr"/>
       <c r="K767" t="inlineStr">
         <is>
@@ -27901,9 +27299,11 @@
         <v>-42520.24864503586</v>
       </c>
       <c r="H776" t="n">
-        <v>0</v>
-      </c>
-      <c r="I776" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I776" t="n">
+        <v>10140</v>
+      </c>
       <c r="J776" t="inlineStr"/>
       <c r="K776" t="inlineStr">
         <is>
@@ -27938,9 +27338,11 @@
         <v>-41980.32094503586</v>
       </c>
       <c r="H777" t="n">
-        <v>0</v>
-      </c>
-      <c r="I777" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I777" t="n">
+        <v>10140</v>
+      </c>
       <c r="J777" t="inlineStr"/>
       <c r="K777" t="inlineStr">
         <is>
@@ -28234,9 +27636,11 @@
         <v>-42657.99264503586</v>
       </c>
       <c r="H785" t="n">
-        <v>0</v>
-      </c>
-      <c r="I785" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I785" t="n">
+        <v>10140</v>
+      </c>
       <c r="J785" t="inlineStr"/>
       <c r="K785" t="inlineStr">
         <is>
@@ -28271,9 +27675,11 @@
         <v>-42627.86043167633</v>
       </c>
       <c r="H786" t="n">
-        <v>0</v>
-      </c>
-      <c r="I786" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I786" t="n">
+        <v>10120</v>
+      </c>
       <c r="J786" t="inlineStr"/>
       <c r="K786" t="inlineStr">
         <is>
@@ -28308,9 +27714,11 @@
         <v>-42627.86043167633</v>
       </c>
       <c r="H787" t="n">
-        <v>0</v>
-      </c>
-      <c r="I787" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I787" t="n">
+        <v>10170</v>
+      </c>
       <c r="J787" t="inlineStr"/>
       <c r="K787" t="inlineStr">
         <is>
@@ -28382,9 +27790,11 @@
         <v>-42337.55964503586</v>
       </c>
       <c r="H789" t="n">
-        <v>0</v>
-      </c>
-      <c r="I789" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I789" t="n">
+        <v>10190</v>
+      </c>
       <c r="J789" t="inlineStr"/>
       <c r="K789" t="inlineStr">
         <is>
@@ -28419,9 +27829,11 @@
         <v>-42214.07244503585</v>
       </c>
       <c r="H790" t="n">
-        <v>0</v>
-      </c>
-      <c r="I790" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I790" t="n">
+        <v>10190</v>
+      </c>
       <c r="J790" t="inlineStr"/>
       <c r="K790" t="inlineStr">
         <is>
@@ -28715,9 +28127,11 @@
         <v>-41576.08064503586</v>
       </c>
       <c r="H798" t="n">
-        <v>0</v>
-      </c>
-      <c r="I798" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I798" t="n">
+        <v>10200</v>
+      </c>
       <c r="J798" t="inlineStr"/>
       <c r="K798" t="inlineStr">
         <is>
@@ -28752,9 +28166,11 @@
         <v>-41572.77854503586</v>
       </c>
       <c r="H799" t="n">
-        <v>0</v>
-      </c>
-      <c r="I799" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I799" t="n">
+        <v>10170</v>
+      </c>
       <c r="J799" t="inlineStr"/>
       <c r="K799" t="inlineStr">
         <is>
@@ -28789,9 +28205,11 @@
         <v>-41572.77854503586</v>
       </c>
       <c r="H800" t="n">
-        <v>0</v>
-      </c>
-      <c r="I800" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I800" t="n">
+        <v>10200</v>
+      </c>
       <c r="J800" t="inlineStr"/>
       <c r="K800" t="inlineStr">
         <is>
@@ -28826,9 +28244,11 @@
         <v>-42071.94624503586</v>
       </c>
       <c r="H801" t="n">
-        <v>0</v>
-      </c>
-      <c r="I801" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I801" t="n">
+        <v>10200</v>
+      </c>
       <c r="J801" t="inlineStr"/>
       <c r="K801" t="inlineStr">
         <is>
@@ -28863,9 +28283,11 @@
         <v>-42214.03944503586</v>
       </c>
       <c r="H802" t="n">
-        <v>0</v>
-      </c>
-      <c r="I802" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I802" t="n">
+        <v>10190</v>
+      </c>
       <c r="J802" t="inlineStr"/>
       <c r="K802" t="inlineStr">
         <is>
@@ -28900,9 +28322,11 @@
         <v>-42150.80724503586</v>
       </c>
       <c r="H803" t="n">
-        <v>0</v>
-      </c>
-      <c r="I803" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I803" t="n">
+        <v>10170</v>
+      </c>
       <c r="J803" t="inlineStr"/>
       <c r="K803" t="inlineStr">
         <is>
@@ -28937,9 +28361,11 @@
         <v>-41860.77324503586</v>
       </c>
       <c r="H804" t="n">
-        <v>0</v>
-      </c>
-      <c r="I804" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I804" t="n">
+        <v>10200</v>
+      </c>
       <c r="J804" t="inlineStr"/>
       <c r="K804" t="inlineStr">
         <is>
@@ -28974,9 +28400,11 @@
         <v>-38929.66448918496</v>
       </c>
       <c r="H805" t="n">
-        <v>0</v>
-      </c>
-      <c r="I805" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I805" t="n">
+        <v>10230</v>
+      </c>
       <c r="J805" t="inlineStr"/>
       <c r="K805" t="inlineStr">
         <is>
@@ -33910,6 +33338,6 @@
       <c r="M938" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-22 BackTest ETC.xlsx
+++ b/BackTest/2020-01-22 BackTest ETC.xlsx
@@ -484,7 +484,7 @@
         <v>-1594.104358965818</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-4662.615558965817</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-3833.284458965818</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-3833.284458965818</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-4475.255358965817</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>-5814.093458965817</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>-6421.822158965817</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-5028.494258965817</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-4441.034058965817</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>-6207.176058965817</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>-8159.803300412542</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>-8159.803300412542</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>-9239.014100412542</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>-10352.35700041254</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>-10067.73720041254</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>-10067.73720041254</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>-10067.73720041254</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>-11137.64670041254</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>-13538.01180041254</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>-11734.00860041254</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>-10858.90980041254</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>-7928.371100412541</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>-6184.35790041254</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>-4810.44310041254</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>-7150.85670041254</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>-7260.05670041254</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>-4691.138700412539</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>-4970.638600412539</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>-5353.569000412539</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>-5886.573800412539</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>-5599.759100412539</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>-6180.060600412538</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>-6717.405100412539</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -8833,7 +8833,7 @@
         <v>-882.6131564978544</v>
       </c>
       <c r="H256" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
@@ -8866,7 +8866,7 @@
         <v>-882.6131564978544</v>
       </c>
       <c r="H257" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
@@ -8899,7 +8899,7 @@
         <v>-912.4854564978544</v>
       </c>
       <c r="H258" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
@@ -8932,7 +8932,7 @@
         <v>-912.4854564978544</v>
       </c>
       <c r="H259" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
@@ -8965,7 +8965,7 @@
         <v>-745.4728564978544</v>
       </c>
       <c r="H260" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
@@ -8998,7 +8998,7 @@
         <v>167.4722435021456</v>
       </c>
       <c r="H261" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
@@ -9031,7 +9031,7 @@
         <v>432.2963435021456</v>
       </c>
       <c r="H262" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
@@ -9064,7 +9064,7 @@
         <v>432.2963435021456</v>
       </c>
       <c r="H263" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
@@ -9097,7 +9097,7 @@
         <v>432.2963435021456</v>
       </c>
       <c r="H264" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
@@ -9130,7 +9130,7 @@
         <v>285.0693305050554</v>
       </c>
       <c r="H265" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
@@ -9163,7 +9163,7 @@
         <v>-920.1588694949446</v>
       </c>
       <c r="H266" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
@@ -9196,7 +9196,7 @@
         <v>-931.5735694949446</v>
       </c>
       <c r="H267" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
@@ -9229,7 +9229,7 @@
         <v>-880.1511824920349</v>
       </c>
       <c r="H268" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
@@ -9262,7 +9262,7 @@
         <v>-880.1511824920349</v>
       </c>
       <c r="H269" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
@@ -9295,7 +9295,7 @@
         <v>-959.1304954891251</v>
       </c>
       <c r="H270" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
@@ -9328,7 +9328,7 @@
         <v>-1254.040095489125</v>
       </c>
       <c r="H271" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
@@ -9361,7 +9361,7 @@
         <v>-1404.366095489125</v>
       </c>
       <c r="H272" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
@@ -9394,7 +9394,7 @@
         <v>-1639.953995489125</v>
       </c>
       <c r="H273" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
@@ -9427,7 +9427,7 @@
         <v>-1639.953995489125</v>
       </c>
       <c r="H274" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
@@ -9460,7 +9460,7 @@
         <v>-1639.953995489125</v>
       </c>
       <c r="H275" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
@@ -9493,7 +9493,7 @@
         <v>-1212.274495489125</v>
       </c>
       <c r="H276" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
@@ -9526,7 +9526,7 @@
         <v>-2083.831195489125</v>
       </c>
       <c r="H277" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
@@ -9559,7 +9559,7 @@
         <v>-2210.517695489125</v>
       </c>
       <c r="H278" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
@@ -14773,7 +14773,7 @@
         <v>-14373.06100153325</v>
       </c>
       <c r="H436" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="inlineStr"/>
@@ -14806,7 +14806,7 @@
         <v>-14323.06100153325</v>
       </c>
       <c r="H437" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="inlineStr"/>
@@ -14839,7 +14839,7 @@
         <v>-14114.04260153325</v>
       </c>
       <c r="H438" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr"/>
@@ -14872,7 +14872,7 @@
         <v>-14214.78500153325</v>
       </c>
       <c r="H439" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I439" t="inlineStr"/>
       <c r="J439" t="inlineStr"/>
@@ -14905,7 +14905,7 @@
         <v>-14228.93230153325</v>
       </c>
       <c r="H440" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="inlineStr"/>
@@ -14938,7 +14938,7 @@
         <v>-14196.79360153325</v>
       </c>
       <c r="H441" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="inlineStr"/>
@@ -14971,7 +14971,7 @@
         <v>-14143.69800153325</v>
       </c>
       <c r="H442" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="inlineStr"/>
@@ -15004,7 +15004,7 @@
         <v>-14043.69800153325</v>
       </c>
       <c r="H443" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr"/>
@@ -15037,7 +15037,7 @@
         <v>-12093.47090153325</v>
       </c>
       <c r="H444" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr"/>
@@ -15070,7 +15070,7 @@
         <v>-11347.48480153325</v>
       </c>
       <c r="H445" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr"/>
@@ -15103,7 +15103,7 @@
         <v>-11347.48480153325</v>
       </c>
       <c r="H446" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr"/>
@@ -15136,7 +15136,7 @@
         <v>-11817.89490153325</v>
       </c>
       <c r="H447" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="inlineStr"/>
@@ -15466,7 +15466,7 @@
         <v>-13179.76105031373</v>
       </c>
       <c r="H457" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I457" t="inlineStr"/>
       <c r="J457" t="inlineStr"/>
@@ -15499,7 +15499,7 @@
         <v>-13449.81065031374</v>
       </c>
       <c r="H458" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I458" t="inlineStr"/>
       <c r="J458" t="inlineStr"/>
@@ -15532,7 +15532,7 @@
         <v>-13382.18195031374</v>
       </c>
       <c r="H459" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I459" t="inlineStr"/>
       <c r="J459" t="inlineStr"/>
@@ -15565,7 +15565,7 @@
         <v>-13382.18195031374</v>
       </c>
       <c r="H460" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I460" t="inlineStr"/>
       <c r="J460" t="inlineStr"/>
@@ -17578,7 +17578,7 @@
         <v>-36280.55306432769</v>
       </c>
       <c r="H521" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I521" t="inlineStr"/>
       <c r="J521" t="inlineStr"/>
@@ -21175,11 +21175,17 @@
         <v>-47061.63554888765</v>
       </c>
       <c r="H630" t="n">
-        <v>0</v>
-      </c>
-      <c r="I630" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I630" t="n">
+        <v>9990</v>
+      </c>
       <c r="J630" t="inlineStr"/>
-      <c r="K630" t="inlineStr"/>
+      <c r="K630" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L630" t="n">
         <v>1</v>
       </c>
@@ -21208,11 +21214,17 @@
         <v>-47161.63554888765</v>
       </c>
       <c r="H631" t="n">
-        <v>0</v>
-      </c>
-      <c r="I631" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I631" t="n">
+        <v>9965</v>
+      </c>
       <c r="J631" t="inlineStr"/>
-      <c r="K631" t="inlineStr"/>
+      <c r="K631" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L631" t="n">
         <v>1</v>
       </c>
@@ -21241,11 +21253,17 @@
         <v>-47131.25304888765</v>
       </c>
       <c r="H632" t="n">
-        <v>0</v>
-      </c>
-      <c r="I632" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I632" t="n">
+        <v>9955</v>
+      </c>
       <c r="J632" t="inlineStr"/>
-      <c r="K632" t="inlineStr"/>
+      <c r="K632" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L632" t="n">
         <v>1</v>
       </c>
@@ -21274,11 +21292,17 @@
         <v>-47158.94614888765</v>
       </c>
       <c r="H633" t="n">
-        <v>0</v>
-      </c>
-      <c r="I633" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I633" t="n">
+        <v>9975</v>
+      </c>
       <c r="J633" t="inlineStr"/>
-      <c r="K633" t="inlineStr"/>
+      <c r="K633" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L633" t="n">
         <v>1</v>
       </c>
@@ -21307,11 +21331,17 @@
         <v>-47661.06224888765</v>
       </c>
       <c r="H634" t="n">
-        <v>0</v>
-      </c>
-      <c r="I634" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I634" t="n">
+        <v>9945</v>
+      </c>
       <c r="J634" t="inlineStr"/>
-      <c r="K634" t="inlineStr"/>
+      <c r="K634" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L634" t="n">
         <v>1</v>
       </c>
@@ -21340,11 +21370,17 @@
         <v>-47541.06224888765</v>
       </c>
       <c r="H635" t="n">
-        <v>0</v>
-      </c>
-      <c r="I635" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I635" t="n">
+        <v>9940</v>
+      </c>
       <c r="J635" t="inlineStr"/>
-      <c r="K635" t="inlineStr"/>
+      <c r="K635" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L635" t="n">
         <v>1</v>
       </c>
@@ -21373,11 +21409,17 @@
         <v>-47490.76934888765</v>
       </c>
       <c r="H636" t="n">
-        <v>0</v>
-      </c>
-      <c r="I636" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I636" t="n">
+        <v>9970</v>
+      </c>
       <c r="J636" t="inlineStr"/>
-      <c r="K636" t="inlineStr"/>
+      <c r="K636" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L636" t="n">
         <v>1</v>
       </c>
@@ -21406,11 +21448,17 @@
         <v>-47389.20944888765</v>
       </c>
       <c r="H637" t="n">
-        <v>0</v>
-      </c>
-      <c r="I637" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I637" t="n">
+        <v>9985</v>
+      </c>
       <c r="J637" t="inlineStr"/>
-      <c r="K637" t="inlineStr"/>
+      <c r="K637" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L637" t="n">
         <v>1</v>
       </c>
@@ -21439,11 +21487,17 @@
         <v>-47520.80944888764</v>
       </c>
       <c r="H638" t="n">
-        <v>0</v>
-      </c>
-      <c r="I638" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I638" t="n">
+        <v>9995</v>
+      </c>
       <c r="J638" t="inlineStr"/>
-      <c r="K638" t="inlineStr"/>
+      <c r="K638" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L638" t="n">
         <v>1</v>
       </c>
@@ -21472,11 +21526,17 @@
         <v>-47520.80944888764</v>
       </c>
       <c r="H639" t="n">
-        <v>0</v>
-      </c>
-      <c r="I639" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I639" t="n">
+        <v>9970</v>
+      </c>
       <c r="J639" t="inlineStr"/>
-      <c r="K639" t="inlineStr"/>
+      <c r="K639" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L639" t="n">
         <v>1</v>
       </c>
@@ -21505,11 +21565,17 @@
         <v>-47520.80944888764</v>
       </c>
       <c r="H640" t="n">
-        <v>0</v>
-      </c>
-      <c r="I640" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I640" t="n">
+        <v>9970</v>
+      </c>
       <c r="J640" t="inlineStr"/>
-      <c r="K640" t="inlineStr"/>
+      <c r="K640" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L640" t="n">
         <v>1</v>
       </c>
@@ -21538,11 +21604,17 @@
         <v>-47520.80944888764</v>
       </c>
       <c r="H641" t="n">
-        <v>0</v>
-      </c>
-      <c r="I641" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I641" t="n">
+        <v>9970</v>
+      </c>
       <c r="J641" t="inlineStr"/>
-      <c r="K641" t="inlineStr"/>
+      <c r="K641" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L641" t="n">
         <v>1</v>
       </c>
@@ -21571,11 +21643,17 @@
         <v>-47520.80944888764</v>
       </c>
       <c r="H642" t="n">
-        <v>0</v>
-      </c>
-      <c r="I642" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I642" t="n">
+        <v>9970</v>
+      </c>
       <c r="J642" t="inlineStr"/>
-      <c r="K642" t="inlineStr"/>
+      <c r="K642" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L642" t="n">
         <v>1</v>
       </c>
@@ -21604,11 +21682,17 @@
         <v>-47716.52734888765</v>
       </c>
       <c r="H643" t="n">
-        <v>0</v>
-      </c>
-      <c r="I643" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I643" t="n">
+        <v>9970</v>
+      </c>
       <c r="J643" t="inlineStr"/>
-      <c r="K643" t="inlineStr"/>
+      <c r="K643" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L643" t="n">
         <v>1</v>
       </c>
@@ -21637,11 +21721,17 @@
         <v>-47704.73384888765</v>
       </c>
       <c r="H644" t="n">
-        <v>0</v>
-      </c>
-      <c r="I644" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I644" t="n">
+        <v>9955</v>
+      </c>
       <c r="J644" t="inlineStr"/>
-      <c r="K644" t="inlineStr"/>
+      <c r="K644" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L644" t="n">
         <v>1</v>
       </c>
@@ -21670,11 +21760,17 @@
         <v>-47704.73384888765</v>
       </c>
       <c r="H645" t="n">
-        <v>0</v>
-      </c>
-      <c r="I645" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I645" t="n">
+        <v>9970</v>
+      </c>
       <c r="J645" t="inlineStr"/>
-      <c r="K645" t="inlineStr"/>
+      <c r="K645" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L645" t="n">
         <v>1</v>
       </c>
@@ -21703,11 +21799,17 @@
         <v>-47730.29404888765</v>
       </c>
       <c r="H646" t="n">
-        <v>0</v>
-      </c>
-      <c r="I646" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I646" t="n">
+        <v>9970</v>
+      </c>
       <c r="J646" t="inlineStr"/>
-      <c r="K646" t="inlineStr"/>
+      <c r="K646" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L646" t="n">
         <v>1</v>
       </c>
@@ -21736,11 +21838,17 @@
         <v>-47627.66884888765</v>
       </c>
       <c r="H647" t="n">
-        <v>0</v>
-      </c>
-      <c r="I647" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I647" t="n">
+        <v>9950</v>
+      </c>
       <c r="J647" t="inlineStr"/>
-      <c r="K647" t="inlineStr"/>
+      <c r="K647" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L647" t="n">
         <v>1</v>
       </c>
@@ -21769,11 +21877,17 @@
         <v>-47910.40314888764</v>
       </c>
       <c r="H648" t="n">
-        <v>0</v>
-      </c>
-      <c r="I648" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I648" t="n">
+        <v>9960</v>
+      </c>
       <c r="J648" t="inlineStr"/>
-      <c r="K648" t="inlineStr"/>
+      <c r="K648" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L648" t="n">
         <v>1</v>
       </c>
@@ -21802,11 +21916,17 @@
         <v>-47387.04524888764</v>
       </c>
       <c r="H649" t="n">
-        <v>0</v>
-      </c>
-      <c r="I649" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I649" t="n">
+        <v>9935</v>
+      </c>
       <c r="J649" t="inlineStr"/>
-      <c r="K649" t="inlineStr"/>
+      <c r="K649" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L649" t="n">
         <v>1</v>
       </c>
@@ -21835,11 +21955,17 @@
         <v>-47387.04524888764</v>
       </c>
       <c r="H650" t="n">
-        <v>0</v>
-      </c>
-      <c r="I650" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I650" t="n">
+        <v>9960</v>
+      </c>
       <c r="J650" t="inlineStr"/>
-      <c r="K650" t="inlineStr"/>
+      <c r="K650" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L650" t="n">
         <v>1</v>
       </c>
@@ -21868,11 +21994,17 @@
         <v>-47345.71294888764</v>
       </c>
       <c r="H651" t="n">
-        <v>0</v>
-      </c>
-      <c r="I651" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I651" t="n">
+        <v>9960</v>
+      </c>
       <c r="J651" t="inlineStr"/>
-      <c r="K651" t="inlineStr"/>
+      <c r="K651" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L651" t="n">
         <v>1</v>
       </c>
@@ -21901,11 +22033,17 @@
         <v>-47281.61584888764</v>
       </c>
       <c r="H652" t="n">
-        <v>0</v>
-      </c>
-      <c r="I652" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I652" t="n">
+        <v>9965</v>
+      </c>
       <c r="J652" t="inlineStr"/>
-      <c r="K652" t="inlineStr"/>
+      <c r="K652" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L652" t="n">
         <v>1</v>
       </c>
@@ -21934,11 +22072,17 @@
         <v>-47351.33674888764</v>
       </c>
       <c r="H653" t="n">
-        <v>0</v>
-      </c>
-      <c r="I653" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I653" t="n">
+        <v>9970</v>
+      </c>
       <c r="J653" t="inlineStr"/>
-      <c r="K653" t="inlineStr"/>
+      <c r="K653" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L653" t="n">
         <v>1</v>
       </c>
@@ -21967,11 +22111,17 @@
         <v>-47351.33674888764</v>
       </c>
       <c r="H654" t="n">
-        <v>0</v>
-      </c>
-      <c r="I654" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I654" t="n">
+        <v>9965</v>
+      </c>
       <c r="J654" t="inlineStr"/>
-      <c r="K654" t="inlineStr"/>
+      <c r="K654" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L654" t="n">
         <v>1</v>
       </c>
@@ -22000,11 +22150,17 @@
         <v>-47224.11424888764</v>
       </c>
       <c r="H655" t="n">
-        <v>0</v>
-      </c>
-      <c r="I655" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I655" t="n">
+        <v>9965</v>
+      </c>
       <c r="J655" t="inlineStr"/>
-      <c r="K655" t="inlineStr"/>
+      <c r="K655" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L655" t="n">
         <v>1</v>
       </c>
@@ -22033,11 +22189,17 @@
         <v>-47235.91424888764</v>
       </c>
       <c r="H656" t="n">
-        <v>0</v>
-      </c>
-      <c r="I656" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I656" t="n">
+        <v>9975</v>
+      </c>
       <c r="J656" t="inlineStr"/>
-      <c r="K656" t="inlineStr"/>
+      <c r="K656" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L656" t="n">
         <v>1</v>
       </c>
@@ -22066,11 +22228,17 @@
         <v>-47235.91424888764</v>
       </c>
       <c r="H657" t="n">
-        <v>0</v>
-      </c>
-      <c r="I657" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I657" t="n">
+        <v>9965</v>
+      </c>
       <c r="J657" t="inlineStr"/>
-      <c r="K657" t="inlineStr"/>
+      <c r="K657" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L657" t="n">
         <v>1</v>
       </c>
@@ -22099,11 +22267,17 @@
         <v>-47241.81424888764</v>
       </c>
       <c r="H658" t="n">
-        <v>0</v>
-      </c>
-      <c r="I658" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I658" t="n">
+        <v>9965</v>
+      </c>
       <c r="J658" t="inlineStr"/>
-      <c r="K658" t="inlineStr"/>
+      <c r="K658" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L658" t="n">
         <v>1</v>
       </c>
@@ -22132,11 +22306,17 @@
         <v>-47695.40914888764</v>
       </c>
       <c r="H659" t="n">
-        <v>0</v>
-      </c>
-      <c r="I659" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I659" t="n">
+        <v>9955</v>
+      </c>
       <c r="J659" t="inlineStr"/>
-      <c r="K659" t="inlineStr"/>
+      <c r="K659" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L659" t="n">
         <v>1</v>
       </c>
@@ -22165,11 +22345,17 @@
         <v>-47691.62374888764</v>
       </c>
       <c r="H660" t="n">
-        <v>0</v>
-      </c>
-      <c r="I660" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I660" t="n">
+        <v>9925</v>
+      </c>
       <c r="J660" t="inlineStr"/>
-      <c r="K660" t="inlineStr"/>
+      <c r="K660" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L660" t="n">
         <v>1</v>
       </c>
@@ -22203,10 +22389,12 @@
       <c r="I661" t="n">
         <v>9960</v>
       </c>
-      <c r="J661" t="n">
-        <v>9960</v>
-      </c>
-      <c r="K661" t="inlineStr"/>
+      <c r="J661" t="inlineStr"/>
+      <c r="K661" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L661" t="n">
         <v>1</v>
       </c>
@@ -22240,12 +22428,10 @@
       <c r="I662" t="n">
         <v>9960</v>
       </c>
-      <c r="J662" t="n">
-        <v>9960</v>
-      </c>
+      <c r="J662" t="inlineStr"/>
       <c r="K662" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L662" t="n">
@@ -22281,9 +22467,7 @@
       <c r="I663" t="n">
         <v>9920</v>
       </c>
-      <c r="J663" t="n">
-        <v>9960</v>
-      </c>
+      <c r="J663" t="inlineStr"/>
       <c r="K663" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22322,9 +22506,7 @@
       <c r="I664" t="n">
         <v>9940</v>
       </c>
-      <c r="J664" t="n">
-        <v>9960</v>
-      </c>
+      <c r="J664" t="inlineStr"/>
       <c r="K664" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22363,9 +22545,7 @@
       <c r="I665" t="n">
         <v>9945</v>
       </c>
-      <c r="J665" t="n">
-        <v>9960</v>
-      </c>
+      <c r="J665" t="inlineStr"/>
       <c r="K665" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22404,9 +22584,7 @@
       <c r="I666" t="n">
         <v>9955</v>
       </c>
-      <c r="J666" t="n">
-        <v>9960</v>
-      </c>
+      <c r="J666" t="inlineStr"/>
       <c r="K666" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22445,9 +22623,7 @@
       <c r="I667" t="n">
         <v>9955</v>
       </c>
-      <c r="J667" t="n">
-        <v>9960</v>
-      </c>
+      <c r="J667" t="inlineStr"/>
       <c r="K667" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22486,9 +22662,7 @@
       <c r="I668" t="n">
         <v>9930</v>
       </c>
-      <c r="J668" t="n">
-        <v>9960</v>
-      </c>
+      <c r="J668" t="inlineStr"/>
       <c r="K668" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22527,9 +22701,7 @@
       <c r="I669" t="n">
         <v>9930</v>
       </c>
-      <c r="J669" t="n">
-        <v>9960</v>
-      </c>
+      <c r="J669" t="inlineStr"/>
       <c r="K669" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22568,9 +22740,7 @@
       <c r="I670" t="n">
         <v>9930</v>
       </c>
-      <c r="J670" t="n">
-        <v>9960</v>
-      </c>
+      <c r="J670" t="inlineStr"/>
       <c r="K670" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22609,9 +22779,7 @@
       <c r="I671" t="n">
         <v>9930</v>
       </c>
-      <c r="J671" t="n">
-        <v>9960</v>
-      </c>
+      <c r="J671" t="inlineStr"/>
       <c r="K671" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22650,9 +22818,7 @@
       <c r="I672" t="n">
         <v>9920</v>
       </c>
-      <c r="J672" t="n">
-        <v>9960</v>
-      </c>
+      <c r="J672" t="inlineStr"/>
       <c r="K672" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22691,9 +22857,7 @@
       <c r="I673" t="n">
         <v>9930</v>
       </c>
-      <c r="J673" t="n">
-        <v>9960</v>
-      </c>
+      <c r="J673" t="inlineStr"/>
       <c r="K673" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22732,9 +22896,7 @@
       <c r="I674" t="n">
         <v>9960</v>
       </c>
-      <c r="J674" t="n">
-        <v>9960</v>
-      </c>
+      <c r="J674" t="inlineStr"/>
       <c r="K674" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22773,9 +22935,7 @@
       <c r="I675" t="n">
         <v>9955</v>
       </c>
-      <c r="J675" t="n">
-        <v>9960</v>
-      </c>
+      <c r="J675" t="inlineStr"/>
       <c r="K675" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22814,9 +22974,7 @@
       <c r="I676" t="n">
         <v>9955</v>
       </c>
-      <c r="J676" t="n">
-        <v>9960</v>
-      </c>
+      <c r="J676" t="inlineStr"/>
       <c r="K676" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22855,9 +23013,7 @@
       <c r="I677" t="n">
         <v>9970</v>
       </c>
-      <c r="J677" t="n">
-        <v>9960</v>
-      </c>
+      <c r="J677" t="inlineStr"/>
       <c r="K677" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22896,9 +23052,7 @@
       <c r="I678" t="n">
         <v>9975</v>
       </c>
-      <c r="J678" t="n">
-        <v>9960</v>
-      </c>
+      <c r="J678" t="inlineStr"/>
       <c r="K678" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22937,9 +23091,7 @@
       <c r="I679" t="n">
         <v>9980</v>
       </c>
-      <c r="J679" t="n">
-        <v>9960</v>
-      </c>
+      <c r="J679" t="inlineStr"/>
       <c r="K679" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22978,9 +23130,7 @@
       <c r="I680" t="n">
         <v>9985</v>
       </c>
-      <c r="J680" t="n">
-        <v>9960</v>
-      </c>
+      <c r="J680" t="inlineStr"/>
       <c r="K680" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23014,12 +23164,12 @@
         <v>-46251.28724888762</v>
       </c>
       <c r="H681" t="n">
-        <v>0</v>
-      </c>
-      <c r="I681" t="inlineStr"/>
-      <c r="J681" t="n">
-        <v>9960</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I681" t="n">
+        <v>9990</v>
+      </c>
+      <c r="J681" t="inlineStr"/>
       <c r="K681" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23053,12 +23203,12 @@
         <v>-46253.18724888763</v>
       </c>
       <c r="H682" t="n">
-        <v>0</v>
-      </c>
-      <c r="I682" t="inlineStr"/>
-      <c r="J682" t="n">
-        <v>9960</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I682" t="n">
+        <v>10010</v>
+      </c>
+      <c r="J682" t="inlineStr"/>
       <c r="K682" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23092,12 +23242,12 @@
         <v>-45966.86834888763</v>
       </c>
       <c r="H683" t="n">
-        <v>0</v>
-      </c>
-      <c r="I683" t="inlineStr"/>
-      <c r="J683" t="n">
-        <v>9960</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I683" t="n">
+        <v>9985</v>
+      </c>
+      <c r="J683" t="inlineStr"/>
       <c r="K683" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23131,12 +23281,12 @@
         <v>-46431.46724888762</v>
       </c>
       <c r="H684" t="n">
-        <v>0</v>
-      </c>
-      <c r="I684" t="inlineStr"/>
-      <c r="J684" t="n">
-        <v>9960</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I684" t="n">
+        <v>10020</v>
+      </c>
+      <c r="J684" t="inlineStr"/>
       <c r="K684" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23170,12 +23320,12 @@
         <v>-46451.16724888762</v>
       </c>
       <c r="H685" t="n">
-        <v>0</v>
-      </c>
-      <c r="I685" t="inlineStr"/>
-      <c r="J685" t="n">
-        <v>9960</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I685" t="n">
+        <v>10000</v>
+      </c>
+      <c r="J685" t="inlineStr"/>
       <c r="K685" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23209,12 +23359,12 @@
         <v>-46615.67894888762</v>
       </c>
       <c r="H686" t="n">
-        <v>0</v>
-      </c>
-      <c r="I686" t="inlineStr"/>
-      <c r="J686" t="n">
-        <v>9960</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I686" t="n">
+        <v>9995</v>
+      </c>
+      <c r="J686" t="inlineStr"/>
       <c r="K686" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23248,12 +23398,12 @@
         <v>-46615.67894888762</v>
       </c>
       <c r="H687" t="n">
-        <v>0</v>
-      </c>
-      <c r="I687" t="inlineStr"/>
-      <c r="J687" t="n">
-        <v>9960</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I687" t="n">
+        <v>9985</v>
+      </c>
+      <c r="J687" t="inlineStr"/>
       <c r="K687" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23287,12 +23437,12 @@
         <v>-46564.42224888763</v>
       </c>
       <c r="H688" t="n">
-        <v>0</v>
-      </c>
-      <c r="I688" t="inlineStr"/>
-      <c r="J688" t="n">
-        <v>9960</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I688" t="n">
+        <v>9985</v>
+      </c>
+      <c r="J688" t="inlineStr"/>
       <c r="K688" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23326,12 +23476,12 @@
         <v>-46403.17214888763</v>
       </c>
       <c r="H689" t="n">
-        <v>0</v>
-      </c>
-      <c r="I689" t="inlineStr"/>
-      <c r="J689" t="n">
-        <v>9960</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I689" t="n">
+        <v>9995</v>
+      </c>
+      <c r="J689" t="inlineStr"/>
       <c r="K689" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23365,12 +23515,12 @@
         <v>-45649.94654888763</v>
       </c>
       <c r="H690" t="n">
-        <v>0</v>
-      </c>
-      <c r="I690" t="inlineStr"/>
-      <c r="J690" t="n">
-        <v>9960</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I690" t="n">
+        <v>10010</v>
+      </c>
+      <c r="J690" t="inlineStr"/>
       <c r="K690" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23404,12 +23554,12 @@
         <v>-45649.94654888763</v>
       </c>
       <c r="H691" t="n">
-        <v>0</v>
-      </c>
-      <c r="I691" t="inlineStr"/>
-      <c r="J691" t="n">
-        <v>9960</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I691" t="n">
+        <v>10020</v>
+      </c>
+      <c r="J691" t="inlineStr"/>
       <c r="K691" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23443,12 +23593,12 @@
         <v>-45710.04654888763</v>
       </c>
       <c r="H692" t="n">
-        <v>0</v>
-      </c>
-      <c r="I692" t="inlineStr"/>
-      <c r="J692" t="n">
-        <v>9960</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I692" t="n">
+        <v>10020</v>
+      </c>
+      <c r="J692" t="inlineStr"/>
       <c r="K692" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23482,12 +23632,12 @@
         <v>-44211.26821382787</v>
       </c>
       <c r="H693" t="n">
-        <v>0</v>
-      </c>
-      <c r="I693" t="inlineStr"/>
-      <c r="J693" t="n">
-        <v>9960</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I693" t="n">
+        <v>10010</v>
+      </c>
+      <c r="J693" t="inlineStr"/>
       <c r="K693" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23521,12 +23671,12 @@
         <v>-42126.93981382787</v>
       </c>
       <c r="H694" t="n">
-        <v>0</v>
-      </c>
-      <c r="I694" t="inlineStr"/>
-      <c r="J694" t="n">
-        <v>9960</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I694" t="n">
+        <v>10070</v>
+      </c>
+      <c r="J694" t="inlineStr"/>
       <c r="K694" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23563,9 +23713,7 @@
         <v>0</v>
       </c>
       <c r="I695" t="inlineStr"/>
-      <c r="J695" t="n">
-        <v>9960</v>
-      </c>
+      <c r="J695" t="inlineStr"/>
       <c r="K695" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23602,9 +23750,7 @@
         <v>0</v>
       </c>
       <c r="I696" t="inlineStr"/>
-      <c r="J696" t="n">
-        <v>9960</v>
-      </c>
+      <c r="J696" t="inlineStr"/>
       <c r="K696" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23641,9 +23787,7 @@
         <v>0</v>
       </c>
       <c r="I697" t="inlineStr"/>
-      <c r="J697" t="n">
-        <v>9960</v>
-      </c>
+      <c r="J697" t="inlineStr"/>
       <c r="K697" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23680,9 +23824,7 @@
         <v>0</v>
       </c>
       <c r="I698" t="inlineStr"/>
-      <c r="J698" t="n">
-        <v>9960</v>
-      </c>
+      <c r="J698" t="inlineStr"/>
       <c r="K698" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23719,9 +23861,7 @@
         <v>0</v>
       </c>
       <c r="I699" t="inlineStr"/>
-      <c r="J699" t="n">
-        <v>9960</v>
-      </c>
+      <c r="J699" t="inlineStr"/>
       <c r="K699" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23758,9 +23898,7 @@
         <v>0</v>
       </c>
       <c r="I700" t="inlineStr"/>
-      <c r="J700" t="n">
-        <v>9960</v>
-      </c>
+      <c r="J700" t="inlineStr"/>
       <c r="K700" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23797,9 +23935,7 @@
         <v>0</v>
       </c>
       <c r="I701" t="inlineStr"/>
-      <c r="J701" t="n">
-        <v>9960</v>
-      </c>
+      <c r="J701" t="inlineStr"/>
       <c r="K701" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23836,9 +23972,7 @@
         <v>0</v>
       </c>
       <c r="I702" t="inlineStr"/>
-      <c r="J702" t="n">
-        <v>9960</v>
-      </c>
+      <c r="J702" t="inlineStr"/>
       <c r="K702" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23875,9 +24009,7 @@
         <v>0</v>
       </c>
       <c r="I703" t="inlineStr"/>
-      <c r="J703" t="n">
-        <v>9960</v>
-      </c>
+      <c r="J703" t="inlineStr"/>
       <c r="K703" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23914,9 +24046,7 @@
         <v>0</v>
       </c>
       <c r="I704" t="inlineStr"/>
-      <c r="J704" t="n">
-        <v>9960</v>
-      </c>
+      <c r="J704" t="inlineStr"/>
       <c r="K704" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23953,9 +24083,7 @@
         <v>0</v>
       </c>
       <c r="I705" t="inlineStr"/>
-      <c r="J705" t="n">
-        <v>9960</v>
-      </c>
+      <c r="J705" t="inlineStr"/>
       <c r="K705" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23992,9 +24120,7 @@
         <v>0</v>
       </c>
       <c r="I706" t="inlineStr"/>
-      <c r="J706" t="n">
-        <v>9960</v>
-      </c>
+      <c r="J706" t="inlineStr"/>
       <c r="K706" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24031,9 +24157,7 @@
         <v>0</v>
       </c>
       <c r="I707" t="inlineStr"/>
-      <c r="J707" t="n">
-        <v>9960</v>
-      </c>
+      <c r="J707" t="inlineStr"/>
       <c r="K707" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24070,9 +24194,7 @@
         <v>0</v>
       </c>
       <c r="I708" t="inlineStr"/>
-      <c r="J708" t="n">
-        <v>9960</v>
-      </c>
+      <c r="J708" t="inlineStr"/>
       <c r="K708" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24109,9 +24231,7 @@
         <v>0</v>
       </c>
       <c r="I709" t="inlineStr"/>
-      <c r="J709" t="n">
-        <v>9960</v>
-      </c>
+      <c r="J709" t="inlineStr"/>
       <c r="K709" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24148,9 +24268,7 @@
         <v>0</v>
       </c>
       <c r="I710" t="inlineStr"/>
-      <c r="J710" t="n">
-        <v>9960</v>
-      </c>
+      <c r="J710" t="inlineStr"/>
       <c r="K710" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24187,9 +24305,7 @@
         <v>0</v>
       </c>
       <c r="I711" t="inlineStr"/>
-      <c r="J711" t="n">
-        <v>9960</v>
-      </c>
+      <c r="J711" t="inlineStr"/>
       <c r="K711" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24226,9 +24342,7 @@
         <v>0</v>
       </c>
       <c r="I712" t="inlineStr"/>
-      <c r="J712" t="n">
-        <v>9960</v>
-      </c>
+      <c r="J712" t="inlineStr"/>
       <c r="K712" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24265,9 +24379,7 @@
         <v>0</v>
       </c>
       <c r="I713" t="inlineStr"/>
-      <c r="J713" t="n">
-        <v>9960</v>
-      </c>
+      <c r="J713" t="inlineStr"/>
       <c r="K713" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24304,9 +24416,7 @@
         <v>0</v>
       </c>
       <c r="I714" t="inlineStr"/>
-      <c r="J714" t="n">
-        <v>9960</v>
-      </c>
+      <c r="J714" t="inlineStr"/>
       <c r="K714" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24343,9 +24453,7 @@
         <v>0</v>
       </c>
       <c r="I715" t="inlineStr"/>
-      <c r="J715" t="n">
-        <v>9960</v>
-      </c>
+      <c r="J715" t="inlineStr"/>
       <c r="K715" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24382,9 +24490,7 @@
         <v>0</v>
       </c>
       <c r="I716" t="inlineStr"/>
-      <c r="J716" t="n">
-        <v>9960</v>
-      </c>
+      <c r="J716" t="inlineStr"/>
       <c r="K716" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24421,9 +24527,7 @@
         <v>0</v>
       </c>
       <c r="I717" t="inlineStr"/>
-      <c r="J717" t="n">
-        <v>9960</v>
-      </c>
+      <c r="J717" t="inlineStr"/>
       <c r="K717" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24460,9 +24564,7 @@
         <v>0</v>
       </c>
       <c r="I718" t="inlineStr"/>
-      <c r="J718" t="n">
-        <v>9960</v>
-      </c>
+      <c r="J718" t="inlineStr"/>
       <c r="K718" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24499,9 +24601,7 @@
         <v>0</v>
       </c>
       <c r="I719" t="inlineStr"/>
-      <c r="J719" t="n">
-        <v>9960</v>
-      </c>
+      <c r="J719" t="inlineStr"/>
       <c r="K719" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24538,9 +24638,7 @@
         <v>0</v>
       </c>
       <c r="I720" t="inlineStr"/>
-      <c r="J720" t="n">
-        <v>9960</v>
-      </c>
+      <c r="J720" t="inlineStr"/>
       <c r="K720" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24577,9 +24675,7 @@
         <v>0</v>
       </c>
       <c r="I721" t="inlineStr"/>
-      <c r="J721" t="n">
-        <v>9960</v>
-      </c>
+      <c r="J721" t="inlineStr"/>
       <c r="K721" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24616,9 +24712,7 @@
         <v>0</v>
       </c>
       <c r="I722" t="inlineStr"/>
-      <c r="J722" t="n">
-        <v>9960</v>
-      </c>
+      <c r="J722" t="inlineStr"/>
       <c r="K722" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24655,9 +24749,7 @@
         <v>0</v>
       </c>
       <c r="I723" t="inlineStr"/>
-      <c r="J723" t="n">
-        <v>9960</v>
-      </c>
+      <c r="J723" t="inlineStr"/>
       <c r="K723" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24694,9 +24786,7 @@
         <v>0</v>
       </c>
       <c r="I724" t="inlineStr"/>
-      <c r="J724" t="n">
-        <v>9960</v>
-      </c>
+      <c r="J724" t="inlineStr"/>
       <c r="K724" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24733,9 +24823,7 @@
         <v>0</v>
       </c>
       <c r="I725" t="inlineStr"/>
-      <c r="J725" t="n">
-        <v>9960</v>
-      </c>
+      <c r="J725" t="inlineStr"/>
       <c r="K725" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24772,9 +24860,7 @@
         <v>0</v>
       </c>
       <c r="I726" t="inlineStr"/>
-      <c r="J726" t="n">
-        <v>9960</v>
-      </c>
+      <c r="J726" t="inlineStr"/>
       <c r="K726" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24811,9 +24897,7 @@
         <v>0</v>
       </c>
       <c r="I727" t="inlineStr"/>
-      <c r="J727" t="n">
-        <v>9960</v>
-      </c>
+      <c r="J727" t="inlineStr"/>
       <c r="K727" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24850,9 +24934,7 @@
         <v>0</v>
       </c>
       <c r="I728" t="inlineStr"/>
-      <c r="J728" t="n">
-        <v>9960</v>
-      </c>
+      <c r="J728" t="inlineStr"/>
       <c r="K728" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24889,9 +24971,7 @@
         <v>0</v>
       </c>
       <c r="I729" t="inlineStr"/>
-      <c r="J729" t="n">
-        <v>9960</v>
-      </c>
+      <c r="J729" t="inlineStr"/>
       <c r="K729" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24928,9 +25008,7 @@
         <v>0</v>
       </c>
       <c r="I730" t="inlineStr"/>
-      <c r="J730" t="n">
-        <v>9960</v>
-      </c>
+      <c r="J730" t="inlineStr"/>
       <c r="K730" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24967,9 +25045,7 @@
         <v>0</v>
       </c>
       <c r="I731" t="inlineStr"/>
-      <c r="J731" t="n">
-        <v>9960</v>
-      </c>
+      <c r="J731" t="inlineStr"/>
       <c r="K731" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25006,9 +25082,7 @@
         <v>0</v>
       </c>
       <c r="I732" t="inlineStr"/>
-      <c r="J732" t="n">
-        <v>9960</v>
-      </c>
+      <c r="J732" t="inlineStr"/>
       <c r="K732" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25045,9 +25119,7 @@
         <v>0</v>
       </c>
       <c r="I733" t="inlineStr"/>
-      <c r="J733" t="n">
-        <v>9960</v>
-      </c>
+      <c r="J733" t="inlineStr"/>
       <c r="K733" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25084,9 +25156,7 @@
         <v>0</v>
       </c>
       <c r="I734" t="inlineStr"/>
-      <c r="J734" t="n">
-        <v>9960</v>
-      </c>
+      <c r="J734" t="inlineStr"/>
       <c r="K734" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25123,9 +25193,7 @@
         <v>0</v>
       </c>
       <c r="I735" t="inlineStr"/>
-      <c r="J735" t="n">
-        <v>9960</v>
-      </c>
+      <c r="J735" t="inlineStr"/>
       <c r="K735" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25162,9 +25230,7 @@
         <v>0</v>
       </c>
       <c r="I736" t="inlineStr"/>
-      <c r="J736" t="n">
-        <v>9960</v>
-      </c>
+      <c r="J736" t="inlineStr"/>
       <c r="K736" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25201,9 +25267,7 @@
         <v>0</v>
       </c>
       <c r="I737" t="inlineStr"/>
-      <c r="J737" t="n">
-        <v>9960</v>
-      </c>
+      <c r="J737" t="inlineStr"/>
       <c r="K737" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25240,9 +25304,7 @@
         <v>0</v>
       </c>
       <c r="I738" t="inlineStr"/>
-      <c r="J738" t="n">
-        <v>9960</v>
-      </c>
+      <c r="J738" t="inlineStr"/>
       <c r="K738" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25279,9 +25341,7 @@
         <v>0</v>
       </c>
       <c r="I739" t="inlineStr"/>
-      <c r="J739" t="n">
-        <v>9960</v>
-      </c>
+      <c r="J739" t="inlineStr"/>
       <c r="K739" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25318,9 +25378,7 @@
         <v>0</v>
       </c>
       <c r="I740" t="inlineStr"/>
-      <c r="J740" t="n">
-        <v>9960</v>
-      </c>
+      <c r="J740" t="inlineStr"/>
       <c r="K740" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25357,9 +25415,7 @@
         <v>0</v>
       </c>
       <c r="I741" t="inlineStr"/>
-      <c r="J741" t="n">
-        <v>9960</v>
-      </c>
+      <c r="J741" t="inlineStr"/>
       <c r="K741" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25396,9 +25452,7 @@
         <v>0</v>
       </c>
       <c r="I742" t="inlineStr"/>
-      <c r="J742" t="n">
-        <v>9960</v>
-      </c>
+      <c r="J742" t="inlineStr"/>
       <c r="K742" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25435,9 +25489,7 @@
         <v>0</v>
       </c>
       <c r="I743" t="inlineStr"/>
-      <c r="J743" t="n">
-        <v>9960</v>
-      </c>
+      <c r="J743" t="inlineStr"/>
       <c r="K743" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25474,9 +25526,7 @@
         <v>0</v>
       </c>
       <c r="I744" t="inlineStr"/>
-      <c r="J744" t="n">
-        <v>9960</v>
-      </c>
+      <c r="J744" t="inlineStr"/>
       <c r="K744" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25513,9 +25563,7 @@
         <v>0</v>
       </c>
       <c r="I745" t="inlineStr"/>
-      <c r="J745" t="n">
-        <v>9960</v>
-      </c>
+      <c r="J745" t="inlineStr"/>
       <c r="K745" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25552,9 +25600,7 @@
         <v>0</v>
       </c>
       <c r="I746" t="inlineStr"/>
-      <c r="J746" t="n">
-        <v>9960</v>
-      </c>
+      <c r="J746" t="inlineStr"/>
       <c r="K746" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25591,9 +25637,7 @@
         <v>0</v>
       </c>
       <c r="I747" t="inlineStr"/>
-      <c r="J747" t="n">
-        <v>9960</v>
-      </c>
+      <c r="J747" t="inlineStr"/>
       <c r="K747" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25630,9 +25674,7 @@
         <v>0</v>
       </c>
       <c r="I748" t="inlineStr"/>
-      <c r="J748" t="n">
-        <v>9960</v>
-      </c>
+      <c r="J748" t="inlineStr"/>
       <c r="K748" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25669,9 +25711,7 @@
         <v>0</v>
       </c>
       <c r="I749" t="inlineStr"/>
-      <c r="J749" t="n">
-        <v>9960</v>
-      </c>
+      <c r="J749" t="inlineStr"/>
       <c r="K749" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25708,9 +25748,7 @@
         <v>0</v>
       </c>
       <c r="I750" t="inlineStr"/>
-      <c r="J750" t="n">
-        <v>9960</v>
-      </c>
+      <c r="J750" t="inlineStr"/>
       <c r="K750" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25747,9 +25785,7 @@
         <v>0</v>
       </c>
       <c r="I751" t="inlineStr"/>
-      <c r="J751" t="n">
-        <v>9960</v>
-      </c>
+      <c r="J751" t="inlineStr"/>
       <c r="K751" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25786,9 +25822,7 @@
         <v>0</v>
       </c>
       <c r="I752" t="inlineStr"/>
-      <c r="J752" t="n">
-        <v>9960</v>
-      </c>
+      <c r="J752" t="inlineStr"/>
       <c r="K752" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25825,9 +25859,7 @@
         <v>0</v>
       </c>
       <c r="I753" t="inlineStr"/>
-      <c r="J753" t="n">
-        <v>9960</v>
-      </c>
+      <c r="J753" t="inlineStr"/>
       <c r="K753" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25864,9 +25896,7 @@
         <v>0</v>
       </c>
       <c r="I754" t="inlineStr"/>
-      <c r="J754" t="n">
-        <v>9960</v>
-      </c>
+      <c r="J754" t="inlineStr"/>
       <c r="K754" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25903,9 +25933,7 @@
         <v>0</v>
       </c>
       <c r="I755" t="inlineStr"/>
-      <c r="J755" t="n">
-        <v>9960</v>
-      </c>
+      <c r="J755" t="inlineStr"/>
       <c r="K755" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25942,9 +25970,7 @@
         <v>0</v>
       </c>
       <c r="I756" t="inlineStr"/>
-      <c r="J756" t="n">
-        <v>9960</v>
-      </c>
+      <c r="J756" t="inlineStr"/>
       <c r="K756" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25981,9 +26007,7 @@
         <v>0</v>
       </c>
       <c r="I757" t="inlineStr"/>
-      <c r="J757" t="n">
-        <v>9960</v>
-      </c>
+      <c r="J757" t="inlineStr"/>
       <c r="K757" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26020,9 +26044,7 @@
         <v>0</v>
       </c>
       <c r="I758" t="inlineStr"/>
-      <c r="J758" t="n">
-        <v>9960</v>
-      </c>
+      <c r="J758" t="inlineStr"/>
       <c r="K758" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26059,9 +26081,7 @@
         <v>0</v>
       </c>
       <c r="I759" t="inlineStr"/>
-      <c r="J759" t="n">
-        <v>9960</v>
-      </c>
+      <c r="J759" t="inlineStr"/>
       <c r="K759" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26098,9 +26118,7 @@
         <v>0</v>
       </c>
       <c r="I760" t="inlineStr"/>
-      <c r="J760" t="n">
-        <v>9960</v>
-      </c>
+      <c r="J760" t="inlineStr"/>
       <c r="K760" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26137,9 +26155,7 @@
         <v>0</v>
       </c>
       <c r="I761" t="inlineStr"/>
-      <c r="J761" t="n">
-        <v>9960</v>
-      </c>
+      <c r="J761" t="inlineStr"/>
       <c r="K761" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26176,9 +26192,7 @@
         <v>0</v>
       </c>
       <c r="I762" t="inlineStr"/>
-      <c r="J762" t="n">
-        <v>9960</v>
-      </c>
+      <c r="J762" t="inlineStr"/>
       <c r="K762" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26215,9 +26229,7 @@
         <v>0</v>
       </c>
       <c r="I763" t="inlineStr"/>
-      <c r="J763" t="n">
-        <v>9960</v>
-      </c>
+      <c r="J763" t="inlineStr"/>
       <c r="K763" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26254,9 +26266,7 @@
         <v>0</v>
       </c>
       <c r="I764" t="inlineStr"/>
-      <c r="J764" t="n">
-        <v>9960</v>
-      </c>
+      <c r="J764" t="inlineStr"/>
       <c r="K764" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26293,9 +26303,7 @@
         <v>0</v>
       </c>
       <c r="I765" t="inlineStr"/>
-      <c r="J765" t="n">
-        <v>9960</v>
-      </c>
+      <c r="J765" t="inlineStr"/>
       <c r="K765" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26332,9 +26340,7 @@
         <v>0</v>
       </c>
       <c r="I766" t="inlineStr"/>
-      <c r="J766" t="n">
-        <v>9960</v>
-      </c>
+      <c r="J766" t="inlineStr"/>
       <c r="K766" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26371,9 +26377,7 @@
         <v>0</v>
       </c>
       <c r="I767" t="inlineStr"/>
-      <c r="J767" t="n">
-        <v>9960</v>
-      </c>
+      <c r="J767" t="inlineStr"/>
       <c r="K767" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26410,9 +26414,7 @@
         <v>0</v>
       </c>
       <c r="I768" t="inlineStr"/>
-      <c r="J768" t="n">
-        <v>9960</v>
-      </c>
+      <c r="J768" t="inlineStr"/>
       <c r="K768" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26449,9 +26451,7 @@
         <v>0</v>
       </c>
       <c r="I769" t="inlineStr"/>
-      <c r="J769" t="n">
-        <v>9960</v>
-      </c>
+      <c r="J769" t="inlineStr"/>
       <c r="K769" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26488,9 +26488,7 @@
         <v>0</v>
       </c>
       <c r="I770" t="inlineStr"/>
-      <c r="J770" t="n">
-        <v>9960</v>
-      </c>
+      <c r="J770" t="inlineStr"/>
       <c r="K770" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26527,9 +26525,7 @@
         <v>0</v>
       </c>
       <c r="I771" t="inlineStr"/>
-      <c r="J771" t="n">
-        <v>9960</v>
-      </c>
+      <c r="J771" t="inlineStr"/>
       <c r="K771" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26566,9 +26562,7 @@
         <v>0</v>
       </c>
       <c r="I772" t="inlineStr"/>
-      <c r="J772" t="n">
-        <v>9960</v>
-      </c>
+      <c r="J772" t="inlineStr"/>
       <c r="K772" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26605,9 +26599,7 @@
         <v>0</v>
       </c>
       <c r="I773" t="inlineStr"/>
-      <c r="J773" t="n">
-        <v>9960</v>
-      </c>
+      <c r="J773" t="inlineStr"/>
       <c r="K773" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26644,9 +26636,7 @@
         <v>0</v>
       </c>
       <c r="I774" t="inlineStr"/>
-      <c r="J774" t="n">
-        <v>9960</v>
-      </c>
+      <c r="J774" t="inlineStr"/>
       <c r="K774" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26683,9 +26673,7 @@
         <v>0</v>
       </c>
       <c r="I775" t="inlineStr"/>
-      <c r="J775" t="n">
-        <v>9960</v>
-      </c>
+      <c r="J775" t="inlineStr"/>
       <c r="K775" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26722,9 +26710,7 @@
         <v>0</v>
       </c>
       <c r="I776" t="inlineStr"/>
-      <c r="J776" t="n">
-        <v>9960</v>
-      </c>
+      <c r="J776" t="inlineStr"/>
       <c r="K776" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26761,9 +26747,7 @@
         <v>0</v>
       </c>
       <c r="I777" t="inlineStr"/>
-      <c r="J777" t="n">
-        <v>9960</v>
-      </c>
+      <c r="J777" t="inlineStr"/>
       <c r="K777" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26800,9 +26784,7 @@
         <v>0</v>
       </c>
       <c r="I778" t="inlineStr"/>
-      <c r="J778" t="n">
-        <v>9960</v>
-      </c>
+      <c r="J778" t="inlineStr"/>
       <c r="K778" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26839,9 +26821,7 @@
         <v>0</v>
       </c>
       <c r="I779" t="inlineStr"/>
-      <c r="J779" t="n">
-        <v>9960</v>
-      </c>
+      <c r="J779" t="inlineStr"/>
       <c r="K779" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26878,9 +26858,7 @@
         <v>0</v>
       </c>
       <c r="I780" t="inlineStr"/>
-      <c r="J780" t="n">
-        <v>9960</v>
-      </c>
+      <c r="J780" t="inlineStr"/>
       <c r="K780" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26917,9 +26895,7 @@
         <v>0</v>
       </c>
       <c r="I781" t="inlineStr"/>
-      <c r="J781" t="n">
-        <v>9960</v>
-      </c>
+      <c r="J781" t="inlineStr"/>
       <c r="K781" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26956,9 +26932,7 @@
         <v>0</v>
       </c>
       <c r="I782" t="inlineStr"/>
-      <c r="J782" t="n">
-        <v>9960</v>
-      </c>
+      <c r="J782" t="inlineStr"/>
       <c r="K782" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26995,9 +26969,7 @@
         <v>0</v>
       </c>
       <c r="I783" t="inlineStr"/>
-      <c r="J783" t="n">
-        <v>9960</v>
-      </c>
+      <c r="J783" t="inlineStr"/>
       <c r="K783" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27034,9 +27006,7 @@
         <v>0</v>
       </c>
       <c r="I784" t="inlineStr"/>
-      <c r="J784" t="n">
-        <v>9960</v>
-      </c>
+      <c r="J784" t="inlineStr"/>
       <c r="K784" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27073,9 +27043,7 @@
         <v>0</v>
       </c>
       <c r="I785" t="inlineStr"/>
-      <c r="J785" t="n">
-        <v>9960</v>
-      </c>
+      <c r="J785" t="inlineStr"/>
       <c r="K785" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27112,9 +27080,7 @@
         <v>0</v>
       </c>
       <c r="I786" t="inlineStr"/>
-      <c r="J786" t="n">
-        <v>9960</v>
-      </c>
+      <c r="J786" t="inlineStr"/>
       <c r="K786" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27151,9 +27117,7 @@
         <v>0</v>
       </c>
       <c r="I787" t="inlineStr"/>
-      <c r="J787" t="n">
-        <v>9960</v>
-      </c>
+      <c r="J787" t="inlineStr"/>
       <c r="K787" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27190,9 +27154,7 @@
         <v>0</v>
       </c>
       <c r="I788" t="inlineStr"/>
-      <c r="J788" t="n">
-        <v>9960</v>
-      </c>
+      <c r="J788" t="inlineStr"/>
       <c r="K788" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27229,9 +27191,7 @@
         <v>0</v>
       </c>
       <c r="I789" t="inlineStr"/>
-      <c r="J789" t="n">
-        <v>9960</v>
-      </c>
+      <c r="J789" t="inlineStr"/>
       <c r="K789" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27268,9 +27228,7 @@
         <v>0</v>
       </c>
       <c r="I790" t="inlineStr"/>
-      <c r="J790" t="n">
-        <v>9960</v>
-      </c>
+      <c r="J790" t="inlineStr"/>
       <c r="K790" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27307,9 +27265,7 @@
         <v>0</v>
       </c>
       <c r="I791" t="inlineStr"/>
-      <c r="J791" t="n">
-        <v>9960</v>
-      </c>
+      <c r="J791" t="inlineStr"/>
       <c r="K791" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27346,9 +27302,7 @@
         <v>0</v>
       </c>
       <c r="I792" t="inlineStr"/>
-      <c r="J792" t="n">
-        <v>9960</v>
-      </c>
+      <c r="J792" t="inlineStr"/>
       <c r="K792" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27385,9 +27339,7 @@
         <v>0</v>
       </c>
       <c r="I793" t="inlineStr"/>
-      <c r="J793" t="n">
-        <v>9960</v>
-      </c>
+      <c r="J793" t="inlineStr"/>
       <c r="K793" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27424,9 +27376,7 @@
         <v>0</v>
       </c>
       <c r="I794" t="inlineStr"/>
-      <c r="J794" t="n">
-        <v>9960</v>
-      </c>
+      <c r="J794" t="inlineStr"/>
       <c r="K794" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27463,9 +27413,7 @@
         <v>0</v>
       </c>
       <c r="I795" t="inlineStr"/>
-      <c r="J795" t="n">
-        <v>9960</v>
-      </c>
+      <c r="J795" t="inlineStr"/>
       <c r="K795" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27502,9 +27450,7 @@
         <v>0</v>
       </c>
       <c r="I796" t="inlineStr"/>
-      <c r="J796" t="n">
-        <v>9960</v>
-      </c>
+      <c r="J796" t="inlineStr"/>
       <c r="K796" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27541,9 +27487,7 @@
         <v>0</v>
       </c>
       <c r="I797" t="inlineStr"/>
-      <c r="J797" t="n">
-        <v>9960</v>
-      </c>
+      <c r="J797" t="inlineStr"/>
       <c r="K797" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27580,9 +27524,7 @@
         <v>0</v>
       </c>
       <c r="I798" t="inlineStr"/>
-      <c r="J798" t="n">
-        <v>9960</v>
-      </c>
+      <c r="J798" t="inlineStr"/>
       <c r="K798" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27619,9 +27561,7 @@
         <v>0</v>
       </c>
       <c r="I799" t="inlineStr"/>
-      <c r="J799" t="n">
-        <v>9960</v>
-      </c>
+      <c r="J799" t="inlineStr"/>
       <c r="K799" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27658,9 +27598,7 @@
         <v>0</v>
       </c>
       <c r="I800" t="inlineStr"/>
-      <c r="J800" t="n">
-        <v>9960</v>
-      </c>
+      <c r="J800" t="inlineStr"/>
       <c r="K800" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27697,9 +27635,7 @@
         <v>0</v>
       </c>
       <c r="I801" t="inlineStr"/>
-      <c r="J801" t="n">
-        <v>9960</v>
-      </c>
+      <c r="J801" t="inlineStr"/>
       <c r="K801" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27736,9 +27672,7 @@
         <v>0</v>
       </c>
       <c r="I802" t="inlineStr"/>
-      <c r="J802" t="n">
-        <v>9960</v>
-      </c>
+      <c r="J802" t="inlineStr"/>
       <c r="K802" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27775,9 +27709,7 @@
         <v>0</v>
       </c>
       <c r="I803" t="inlineStr"/>
-      <c r="J803" t="n">
-        <v>9960</v>
-      </c>
+      <c r="J803" t="inlineStr"/>
       <c r="K803" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27814,9 +27746,7 @@
         <v>0</v>
       </c>
       <c r="I804" t="inlineStr"/>
-      <c r="J804" t="n">
-        <v>9960</v>
-      </c>
+      <c r="J804" t="inlineStr"/>
       <c r="K804" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27853,9 +27783,7 @@
         <v>0</v>
       </c>
       <c r="I805" t="inlineStr"/>
-      <c r="J805" t="n">
-        <v>9960</v>
-      </c>
+      <c r="J805" t="inlineStr"/>
       <c r="K805" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27892,9 +27820,7 @@
         <v>0</v>
       </c>
       <c r="I806" t="inlineStr"/>
-      <c r="J806" t="n">
-        <v>9960</v>
-      </c>
+      <c r="J806" t="inlineStr"/>
       <c r="K806" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27931,9 +27857,7 @@
         <v>0</v>
       </c>
       <c r="I807" t="inlineStr"/>
-      <c r="J807" t="n">
-        <v>9960</v>
-      </c>
+      <c r="J807" t="inlineStr"/>
       <c r="K807" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27970,9 +27894,7 @@
         <v>0</v>
       </c>
       <c r="I808" t="inlineStr"/>
-      <c r="J808" t="n">
-        <v>9960</v>
-      </c>
+      <c r="J808" t="inlineStr"/>
       <c r="K808" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28009,9 +27931,7 @@
         <v>0</v>
       </c>
       <c r="I809" t="inlineStr"/>
-      <c r="J809" t="n">
-        <v>9960</v>
-      </c>
+      <c r="J809" t="inlineStr"/>
       <c r="K809" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28048,9 +27968,7 @@
         <v>0</v>
       </c>
       <c r="I810" t="inlineStr"/>
-      <c r="J810" t="n">
-        <v>9960</v>
-      </c>
+      <c r="J810" t="inlineStr"/>
       <c r="K810" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28087,9 +28005,7 @@
         <v>0</v>
       </c>
       <c r="I811" t="inlineStr"/>
-      <c r="J811" t="n">
-        <v>9960</v>
-      </c>
+      <c r="J811" t="inlineStr"/>
       <c r="K811" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28126,9 +28042,7 @@
         <v>0</v>
       </c>
       <c r="I812" t="inlineStr"/>
-      <c r="J812" t="n">
-        <v>9960</v>
-      </c>
+      <c r="J812" t="inlineStr"/>
       <c r="K812" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28165,9 +28079,7 @@
         <v>0</v>
       </c>
       <c r="I813" t="inlineStr"/>
-      <c r="J813" t="n">
-        <v>9960</v>
-      </c>
+      <c r="J813" t="inlineStr"/>
       <c r="K813" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28204,9 +28116,7 @@
         <v>0</v>
       </c>
       <c r="I814" t="inlineStr"/>
-      <c r="J814" t="n">
-        <v>9960</v>
-      </c>
+      <c r="J814" t="inlineStr"/>
       <c r="K814" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28243,9 +28153,7 @@
         <v>0</v>
       </c>
       <c r="I815" t="inlineStr"/>
-      <c r="J815" t="n">
-        <v>9960</v>
-      </c>
+      <c r="J815" t="inlineStr"/>
       <c r="K815" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28282,9 +28190,7 @@
         <v>0</v>
       </c>
       <c r="I816" t="inlineStr"/>
-      <c r="J816" t="n">
-        <v>9960</v>
-      </c>
+      <c r="J816" t="inlineStr"/>
       <c r="K816" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28321,9 +28227,7 @@
         <v>0</v>
       </c>
       <c r="I817" t="inlineStr"/>
-      <c r="J817" t="n">
-        <v>9960</v>
-      </c>
+      <c r="J817" t="inlineStr"/>
       <c r="K817" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28360,9 +28264,7 @@
         <v>0</v>
       </c>
       <c r="I818" t="inlineStr"/>
-      <c r="J818" t="n">
-        <v>9960</v>
-      </c>
+      <c r="J818" t="inlineStr"/>
       <c r="K818" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28399,9 +28301,7 @@
         <v>0</v>
       </c>
       <c r="I819" t="inlineStr"/>
-      <c r="J819" t="n">
-        <v>9960</v>
-      </c>
+      <c r="J819" t="inlineStr"/>
       <c r="K819" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28438,9 +28338,7 @@
         <v>0</v>
       </c>
       <c r="I820" t="inlineStr"/>
-      <c r="J820" t="n">
-        <v>9960</v>
-      </c>
+      <c r="J820" t="inlineStr"/>
       <c r="K820" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28477,9 +28375,7 @@
         <v>0</v>
       </c>
       <c r="I821" t="inlineStr"/>
-      <c r="J821" t="n">
-        <v>9960</v>
-      </c>
+      <c r="J821" t="inlineStr"/>
       <c r="K821" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28516,9 +28412,7 @@
         <v>0</v>
       </c>
       <c r="I822" t="inlineStr"/>
-      <c r="J822" t="n">
-        <v>9960</v>
-      </c>
+      <c r="J822" t="inlineStr"/>
       <c r="K822" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28555,9 +28449,7 @@
         <v>0</v>
       </c>
       <c r="I823" t="inlineStr"/>
-      <c r="J823" t="n">
-        <v>9960</v>
-      </c>
+      <c r="J823" t="inlineStr"/>
       <c r="K823" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28594,9 +28486,7 @@
         <v>0</v>
       </c>
       <c r="I824" t="inlineStr"/>
-      <c r="J824" t="n">
-        <v>9960</v>
-      </c>
+      <c r="J824" t="inlineStr"/>
       <c r="K824" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28633,9 +28523,7 @@
         <v>0</v>
       </c>
       <c r="I825" t="inlineStr"/>
-      <c r="J825" t="n">
-        <v>9960</v>
-      </c>
+      <c r="J825" t="inlineStr"/>
       <c r="K825" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28672,9 +28560,7 @@
         <v>0</v>
       </c>
       <c r="I826" t="inlineStr"/>
-      <c r="J826" t="n">
-        <v>9960</v>
-      </c>
+      <c r="J826" t="inlineStr"/>
       <c r="K826" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28711,9 +28597,7 @@
         <v>0</v>
       </c>
       <c r="I827" t="inlineStr"/>
-      <c r="J827" t="n">
-        <v>9960</v>
-      </c>
+      <c r="J827" t="inlineStr"/>
       <c r="K827" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28750,9 +28634,7 @@
         <v>0</v>
       </c>
       <c r="I828" t="inlineStr"/>
-      <c r="J828" t="n">
-        <v>9960</v>
-      </c>
+      <c r="J828" t="inlineStr"/>
       <c r="K828" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28789,9 +28671,7 @@
         <v>0</v>
       </c>
       <c r="I829" t="inlineStr"/>
-      <c r="J829" t="n">
-        <v>9960</v>
-      </c>
+      <c r="J829" t="inlineStr"/>
       <c r="K829" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28828,9 +28708,7 @@
         <v>0</v>
       </c>
       <c r="I830" t="inlineStr"/>
-      <c r="J830" t="n">
-        <v>9960</v>
-      </c>
+      <c r="J830" t="inlineStr"/>
       <c r="K830" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28867,9 +28745,7 @@
         <v>0</v>
       </c>
       <c r="I831" t="inlineStr"/>
-      <c r="J831" t="n">
-        <v>9960</v>
-      </c>
+      <c r="J831" t="inlineStr"/>
       <c r="K831" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28906,9 +28782,7 @@
         <v>0</v>
       </c>
       <c r="I832" t="inlineStr"/>
-      <c r="J832" t="n">
-        <v>9960</v>
-      </c>
+      <c r="J832" t="inlineStr"/>
       <c r="K832" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28945,9 +28819,7 @@
         <v>0</v>
       </c>
       <c r="I833" t="inlineStr"/>
-      <c r="J833" t="n">
-        <v>9960</v>
-      </c>
+      <c r="J833" t="inlineStr"/>
       <c r="K833" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28984,9 +28856,7 @@
         <v>0</v>
       </c>
       <c r="I834" t="inlineStr"/>
-      <c r="J834" t="n">
-        <v>9960</v>
-      </c>
+      <c r="J834" t="inlineStr"/>
       <c r="K834" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29023,9 +28893,7 @@
         <v>0</v>
       </c>
       <c r="I835" t="inlineStr"/>
-      <c r="J835" t="n">
-        <v>9960</v>
-      </c>
+      <c r="J835" t="inlineStr"/>
       <c r="K835" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29062,9 +28930,7 @@
         <v>0</v>
       </c>
       <c r="I836" t="inlineStr"/>
-      <c r="J836" t="n">
-        <v>9960</v>
-      </c>
+      <c r="J836" t="inlineStr"/>
       <c r="K836" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29101,9 +28967,7 @@
         <v>0</v>
       </c>
       <c r="I837" t="inlineStr"/>
-      <c r="J837" t="n">
-        <v>9960</v>
-      </c>
+      <c r="J837" t="inlineStr"/>
       <c r="K837" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29140,9 +29004,7 @@
         <v>0</v>
       </c>
       <c r="I838" t="inlineStr"/>
-      <c r="J838" t="n">
-        <v>9960</v>
-      </c>
+      <c r="J838" t="inlineStr"/>
       <c r="K838" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29179,9 +29041,7 @@
         <v>0</v>
       </c>
       <c r="I839" t="inlineStr"/>
-      <c r="J839" t="n">
-        <v>9960</v>
-      </c>
+      <c r="J839" t="inlineStr"/>
       <c r="K839" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29218,9 +29078,7 @@
         <v>0</v>
       </c>
       <c r="I840" t="inlineStr"/>
-      <c r="J840" t="n">
-        <v>9960</v>
-      </c>
+      <c r="J840" t="inlineStr"/>
       <c r="K840" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29257,9 +29115,7 @@
         <v>0</v>
       </c>
       <c r="I841" t="inlineStr"/>
-      <c r="J841" t="n">
-        <v>9960</v>
-      </c>
+      <c r="J841" t="inlineStr"/>
       <c r="K841" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29296,9 +29152,7 @@
         <v>0</v>
       </c>
       <c r="I842" t="inlineStr"/>
-      <c r="J842" t="n">
-        <v>9960</v>
-      </c>
+      <c r="J842" t="inlineStr"/>
       <c r="K842" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29335,9 +29189,7 @@
         <v>0</v>
       </c>
       <c r="I843" t="inlineStr"/>
-      <c r="J843" t="n">
-        <v>9960</v>
-      </c>
+      <c r="J843" t="inlineStr"/>
       <c r="K843" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29374,9 +29226,7 @@
         <v>0</v>
       </c>
       <c r="I844" t="inlineStr"/>
-      <c r="J844" t="n">
-        <v>9960</v>
-      </c>
+      <c r="J844" t="inlineStr"/>
       <c r="K844" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29413,9 +29263,7 @@
         <v>0</v>
       </c>
       <c r="I845" t="inlineStr"/>
-      <c r="J845" t="n">
-        <v>9960</v>
-      </c>
+      <c r="J845" t="inlineStr"/>
       <c r="K845" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29452,9 +29300,7 @@
         <v>0</v>
       </c>
       <c r="I846" t="inlineStr"/>
-      <c r="J846" t="n">
-        <v>9960</v>
-      </c>
+      <c r="J846" t="inlineStr"/>
       <c r="K846" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29491,9 +29337,7 @@
         <v>0</v>
       </c>
       <c r="I847" t="inlineStr"/>
-      <c r="J847" t="n">
-        <v>9960</v>
-      </c>
+      <c r="J847" t="inlineStr"/>
       <c r="K847" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29530,9 +29374,7 @@
         <v>0</v>
       </c>
       <c r="I848" t="inlineStr"/>
-      <c r="J848" t="n">
-        <v>9960</v>
-      </c>
+      <c r="J848" t="inlineStr"/>
       <c r="K848" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29569,9 +29411,7 @@
         <v>0</v>
       </c>
       <c r="I849" t="inlineStr"/>
-      <c r="J849" t="n">
-        <v>9960</v>
-      </c>
+      <c r="J849" t="inlineStr"/>
       <c r="K849" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29608,9 +29448,7 @@
         <v>0</v>
       </c>
       <c r="I850" t="inlineStr"/>
-      <c r="J850" t="n">
-        <v>9960</v>
-      </c>
+      <c r="J850" t="inlineStr"/>
       <c r="K850" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29647,9 +29485,7 @@
         <v>0</v>
       </c>
       <c r="I851" t="inlineStr"/>
-      <c r="J851" t="n">
-        <v>9960</v>
-      </c>
+      <c r="J851" t="inlineStr"/>
       <c r="K851" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29686,9 +29522,7 @@
         <v>0</v>
       </c>
       <c r="I852" t="inlineStr"/>
-      <c r="J852" t="n">
-        <v>9960</v>
-      </c>
+      <c r="J852" t="inlineStr"/>
       <c r="K852" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29725,9 +29559,7 @@
         <v>0</v>
       </c>
       <c r="I853" t="inlineStr"/>
-      <c r="J853" t="n">
-        <v>9960</v>
-      </c>
+      <c r="J853" t="inlineStr"/>
       <c r="K853" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29764,9 +29596,7 @@
         <v>0</v>
       </c>
       <c r="I854" t="inlineStr"/>
-      <c r="J854" t="n">
-        <v>9960</v>
-      </c>
+      <c r="J854" t="inlineStr"/>
       <c r="K854" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29803,9 +29633,7 @@
         <v>0</v>
       </c>
       <c r="I855" t="inlineStr"/>
-      <c r="J855" t="n">
-        <v>9960</v>
-      </c>
+      <c r="J855" t="inlineStr"/>
       <c r="K855" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29842,9 +29670,7 @@
         <v>0</v>
       </c>
       <c r="I856" t="inlineStr"/>
-      <c r="J856" t="n">
-        <v>9960</v>
-      </c>
+      <c r="J856" t="inlineStr"/>
       <c r="K856" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29881,9 +29707,7 @@
         <v>0</v>
       </c>
       <c r="I857" t="inlineStr"/>
-      <c r="J857" t="n">
-        <v>9960</v>
-      </c>
+      <c r="J857" t="inlineStr"/>
       <c r="K857" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29920,9 +29744,7 @@
         <v>0</v>
       </c>
       <c r="I858" t="inlineStr"/>
-      <c r="J858" t="n">
-        <v>9960</v>
-      </c>
+      <c r="J858" t="inlineStr"/>
       <c r="K858" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29959,9 +29781,7 @@
         <v>0</v>
       </c>
       <c r="I859" t="inlineStr"/>
-      <c r="J859" t="n">
-        <v>9960</v>
-      </c>
+      <c r="J859" t="inlineStr"/>
       <c r="K859" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29998,9 +29818,7 @@
         <v>0</v>
       </c>
       <c r="I860" t="inlineStr"/>
-      <c r="J860" t="n">
-        <v>9960</v>
-      </c>
+      <c r="J860" t="inlineStr"/>
       <c r="K860" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30037,9 +29855,7 @@
         <v>0</v>
       </c>
       <c r="I861" t="inlineStr"/>
-      <c r="J861" t="n">
-        <v>9960</v>
-      </c>
+      <c r="J861" t="inlineStr"/>
       <c r="K861" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30076,9 +29892,7 @@
         <v>0</v>
       </c>
       <c r="I862" t="inlineStr"/>
-      <c r="J862" t="n">
-        <v>9960</v>
-      </c>
+      <c r="J862" t="inlineStr"/>
       <c r="K862" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30115,9 +29929,7 @@
         <v>0</v>
       </c>
       <c r="I863" t="inlineStr"/>
-      <c r="J863" t="n">
-        <v>9960</v>
-      </c>
+      <c r="J863" t="inlineStr"/>
       <c r="K863" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30154,9 +29966,7 @@
         <v>0</v>
       </c>
       <c r="I864" t="inlineStr"/>
-      <c r="J864" t="n">
-        <v>9960</v>
-      </c>
+      <c r="J864" t="inlineStr"/>
       <c r="K864" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30193,9 +30003,7 @@
         <v>0</v>
       </c>
       <c r="I865" t="inlineStr"/>
-      <c r="J865" t="n">
-        <v>9960</v>
-      </c>
+      <c r="J865" t="inlineStr"/>
       <c r="K865" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30232,9 +30040,7 @@
         <v>0</v>
       </c>
       <c r="I866" t="inlineStr"/>
-      <c r="J866" t="n">
-        <v>9960</v>
-      </c>
+      <c r="J866" t="inlineStr"/>
       <c r="K866" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30271,9 +30077,7 @@
         <v>0</v>
       </c>
       <c r="I867" t="inlineStr"/>
-      <c r="J867" t="n">
-        <v>9960</v>
-      </c>
+      <c r="J867" t="inlineStr"/>
       <c r="K867" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30310,9 +30114,7 @@
         <v>0</v>
       </c>
       <c r="I868" t="inlineStr"/>
-      <c r="J868" t="n">
-        <v>9960</v>
-      </c>
+      <c r="J868" t="inlineStr"/>
       <c r="K868" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30349,9 +30151,7 @@
         <v>0</v>
       </c>
       <c r="I869" t="inlineStr"/>
-      <c r="J869" t="n">
-        <v>9960</v>
-      </c>
+      <c r="J869" t="inlineStr"/>
       <c r="K869" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30388,9 +30188,7 @@
         <v>0</v>
       </c>
       <c r="I870" t="inlineStr"/>
-      <c r="J870" t="n">
-        <v>9960</v>
-      </c>
+      <c r="J870" t="inlineStr"/>
       <c r="K870" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30427,9 +30225,7 @@
         <v>0</v>
       </c>
       <c r="I871" t="inlineStr"/>
-      <c r="J871" t="n">
-        <v>9960</v>
-      </c>
+      <c r="J871" t="inlineStr"/>
       <c r="K871" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30466,9 +30262,7 @@
         <v>0</v>
       </c>
       <c r="I872" t="inlineStr"/>
-      <c r="J872" t="n">
-        <v>9960</v>
-      </c>
+      <c r="J872" t="inlineStr"/>
       <c r="K872" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30505,9 +30299,7 @@
         <v>0</v>
       </c>
       <c r="I873" t="inlineStr"/>
-      <c r="J873" t="n">
-        <v>9960</v>
-      </c>
+      <c r="J873" t="inlineStr"/>
       <c r="K873" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30544,9 +30336,7 @@
         <v>0</v>
       </c>
       <c r="I874" t="inlineStr"/>
-      <c r="J874" t="n">
-        <v>9960</v>
-      </c>
+      <c r="J874" t="inlineStr"/>
       <c r="K874" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30583,9 +30373,7 @@
         <v>0</v>
       </c>
       <c r="I875" t="inlineStr"/>
-      <c r="J875" t="n">
-        <v>9960</v>
-      </c>
+      <c r="J875" t="inlineStr"/>
       <c r="K875" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30622,9 +30410,7 @@
         <v>0</v>
       </c>
       <c r="I876" t="inlineStr"/>
-      <c r="J876" t="n">
-        <v>9960</v>
-      </c>
+      <c r="J876" t="inlineStr"/>
       <c r="K876" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30661,9 +30447,7 @@
         <v>0</v>
       </c>
       <c r="I877" t="inlineStr"/>
-      <c r="J877" t="n">
-        <v>9960</v>
-      </c>
+      <c r="J877" t="inlineStr"/>
       <c r="K877" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30700,9 +30484,7 @@
         <v>0</v>
       </c>
       <c r="I878" t="inlineStr"/>
-      <c r="J878" t="n">
-        <v>9960</v>
-      </c>
+      <c r="J878" t="inlineStr"/>
       <c r="K878" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30739,9 +30521,7 @@
         <v>0</v>
       </c>
       <c r="I879" t="inlineStr"/>
-      <c r="J879" t="n">
-        <v>9960</v>
-      </c>
+      <c r="J879" t="inlineStr"/>
       <c r="K879" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30778,9 +30558,7 @@
         <v>0</v>
       </c>
       <c r="I880" t="inlineStr"/>
-      <c r="J880" t="n">
-        <v>9960</v>
-      </c>
+      <c r="J880" t="inlineStr"/>
       <c r="K880" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30817,9 +30595,7 @@
         <v>0</v>
       </c>
       <c r="I881" t="inlineStr"/>
-      <c r="J881" t="n">
-        <v>9960</v>
-      </c>
+      <c r="J881" t="inlineStr"/>
       <c r="K881" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30856,9 +30632,7 @@
         <v>0</v>
       </c>
       <c r="I882" t="inlineStr"/>
-      <c r="J882" t="n">
-        <v>9960</v>
-      </c>
+      <c r="J882" t="inlineStr"/>
       <c r="K882" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30895,9 +30669,7 @@
         <v>0</v>
       </c>
       <c r="I883" t="inlineStr"/>
-      <c r="J883" t="n">
-        <v>9960</v>
-      </c>
+      <c r="J883" t="inlineStr"/>
       <c r="K883" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30934,9 +30706,7 @@
         <v>0</v>
       </c>
       <c r="I884" t="inlineStr"/>
-      <c r="J884" t="n">
-        <v>9960</v>
-      </c>
+      <c r="J884" t="inlineStr"/>
       <c r="K884" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30973,9 +30743,7 @@
         <v>0</v>
       </c>
       <c r="I885" t="inlineStr"/>
-      <c r="J885" t="n">
-        <v>9960</v>
-      </c>
+      <c r="J885" t="inlineStr"/>
       <c r="K885" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31012,9 +30780,7 @@
         <v>0</v>
       </c>
       <c r="I886" t="inlineStr"/>
-      <c r="J886" t="n">
-        <v>9960</v>
-      </c>
+      <c r="J886" t="inlineStr"/>
       <c r="K886" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31051,9 +30817,7 @@
         <v>0</v>
       </c>
       <c r="I887" t="inlineStr"/>
-      <c r="J887" t="n">
-        <v>9960</v>
-      </c>
+      <c r="J887" t="inlineStr"/>
       <c r="K887" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31090,9 +30854,7 @@
         <v>0</v>
       </c>
       <c r="I888" t="inlineStr"/>
-      <c r="J888" t="n">
-        <v>9960</v>
-      </c>
+      <c r="J888" t="inlineStr"/>
       <c r="K888" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31129,9 +30891,7 @@
         <v>0</v>
       </c>
       <c r="I889" t="inlineStr"/>
-      <c r="J889" t="n">
-        <v>9960</v>
-      </c>
+      <c r="J889" t="inlineStr"/>
       <c r="K889" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31168,9 +30928,7 @@
         <v>0</v>
       </c>
       <c r="I890" t="inlineStr"/>
-      <c r="J890" t="n">
-        <v>9960</v>
-      </c>
+      <c r="J890" t="inlineStr"/>
       <c r="K890" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31207,9 +30965,7 @@
         <v>0</v>
       </c>
       <c r="I891" t="inlineStr"/>
-      <c r="J891" t="n">
-        <v>9960</v>
-      </c>
+      <c r="J891" t="inlineStr"/>
       <c r="K891" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31246,9 +31002,7 @@
         <v>0</v>
       </c>
       <c r="I892" t="inlineStr"/>
-      <c r="J892" t="n">
-        <v>9960</v>
-      </c>
+      <c r="J892" t="inlineStr"/>
       <c r="K892" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31285,9 +31039,7 @@
         <v>0</v>
       </c>
       <c r="I893" t="inlineStr"/>
-      <c r="J893" t="n">
-        <v>9960</v>
-      </c>
+      <c r="J893" t="inlineStr"/>
       <c r="K893" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31324,9 +31076,7 @@
         <v>0</v>
       </c>
       <c r="I894" t="inlineStr"/>
-      <c r="J894" t="n">
-        <v>9960</v>
-      </c>
+      <c r="J894" t="inlineStr"/>
       <c r="K894" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31363,9 +31113,7 @@
         <v>0</v>
       </c>
       <c r="I895" t="inlineStr"/>
-      <c r="J895" t="n">
-        <v>9960</v>
-      </c>
+      <c r="J895" t="inlineStr"/>
       <c r="K895" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31402,9 +31150,7 @@
         <v>0</v>
       </c>
       <c r="I896" t="inlineStr"/>
-      <c r="J896" t="n">
-        <v>9960</v>
-      </c>
+      <c r="J896" t="inlineStr"/>
       <c r="K896" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31441,9 +31187,7 @@
         <v>0</v>
       </c>
       <c r="I897" t="inlineStr"/>
-      <c r="J897" t="n">
-        <v>9960</v>
-      </c>
+      <c r="J897" t="inlineStr"/>
       <c r="K897" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31480,9 +31224,7 @@
         <v>0</v>
       </c>
       <c r="I898" t="inlineStr"/>
-      <c r="J898" t="n">
-        <v>9960</v>
-      </c>
+      <c r="J898" t="inlineStr"/>
       <c r="K898" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31519,9 +31261,7 @@
         <v>0</v>
       </c>
       <c r="I899" t="inlineStr"/>
-      <c r="J899" t="n">
-        <v>9960</v>
-      </c>
+      <c r="J899" t="inlineStr"/>
       <c r="K899" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31558,9 +31298,7 @@
         <v>0</v>
       </c>
       <c r="I900" t="inlineStr"/>
-      <c r="J900" t="n">
-        <v>9960</v>
-      </c>
+      <c r="J900" t="inlineStr"/>
       <c r="K900" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31597,9 +31335,7 @@
         <v>0</v>
       </c>
       <c r="I901" t="inlineStr"/>
-      <c r="J901" t="n">
-        <v>9960</v>
-      </c>
+      <c r="J901" t="inlineStr"/>
       <c r="K901" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31636,9 +31372,7 @@
         <v>0</v>
       </c>
       <c r="I902" t="inlineStr"/>
-      <c r="J902" t="n">
-        <v>9960</v>
-      </c>
+      <c r="J902" t="inlineStr"/>
       <c r="K902" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31675,9 +31409,7 @@
         <v>0</v>
       </c>
       <c r="I903" t="inlineStr"/>
-      <c r="J903" t="n">
-        <v>9960</v>
-      </c>
+      <c r="J903" t="inlineStr"/>
       <c r="K903" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31714,9 +31446,7 @@
         <v>0</v>
       </c>
       <c r="I904" t="inlineStr"/>
-      <c r="J904" t="n">
-        <v>9960</v>
-      </c>
+      <c r="J904" t="inlineStr"/>
       <c r="K904" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31753,9 +31483,7 @@
         <v>0</v>
       </c>
       <c r="I905" t="inlineStr"/>
-      <c r="J905" t="n">
-        <v>9960</v>
-      </c>
+      <c r="J905" t="inlineStr"/>
       <c r="K905" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31792,9 +31520,7 @@
         <v>0</v>
       </c>
       <c r="I906" t="inlineStr"/>
-      <c r="J906" t="n">
-        <v>9960</v>
-      </c>
+      <c r="J906" t="inlineStr"/>
       <c r="K906" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31831,9 +31557,7 @@
         <v>0</v>
       </c>
       <c r="I907" t="inlineStr"/>
-      <c r="J907" t="n">
-        <v>9960</v>
-      </c>
+      <c r="J907" t="inlineStr"/>
       <c r="K907" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31870,9 +31594,7 @@
         <v>0</v>
       </c>
       <c r="I908" t="inlineStr"/>
-      <c r="J908" t="n">
-        <v>9960</v>
-      </c>
+      <c r="J908" t="inlineStr"/>
       <c r="K908" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31909,9 +31631,7 @@
         <v>0</v>
       </c>
       <c r="I909" t="inlineStr"/>
-      <c r="J909" t="n">
-        <v>9960</v>
-      </c>
+      <c r="J909" t="inlineStr"/>
       <c r="K909" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31948,9 +31668,7 @@
         <v>0</v>
       </c>
       <c r="I910" t="inlineStr"/>
-      <c r="J910" t="n">
-        <v>9960</v>
-      </c>
+      <c r="J910" t="inlineStr"/>
       <c r="K910" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31987,9 +31705,7 @@
         <v>0</v>
       </c>
       <c r="I911" t="inlineStr"/>
-      <c r="J911" t="n">
-        <v>9960</v>
-      </c>
+      <c r="J911" t="inlineStr"/>
       <c r="K911" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32026,9 +31742,7 @@
         <v>0</v>
       </c>
       <c r="I912" t="inlineStr"/>
-      <c r="J912" t="n">
-        <v>9960</v>
-      </c>
+      <c r="J912" t="inlineStr"/>
       <c r="K912" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32065,9 +31779,7 @@
         <v>0</v>
       </c>
       <c r="I913" t="inlineStr"/>
-      <c r="J913" t="n">
-        <v>9960</v>
-      </c>
+      <c r="J913" t="inlineStr"/>
       <c r="K913" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32104,9 +31816,7 @@
         <v>0</v>
       </c>
       <c r="I914" t="inlineStr"/>
-      <c r="J914" t="n">
-        <v>9960</v>
-      </c>
+      <c r="J914" t="inlineStr"/>
       <c r="K914" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32143,9 +31853,7 @@
         <v>0</v>
       </c>
       <c r="I915" t="inlineStr"/>
-      <c r="J915" t="n">
-        <v>9960</v>
-      </c>
+      <c r="J915" t="inlineStr"/>
       <c r="K915" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32182,9 +31890,7 @@
         <v>0</v>
       </c>
       <c r="I916" t="inlineStr"/>
-      <c r="J916" t="n">
-        <v>9960</v>
-      </c>
+      <c r="J916" t="inlineStr"/>
       <c r="K916" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32221,9 +31927,7 @@
         <v>0</v>
       </c>
       <c r="I917" t="inlineStr"/>
-      <c r="J917" t="n">
-        <v>9960</v>
-      </c>
+      <c r="J917" t="inlineStr"/>
       <c r="K917" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32260,9 +31964,7 @@
         <v>0</v>
       </c>
       <c r="I918" t="inlineStr"/>
-      <c r="J918" t="n">
-        <v>9960</v>
-      </c>
+      <c r="J918" t="inlineStr"/>
       <c r="K918" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32299,9 +32001,7 @@
         <v>0</v>
       </c>
       <c r="I919" t="inlineStr"/>
-      <c r="J919" t="n">
-        <v>9960</v>
-      </c>
+      <c r="J919" t="inlineStr"/>
       <c r="K919" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32338,9 +32038,7 @@
         <v>0</v>
       </c>
       <c r="I920" t="inlineStr"/>
-      <c r="J920" t="n">
-        <v>9960</v>
-      </c>
+      <c r="J920" t="inlineStr"/>
       <c r="K920" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32377,9 +32075,7 @@
         <v>0</v>
       </c>
       <c r="I921" t="inlineStr"/>
-      <c r="J921" t="n">
-        <v>9960</v>
-      </c>
+      <c r="J921" t="inlineStr"/>
       <c r="K921" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32416,9 +32112,7 @@
         <v>0</v>
       </c>
       <c r="I922" t="inlineStr"/>
-      <c r="J922" t="n">
-        <v>9960</v>
-      </c>
+      <c r="J922" t="inlineStr"/>
       <c r="K922" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32455,9 +32149,7 @@
         <v>0</v>
       </c>
       <c r="I923" t="inlineStr"/>
-      <c r="J923" t="n">
-        <v>9960</v>
-      </c>
+      <c r="J923" t="inlineStr"/>
       <c r="K923" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32494,9 +32186,7 @@
         <v>0</v>
       </c>
       <c r="I924" t="inlineStr"/>
-      <c r="J924" t="n">
-        <v>9960</v>
-      </c>
+      <c r="J924" t="inlineStr"/>
       <c r="K924" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32533,9 +32223,7 @@
         <v>0</v>
       </c>
       <c r="I925" t="inlineStr"/>
-      <c r="J925" t="n">
-        <v>9960</v>
-      </c>
+      <c r="J925" t="inlineStr"/>
       <c r="K925" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32572,9 +32260,7 @@
         <v>0</v>
       </c>
       <c r="I926" t="inlineStr"/>
-      <c r="J926" t="n">
-        <v>9960</v>
-      </c>
+      <c r="J926" t="inlineStr"/>
       <c r="K926" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32611,9 +32297,7 @@
         <v>0</v>
       </c>
       <c r="I927" t="inlineStr"/>
-      <c r="J927" t="n">
-        <v>9960</v>
-      </c>
+      <c r="J927" t="inlineStr"/>
       <c r="K927" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32650,9 +32334,7 @@
         <v>0</v>
       </c>
       <c r="I928" t="inlineStr"/>
-      <c r="J928" t="n">
-        <v>9960</v>
-      </c>
+      <c r="J928" t="inlineStr"/>
       <c r="K928" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32689,9 +32371,7 @@
         <v>0</v>
       </c>
       <c r="I929" t="inlineStr"/>
-      <c r="J929" t="n">
-        <v>9960</v>
-      </c>
+      <c r="J929" t="inlineStr"/>
       <c r="K929" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32728,9 +32408,7 @@
         <v>0</v>
       </c>
       <c r="I930" t="inlineStr"/>
-      <c r="J930" t="n">
-        <v>9960</v>
-      </c>
+      <c r="J930" t="inlineStr"/>
       <c r="K930" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32767,9 +32445,7 @@
         <v>0</v>
       </c>
       <c r="I931" t="inlineStr"/>
-      <c r="J931" t="n">
-        <v>9960</v>
-      </c>
+      <c r="J931" t="inlineStr"/>
       <c r="K931" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32806,9 +32482,7 @@
         <v>0</v>
       </c>
       <c r="I932" t="inlineStr"/>
-      <c r="J932" t="n">
-        <v>9960</v>
-      </c>
+      <c r="J932" t="inlineStr"/>
       <c r="K932" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32845,9 +32519,7 @@
         <v>0</v>
       </c>
       <c r="I933" t="inlineStr"/>
-      <c r="J933" t="n">
-        <v>9960</v>
-      </c>
+      <c r="J933" t="inlineStr"/>
       <c r="K933" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32884,9 +32556,7 @@
         <v>0</v>
       </c>
       <c r="I934" t="inlineStr"/>
-      <c r="J934" t="n">
-        <v>9960</v>
-      </c>
+      <c r="J934" t="inlineStr"/>
       <c r="K934" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32923,9 +32593,7 @@
         <v>0</v>
       </c>
       <c r="I935" t="inlineStr"/>
-      <c r="J935" t="n">
-        <v>9960</v>
-      </c>
+      <c r="J935" t="inlineStr"/>
       <c r="K935" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32962,9 +32630,7 @@
         <v>0</v>
       </c>
       <c r="I936" t="inlineStr"/>
-      <c r="J936" t="n">
-        <v>9960</v>
-      </c>
+      <c r="J936" t="inlineStr"/>
       <c r="K936" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33001,9 +32667,7 @@
         <v>0</v>
       </c>
       <c r="I937" t="inlineStr"/>
-      <c r="J937" t="n">
-        <v>9960</v>
-      </c>
+      <c r="J937" t="inlineStr"/>
       <c r="K937" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33040,9 +32704,7 @@
         <v>0</v>
       </c>
       <c r="I938" t="inlineStr"/>
-      <c r="J938" t="n">
-        <v>9960</v>
-      </c>
+      <c r="J938" t="inlineStr"/>
       <c r="K938" t="inlineStr">
         <is>
           <t>매도 대기</t>
